--- a/AAII_Financials/Yearly/DSG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DSG_YR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -711,25 +711,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>447200</v>
+        <v>444100</v>
       </c>
       <c r="E8" s="3">
-        <v>417900</v>
+        <v>415000</v>
       </c>
       <c r="F8" s="3">
-        <v>352900</v>
+        <v>350500</v>
       </c>
       <c r="G8" s="3">
-        <v>304500</v>
+        <v>302400</v>
       </c>
       <c r="H8" s="3">
-        <v>261400</v>
+        <v>259600</v>
       </c>
       <c r="I8" s="3">
-        <v>237300</v>
+        <v>235600</v>
       </c>
       <c r="J8" s="3">
-        <v>219100</v>
+        <v>217600</v>
       </c>
       <c r="K8" s="3"/>
     </row>
@@ -738,25 +738,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>115300</v>
+        <v>114500</v>
       </c>
       <c r="E9" s="3">
-        <v>109900</v>
+        <v>109200</v>
       </c>
       <c r="F9" s="3">
-        <v>96200</v>
+        <v>95500</v>
       </c>
       <c r="G9" s="3">
-        <v>81700</v>
+        <v>81100</v>
       </c>
       <c r="H9" s="3">
-        <v>71900</v>
+        <v>71400</v>
       </c>
       <c r="I9" s="3">
-        <v>69100</v>
+        <v>68600</v>
       </c>
       <c r="J9" s="3">
-        <v>70400</v>
+        <v>69900</v>
       </c>
       <c r="K9" s="3"/>
     </row>
@@ -765,25 +765,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>331900</v>
+        <v>329600</v>
       </c>
       <c r="E10" s="3">
-        <v>307900</v>
+        <v>305800</v>
       </c>
       <c r="F10" s="3">
-        <v>256700</v>
+        <v>255000</v>
       </c>
       <c r="G10" s="3">
-        <v>222800</v>
+        <v>221300</v>
       </c>
       <c r="H10" s="3">
-        <v>189500</v>
+        <v>188200</v>
       </c>
       <c r="I10" s="3">
-        <v>168200</v>
+        <v>167000</v>
       </c>
       <c r="J10" s="3">
-        <v>148800</v>
+        <v>147700</v>
       </c>
       <c r="K10" s="3"/>
     </row>
@@ -805,25 +805,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>69300</v>
+        <v>68900</v>
       </c>
       <c r="E12" s="3">
-        <v>68600</v>
+        <v>68200</v>
       </c>
       <c r="F12" s="3">
-        <v>61400</v>
+        <v>61000</v>
       </c>
       <c r="G12" s="3">
-        <v>53600</v>
+        <v>53200</v>
       </c>
       <c r="H12" s="3">
-        <v>45600</v>
+        <v>45300</v>
       </c>
       <c r="I12" s="3">
-        <v>40100</v>
+        <v>39900</v>
       </c>
       <c r="J12" s="3">
-        <v>36000</v>
+        <v>35800</v>
       </c>
       <c r="K12" s="3"/>
     </row>
@@ -862,10 +862,10 @@
         <v>5500</v>
       </c>
       <c r="E14" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="F14" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="G14" s="3">
         <v>5100</v>
@@ -886,25 +886,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>71700</v>
+        <v>71200</v>
       </c>
       <c r="E15" s="3">
-        <v>71200</v>
+        <v>70700</v>
       </c>
       <c r="F15" s="3">
-        <v>51500</v>
+        <v>51200</v>
       </c>
       <c r="G15" s="3">
-        <v>42900</v>
+        <v>42600</v>
       </c>
       <c r="H15" s="3">
-        <v>38500</v>
+        <v>38200</v>
       </c>
       <c r="I15" s="3">
-        <v>33600</v>
+        <v>33400</v>
       </c>
       <c r="J15" s="3">
-        <v>27900</v>
+        <v>27700</v>
       </c>
       <c r="K15" s="3"/>
     </row>
@@ -923,25 +923,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>355600</v>
+        <v>353200</v>
       </c>
       <c r="E17" s="3">
-        <v>350800</v>
+        <v>348400</v>
       </c>
       <c r="F17" s="3">
-        <v>299800</v>
+        <v>297700</v>
       </c>
       <c r="G17" s="3">
-        <v>258500</v>
+        <v>256700</v>
       </c>
       <c r="H17" s="3">
-        <v>222000</v>
+        <v>220500</v>
       </c>
       <c r="I17" s="3">
-        <v>201200</v>
+        <v>199900</v>
       </c>
       <c r="J17" s="3">
-        <v>190200</v>
+        <v>188900</v>
       </c>
       <c r="K17" s="3"/>
     </row>
@@ -950,25 +950,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>91600</v>
+        <v>90900</v>
       </c>
       <c r="E18" s="3">
-        <v>67000</v>
+        <v>66600</v>
       </c>
       <c r="F18" s="3">
-        <v>53200</v>
+        <v>52800</v>
       </c>
       <c r="G18" s="3">
-        <v>46000</v>
+        <v>45700</v>
       </c>
       <c r="H18" s="3">
-        <v>39400</v>
+        <v>39100</v>
       </c>
       <c r="I18" s="3">
-        <v>36000</v>
+        <v>35800</v>
       </c>
       <c r="J18" s="3">
-        <v>29000</v>
+        <v>28800</v>
       </c>
       <c r="K18" s="3"/>
     </row>
@@ -996,7 +996,7 @@
         <v>200</v>
       </c>
       <c r="F20" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G20" s="3">
         <v>200</v>
@@ -1005,7 +1005,7 @@
         <v>1800</v>
       </c>
       <c r="I20" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J20" s="3">
         <v>400</v>
@@ -1017,25 +1017,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>169800</v>
+        <v>170000</v>
       </c>
       <c r="E21" s="3">
-        <v>145100</v>
+        <v>145500</v>
       </c>
       <c r="F21" s="3">
-        <v>110000</v>
+        <v>110200</v>
       </c>
       <c r="G21" s="3">
-        <v>93800</v>
+        <v>94000</v>
       </c>
       <c r="H21" s="3">
-        <v>83700</v>
+        <v>83900</v>
       </c>
       <c r="I21" s="3">
-        <v>73700</v>
+        <v>73900</v>
       </c>
       <c r="J21" s="3">
-        <v>61000</v>
+        <v>61200</v>
       </c>
       <c r="K21" s="3"/>
     </row>
@@ -1047,7 +1047,7 @@
         <v>1500</v>
       </c>
       <c r="E22" s="3">
-        <v>5700</v>
+        <v>5600</v>
       </c>
       <c r="F22" s="3">
         <v>2700</v>
@@ -1071,25 +1071,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>90300</v>
+        <v>89600</v>
       </c>
       <c r="E23" s="3">
-        <v>61600</v>
+        <v>61200</v>
       </c>
       <c r="F23" s="3">
-        <v>50700</v>
+        <v>50300</v>
       </c>
       <c r="G23" s="3">
-        <v>44600</v>
+        <v>44300</v>
       </c>
       <c r="H23" s="3">
-        <v>40400</v>
+        <v>40100</v>
       </c>
       <c r="I23" s="3">
-        <v>35600</v>
+        <v>35400</v>
       </c>
       <c r="J23" s="3">
-        <v>28000</v>
+        <v>27800</v>
       </c>
       <c r="K23" s="3"/>
     </row>
@@ -1098,16 +1098,16 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>23400</v>
+        <v>23300</v>
       </c>
       <c r="E24" s="3">
-        <v>14200</v>
+        <v>14100</v>
       </c>
       <c r="F24" s="3">
-        <v>10600</v>
+        <v>10500</v>
       </c>
       <c r="G24" s="3">
-        <v>11000</v>
+        <v>10900</v>
       </c>
       <c r="H24" s="3">
         <v>9800</v>
@@ -1116,7 +1116,7 @@
         <v>9200</v>
       </c>
       <c r="J24" s="3">
-        <v>8700</v>
+        <v>8600</v>
       </c>
       <c r="K24" s="3"/>
     </row>
@@ -1152,25 +1152,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>66800</v>
+        <v>66400</v>
       </c>
       <c r="E26" s="3">
-        <v>47500</v>
+        <v>47100</v>
       </c>
       <c r="F26" s="3">
-        <v>40100</v>
+        <v>39800</v>
       </c>
       <c r="G26" s="3">
-        <v>33600</v>
+        <v>33300</v>
       </c>
       <c r="H26" s="3">
-        <v>30600</v>
+        <v>30400</v>
       </c>
       <c r="I26" s="3">
-        <v>26400</v>
+        <v>26200</v>
       </c>
       <c r="J26" s="3">
-        <v>19300</v>
+        <v>19200</v>
       </c>
       <c r="K26" s="3"/>
     </row>
@@ -1179,25 +1179,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>66800</v>
+        <v>66400</v>
       </c>
       <c r="E27" s="3">
-        <v>47500</v>
+        <v>47100</v>
       </c>
       <c r="F27" s="3">
-        <v>40100</v>
+        <v>39800</v>
       </c>
       <c r="G27" s="3">
-        <v>33600</v>
+        <v>33300</v>
       </c>
       <c r="H27" s="3">
-        <v>30600</v>
+        <v>30400</v>
       </c>
       <c r="I27" s="3">
-        <v>26400</v>
+        <v>26200</v>
       </c>
       <c r="J27" s="3">
-        <v>19300</v>
+        <v>19200</v>
       </c>
       <c r="K27" s="3"/>
     </row>
@@ -1320,7 +1320,7 @@
         <v>-200</v>
       </c>
       <c r="F32" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="G32" s="3">
         <v>-200</v>
@@ -1329,7 +1329,7 @@
         <v>-1800</v>
       </c>
       <c r="I32" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="J32" s="3">
         <v>-400</v>
@@ -1341,25 +1341,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>66800</v>
+        <v>66400</v>
       </c>
       <c r="E33" s="3">
-        <v>47500</v>
+        <v>47100</v>
       </c>
       <c r="F33" s="3">
-        <v>40100</v>
+        <v>39800</v>
       </c>
       <c r="G33" s="3">
-        <v>34500</v>
+        <v>34200</v>
       </c>
       <c r="H33" s="3">
-        <v>30600</v>
+        <v>30400</v>
       </c>
       <c r="I33" s="3">
-        <v>26400</v>
+        <v>26200</v>
       </c>
       <c r="J33" s="3">
-        <v>19300</v>
+        <v>19200</v>
       </c>
       <c r="K33" s="3"/>
     </row>
@@ -1395,25 +1395,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>66800</v>
+        <v>66400</v>
       </c>
       <c r="E35" s="3">
-        <v>47500</v>
+        <v>47100</v>
       </c>
       <c r="F35" s="3">
-        <v>40100</v>
+        <v>39800</v>
       </c>
       <c r="G35" s="3">
-        <v>34500</v>
+        <v>34200</v>
       </c>
       <c r="H35" s="3">
-        <v>30600</v>
+        <v>30400</v>
       </c>
       <c r="I35" s="3">
-        <v>26400</v>
+        <v>26200</v>
       </c>
       <c r="J35" s="3">
-        <v>19300</v>
+        <v>19200</v>
       </c>
       <c r="K35" s="3"/>
     </row>
@@ -1480,25 +1480,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>171400</v>
+        <v>170300</v>
       </c>
       <c r="E41" s="3">
-        <v>57000</v>
+        <v>56600</v>
       </c>
       <c r="F41" s="3">
-        <v>35000</v>
+        <v>34800</v>
       </c>
       <c r="G41" s="3">
-        <v>45100</v>
+        <v>44800</v>
       </c>
       <c r="H41" s="3">
-        <v>48900</v>
+        <v>48600</v>
       </c>
       <c r="I41" s="3">
-        <v>47700</v>
+        <v>47400</v>
       </c>
       <c r="J41" s="3">
-        <v>151400</v>
+        <v>150400</v>
       </c>
       <c r="K41" s="3"/>
     </row>
@@ -1534,25 +1534,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>66700</v>
+        <v>66300</v>
       </c>
       <c r="E43" s="3">
-        <v>54400</v>
+        <v>54000</v>
       </c>
       <c r="F43" s="3">
-        <v>45900</v>
+        <v>45600</v>
       </c>
       <c r="G43" s="3">
-        <v>41000</v>
+        <v>40700</v>
       </c>
       <c r="H43" s="3">
-        <v>37300</v>
+        <v>37100</v>
       </c>
       <c r="I43" s="3">
-        <v>36900</v>
+        <v>36600</v>
       </c>
       <c r="J43" s="3">
-        <v>33200</v>
+        <v>33000</v>
       </c>
       <c r="K43" s="3"/>
     </row>
@@ -1561,7 +1561,7 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E44" s="3">
         <v>500</v>
@@ -1588,16 +1588,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>21700</v>
+        <v>21600</v>
       </c>
       <c r="E45" s="3">
-        <v>16700</v>
+        <v>16500</v>
       </c>
       <c r="F45" s="3">
-        <v>11600</v>
+        <v>11500</v>
       </c>
       <c r="G45" s="3">
-        <v>9800</v>
+        <v>9700</v>
       </c>
       <c r="H45" s="3">
         <v>6600</v>
@@ -1606,7 +1606,7 @@
         <v>5400</v>
       </c>
       <c r="J45" s="3">
-        <v>16500</v>
+        <v>16400</v>
       </c>
       <c r="K45" s="3"/>
     </row>
@@ -1615,25 +1615,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>260500</v>
+        <v>258700</v>
       </c>
       <c r="E46" s="3">
-        <v>128500</v>
+        <v>127600</v>
       </c>
       <c r="F46" s="3">
-        <v>92700</v>
+        <v>92000</v>
       </c>
       <c r="G46" s="3">
-        <v>96000</v>
+        <v>95300</v>
       </c>
       <c r="H46" s="3">
-        <v>93100</v>
+        <v>92400</v>
       </c>
       <c r="I46" s="3">
-        <v>96100</v>
+        <v>95500</v>
       </c>
       <c r="J46" s="3">
-        <v>201700</v>
+        <v>200400</v>
       </c>
       <c r="K46" s="3"/>
     </row>
@@ -1669,19 +1669,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>31100</v>
+        <v>30900</v>
       </c>
       <c r="E48" s="3">
-        <v>34100</v>
+        <v>33900</v>
       </c>
       <c r="F48" s="3">
-        <v>16200</v>
+        <v>16100</v>
       </c>
       <c r="G48" s="3">
-        <v>16400</v>
+        <v>16300</v>
       </c>
       <c r="H48" s="3">
-        <v>13400</v>
+        <v>13300</v>
       </c>
       <c r="I48" s="3">
         <v>11000</v>
@@ -1696,25 +1696,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1032700</v>
+        <v>1025600</v>
       </c>
       <c r="E49" s="3">
-        <v>1001300</v>
+        <v>994400</v>
       </c>
       <c r="F49" s="3">
-        <v>711000</v>
+        <v>706200</v>
       </c>
       <c r="G49" s="3">
-        <v>677400</v>
+        <v>672800</v>
       </c>
       <c r="H49" s="3">
-        <v>524000</v>
+        <v>520400</v>
       </c>
       <c r="I49" s="3">
-        <v>450300</v>
+        <v>447200</v>
       </c>
       <c r="J49" s="3">
-        <v>336800</v>
+        <v>334500</v>
       </c>
       <c r="K49" s="3"/>
     </row>
@@ -1777,25 +1777,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>39500</v>
+        <v>39200</v>
       </c>
       <c r="E52" s="3">
-        <v>45000</v>
+        <v>44700</v>
       </c>
       <c r="F52" s="3">
-        <v>18100</v>
+        <v>18000</v>
       </c>
       <c r="G52" s="3">
         <v>11600</v>
       </c>
       <c r="H52" s="3">
-        <v>11500</v>
+        <v>11400</v>
       </c>
       <c r="I52" s="3">
-        <v>23300</v>
+        <v>23200</v>
       </c>
       <c r="J52" s="3">
-        <v>21200</v>
+        <v>21000</v>
       </c>
       <c r="K52" s="3"/>
     </row>
@@ -1831,25 +1831,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1363700</v>
+        <v>1354400</v>
       </c>
       <c r="E54" s="3">
-        <v>1209000</v>
+        <v>1200700</v>
       </c>
       <c r="F54" s="3">
-        <v>838000</v>
+        <v>832200</v>
       </c>
       <c r="G54" s="3">
-        <v>801500</v>
+        <v>796000</v>
       </c>
       <c r="H54" s="3">
-        <v>642000</v>
+        <v>637600</v>
       </c>
       <c r="I54" s="3">
-        <v>580700</v>
+        <v>576800</v>
       </c>
       <c r="J54" s="3">
-        <v>569700</v>
+        <v>565800</v>
       </c>
       <c r="K54" s="3"/>
     </row>
@@ -1884,7 +1884,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>10200</v>
+        <v>10100</v>
       </c>
       <c r="E57" s="3">
         <v>9800</v>
@@ -1938,25 +1938,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>123500</v>
+        <v>122700</v>
       </c>
       <c r="E59" s="3">
-        <v>104200</v>
+        <v>103500</v>
       </c>
       <c r="F59" s="3">
-        <v>83700</v>
+        <v>83100</v>
       </c>
       <c r="G59" s="3">
-        <v>76700</v>
+        <v>76200</v>
       </c>
       <c r="H59" s="3">
-        <v>63000</v>
+        <v>62600</v>
       </c>
       <c r="I59" s="3">
-        <v>45600</v>
+        <v>45300</v>
       </c>
       <c r="J59" s="3">
-        <v>46300</v>
+        <v>46000</v>
       </c>
       <c r="K59" s="3"/>
     </row>
@@ -1965,25 +1965,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>133700</v>
+        <v>132800</v>
       </c>
       <c r="E60" s="3">
-        <v>114100</v>
+        <v>113300</v>
       </c>
       <c r="F60" s="3">
-        <v>90300</v>
+        <v>89600</v>
       </c>
       <c r="G60" s="3">
-        <v>86800</v>
+        <v>86200</v>
       </c>
       <c r="H60" s="3">
-        <v>69000</v>
+        <v>68600</v>
       </c>
       <c r="I60" s="3">
-        <v>51400</v>
+        <v>51000</v>
       </c>
       <c r="J60" s="3">
-        <v>52200</v>
+        <v>51900</v>
       </c>
       <c r="K60" s="3"/>
     </row>
@@ -1998,10 +1998,10 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>32700</v>
+        <v>32400</v>
       </c>
       <c r="G61" s="3">
-        <v>47500</v>
+        <v>47100</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2019,25 +2019,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>61500</v>
+        <v>61000</v>
       </c>
       <c r="E62" s="3">
-        <v>41000</v>
+        <v>40700</v>
       </c>
       <c r="F62" s="3">
-        <v>30800</v>
+        <v>30600</v>
       </c>
       <c r="G62" s="3">
-        <v>27400</v>
+        <v>27200</v>
       </c>
       <c r="H62" s="3">
-        <v>20700</v>
+        <v>20500</v>
       </c>
       <c r="I62" s="3">
-        <v>13700</v>
+        <v>13600</v>
       </c>
       <c r="J62" s="3">
-        <v>16800</v>
+        <v>16700</v>
       </c>
       <c r="K62" s="3"/>
     </row>
@@ -2127,25 +2127,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>195200</v>
+        <v>193900</v>
       </c>
       <c r="E66" s="3">
-        <v>155000</v>
+        <v>154000</v>
       </c>
       <c r="F66" s="3">
-        <v>153700</v>
+        <v>152600</v>
       </c>
       <c r="G66" s="3">
-        <v>161700</v>
+        <v>160600</v>
       </c>
       <c r="H66" s="3">
-        <v>89700</v>
+        <v>89100</v>
       </c>
       <c r="I66" s="3">
-        <v>65100</v>
+        <v>64600</v>
       </c>
       <c r="J66" s="3">
-        <v>69000</v>
+        <v>68600</v>
       </c>
       <c r="K66" s="3"/>
     </row>
@@ -2275,25 +2275,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-107300</v>
+        <v>-106600</v>
       </c>
       <c r="E72" s="3">
-        <v>-174100</v>
+        <v>-172900</v>
       </c>
       <c r="F72" s="3">
-        <v>-221600</v>
+        <v>-220100</v>
       </c>
       <c r="G72" s="3">
-        <v>-271400</v>
+        <v>-269600</v>
       </c>
       <c r="H72" s="3">
-        <v>-305900</v>
+        <v>-303800</v>
       </c>
       <c r="I72" s="3">
-        <v>-336400</v>
+        <v>-334100</v>
       </c>
       <c r="J72" s="3">
-        <v>-362800</v>
+        <v>-360300</v>
       </c>
       <c r="K72" s="3"/>
     </row>
@@ -2383,25 +2383,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1168500</v>
+        <v>1160500</v>
       </c>
       <c r="E76" s="3">
-        <v>1053900</v>
+        <v>1046700</v>
       </c>
       <c r="F76" s="3">
-        <v>684300</v>
+        <v>679600</v>
       </c>
       <c r="G76" s="3">
-        <v>639800</v>
+        <v>635400</v>
       </c>
       <c r="H76" s="3">
-        <v>552300</v>
+        <v>548500</v>
       </c>
       <c r="I76" s="3">
-        <v>515700</v>
+        <v>512100</v>
       </c>
       <c r="J76" s="3">
-        <v>500700</v>
+        <v>497300</v>
       </c>
       <c r="K76" s="3"/>
     </row>
@@ -2469,25 +2469,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>66800</v>
+        <v>66400</v>
       </c>
       <c r="E81" s="3">
-        <v>47500</v>
+        <v>47100</v>
       </c>
       <c r="F81" s="3">
-        <v>40100</v>
+        <v>39800</v>
       </c>
       <c r="G81" s="3">
-        <v>34500</v>
+        <v>34200</v>
       </c>
       <c r="H81" s="3">
-        <v>30600</v>
+        <v>30400</v>
       </c>
       <c r="I81" s="3">
-        <v>26400</v>
+        <v>26200</v>
       </c>
       <c r="J81" s="3">
-        <v>19300</v>
+        <v>19200</v>
       </c>
       <c r="K81" s="3"/>
     </row>
@@ -2509,25 +2509,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>79100</v>
+        <v>78500</v>
       </c>
       <c r="E83" s="3">
-        <v>78900</v>
+        <v>78400</v>
       </c>
       <c r="F83" s="3">
-        <v>57400</v>
+        <v>57000</v>
       </c>
       <c r="G83" s="3">
-        <v>48200</v>
+        <v>47900</v>
       </c>
       <c r="H83" s="3">
-        <v>43100</v>
+        <v>42800</v>
       </c>
       <c r="I83" s="3">
-        <v>38000</v>
+        <v>37700</v>
       </c>
       <c r="J83" s="3">
-        <v>32100</v>
+        <v>31900</v>
       </c>
       <c r="K83" s="3"/>
     </row>
@@ -2671,25 +2671,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>168300</v>
+        <v>167200</v>
       </c>
       <c r="E89" s="3">
-        <v>133700</v>
+        <v>132800</v>
       </c>
       <c r="F89" s="3">
-        <v>100100</v>
+        <v>99500</v>
       </c>
       <c r="G89" s="3">
+        <v>91900</v>
+      </c>
+      <c r="H89" s="3">
         <v>92500</v>
       </c>
-      <c r="H89" s="3">
-        <v>93100</v>
-      </c>
       <c r="I89" s="3">
-        <v>69600</v>
+        <v>69100</v>
       </c>
       <c r="J89" s="3">
-        <v>63500</v>
+        <v>63000</v>
       </c>
       <c r="K89" s="3"/>
     </row>
@@ -2714,7 +2714,7 @@
         <v>-4800</v>
       </c>
       <c r="E91" s="3">
-        <v>-6300</v>
+        <v>-6200</v>
       </c>
       <c r="F91" s="3">
         <v>-6700</v>
@@ -2792,25 +2792,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-66900</v>
+        <v>-66400</v>
       </c>
       <c r="E94" s="3">
-        <v>-380900</v>
+        <v>-378300</v>
       </c>
       <c r="F94" s="3">
-        <v>-93900</v>
+        <v>-93200</v>
       </c>
       <c r="G94" s="3">
-        <v>-150000</v>
+        <v>-149000</v>
       </c>
       <c r="H94" s="3">
-        <v>-90200</v>
+        <v>-89600</v>
       </c>
       <c r="I94" s="3">
-        <v>-166500</v>
+        <v>-165400</v>
       </c>
       <c r="J94" s="3">
-        <v>-108800</v>
+        <v>-108100</v>
       </c>
       <c r="K94" s="3"/>
     </row>
@@ -2943,13 +2943,13 @@
         <v>7100</v>
       </c>
       <c r="E100" s="3">
-        <v>269600</v>
+        <v>267700</v>
       </c>
       <c r="F100" s="3">
-        <v>-14600</v>
+        <v>-14500</v>
       </c>
       <c r="G100" s="3">
-        <v>48700</v>
+        <v>48400</v>
       </c>
       <c r="H100" s="3">
         <v>-300</v>
@@ -2958,7 +2958,7 @@
         <v>-3100</v>
       </c>
       <c r="J100" s="3">
-        <v>123900</v>
+        <v>123100</v>
       </c>
       <c r="K100" s="3"/>
     </row>
@@ -2973,7 +2973,7 @@
         <v>-500</v>
       </c>
       <c r="F101" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="G101" s="3">
         <v>4900</v>
@@ -2985,7 +2985,7 @@
         <v>-3600</v>
       </c>
       <c r="J101" s="3">
-        <v>-7600</v>
+        <v>-7500</v>
       </c>
       <c r="K101" s="3"/>
     </row>
@@ -2994,13 +2994,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>114500</v>
+        <v>113700</v>
       </c>
       <c r="E102" s="3">
-        <v>21900</v>
+        <v>21800</v>
       </c>
       <c r="F102" s="3">
-        <v>-10100</v>
+        <v>-10000</v>
       </c>
       <c r="G102" s="3">
         <v>-3800</v>
@@ -3009,10 +3009,10 @@
         <v>1200</v>
       </c>
       <c r="I102" s="3">
-        <v>-103700</v>
+        <v>-103000</v>
       </c>
       <c r="J102" s="3">
-        <v>71000</v>
+        <v>70500</v>
       </c>
       <c r="K102" s="3"/>
     </row>

--- a/AAII_Financials/Yearly/DSG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DSG_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>DSG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,129 +665,141 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E7" s="2">
         <v>44227</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43861</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43496</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43131</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42766</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42400</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42035</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>444100</v>
+        <v>541200</v>
       </c>
       <c r="E8" s="3">
-        <v>415000</v>
+        <v>444300</v>
       </c>
       <c r="F8" s="3">
-        <v>350500</v>
+        <v>415200</v>
       </c>
       <c r="G8" s="3">
-        <v>302400</v>
+        <v>350700</v>
       </c>
       <c r="H8" s="3">
-        <v>259600</v>
+        <v>302600</v>
       </c>
       <c r="I8" s="3">
-        <v>235600</v>
+        <v>259700</v>
       </c>
       <c r="J8" s="3">
+        <v>235700</v>
+      </c>
+      <c r="K8" s="3">
         <v>217600</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>114500</v>
+        <v>129700</v>
       </c>
       <c r="E9" s="3">
+        <v>114600</v>
+      </c>
+      <c r="F9" s="3">
         <v>109200</v>
       </c>
-      <c r="F9" s="3">
-        <v>95500</v>
-      </c>
       <c r="G9" s="3">
-        <v>81100</v>
+        <v>95600</v>
       </c>
       <c r="H9" s="3">
+        <v>81200</v>
+      </c>
+      <c r="I9" s="3">
         <v>71400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>68600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>69900</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>329600</v>
+        <v>411400</v>
       </c>
       <c r="E10" s="3">
-        <v>305800</v>
+        <v>329700</v>
       </c>
       <c r="F10" s="3">
-        <v>255000</v>
+        <v>305900</v>
       </c>
       <c r="G10" s="3">
-        <v>221300</v>
+        <v>255100</v>
       </c>
       <c r="H10" s="3">
+        <v>221400</v>
+      </c>
+      <c r="I10" s="3">
         <v>188200</v>
       </c>
-      <c r="I10" s="3">
-        <v>167000</v>
-      </c>
       <c r="J10" s="3">
+        <v>167100</v>
+      </c>
+      <c r="K10" s="3">
         <v>147700</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,35 +811,39 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>79700</v>
+      </c>
+      <c r="E12" s="3">
         <v>68900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>68200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>61000</v>
       </c>
-      <c r="G12" s="3">
-        <v>53200</v>
-      </c>
       <c r="H12" s="3">
+        <v>53300</v>
+      </c>
+      <c r="I12" s="3">
         <v>45300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>39900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>35800</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -852,63 +868,72 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E14" s="3">
         <v>5500</v>
-      </c>
-      <c r="E14" s="3">
-        <v>4800</v>
       </c>
       <c r="F14" s="3">
         <v>4800</v>
       </c>
       <c r="G14" s="3">
+        <v>4800</v>
+      </c>
+      <c r="H14" s="3">
         <v>5100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>4400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>3700</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>75300</v>
+      </c>
+      <c r="E15" s="3">
         <v>71200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>70700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>51200</v>
       </c>
-      <c r="G15" s="3">
-        <v>42600</v>
-      </c>
       <c r="H15" s="3">
+        <v>42700</v>
+      </c>
+      <c r="I15" s="3">
         <v>38200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>33400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>27700</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -917,62 +942,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>353200</v>
+        <v>409400</v>
       </c>
       <c r="E17" s="3">
-        <v>348400</v>
+        <v>353300</v>
       </c>
       <c r="F17" s="3">
-        <v>297700</v>
+        <v>348600</v>
       </c>
       <c r="G17" s="3">
-        <v>256700</v>
+        <v>297800</v>
       </c>
       <c r="H17" s="3">
-        <v>220500</v>
+        <v>256800</v>
       </c>
       <c r="I17" s="3">
+        <v>220600</v>
+      </c>
+      <c r="J17" s="3">
         <v>199900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>188900</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>90900</v>
+        <v>131800</v>
       </c>
       <c r="E18" s="3">
+        <v>91000</v>
+      </c>
+      <c r="F18" s="3">
         <v>66600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>52800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>45700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>39100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>35800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>28800</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -984,13 +1016,14 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E20" s="3">
         <v>200</v>
@@ -1002,125 +1035,140 @@
         <v>200</v>
       </c>
       <c r="H20" s="3">
+        <v>200</v>
+      </c>
+      <c r="I20" s="3">
         <v>1800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>170000</v>
+        <v>214400</v>
       </c>
       <c r="E21" s="3">
-        <v>145500</v>
+        <v>170100</v>
       </c>
       <c r="F21" s="3">
-        <v>110200</v>
+        <v>145600</v>
       </c>
       <c r="G21" s="3">
+        <v>110300</v>
+      </c>
+      <c r="H21" s="3">
         <v>94000</v>
       </c>
-      <c r="H21" s="3">
-        <v>83900</v>
-      </c>
       <c r="I21" s="3">
-        <v>73900</v>
+        <v>84000</v>
       </c>
       <c r="J21" s="3">
+        <v>74000</v>
+      </c>
+      <c r="K21" s="3">
         <v>61200</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E22" s="3">
         <v>1500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>5600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1400</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>89600</v>
+        <v>130800</v>
       </c>
       <c r="E23" s="3">
+        <v>89700</v>
+      </c>
+      <c r="F23" s="3">
         <v>61200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>50300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>44300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>40100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>35400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>27800</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E24" s="3">
         <v>23300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>14100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>10500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>10900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>9800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>9200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>8600</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1145,63 +1193,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>109900</v>
+      </c>
+      <c r="E26" s="3">
         <v>66400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>47100</v>
       </c>
-      <c r="F26" s="3">
-        <v>39800</v>
-      </c>
       <c r="G26" s="3">
-        <v>33300</v>
+        <v>39900</v>
       </c>
       <c r="H26" s="3">
+        <v>33400</v>
+      </c>
+      <c r="I26" s="3">
         <v>30400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>26200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>19200</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>109900</v>
+      </c>
+      <c r="E27" s="3">
         <v>66400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>47100</v>
       </c>
-      <c r="F27" s="3">
-        <v>39800</v>
-      </c>
       <c r="G27" s="3">
-        <v>33300</v>
+        <v>39900</v>
       </c>
       <c r="H27" s="3">
+        <v>33400</v>
+      </c>
+      <c r="I27" s="3">
         <v>30400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>26200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>19200</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1226,9 +1283,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1241,11 +1301,11 @@
       <c r="F29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="3">
         <v>900</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>24</v>
@@ -1253,9 +1313,12 @@
       <c r="J29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1280,9 +1343,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1307,14 +1373,17 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="E32" s="3">
         <v>-200</v>
@@ -1326,44 +1395,50 @@
         <v>-200</v>
       </c>
       <c r="H32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I32" s="3">
         <v>-1800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>109900</v>
+      </c>
+      <c r="E33" s="3">
         <v>66400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>47100</v>
       </c>
-      <c r="F33" s="3">
-        <v>39800</v>
-      </c>
       <c r="G33" s="3">
-        <v>34200</v>
+        <v>39900</v>
       </c>
       <c r="H33" s="3">
+        <v>34300</v>
+      </c>
+      <c r="I33" s="3">
         <v>30400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>26200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>19200</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1388,68 +1463,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>109900</v>
+      </c>
+      <c r="E35" s="3">
         <v>66400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>47100</v>
       </c>
-      <c r="F35" s="3">
-        <v>39800</v>
-      </c>
       <c r="G35" s="3">
-        <v>34200</v>
+        <v>39900</v>
       </c>
       <c r="H35" s="3">
+        <v>34300</v>
+      </c>
+      <c r="I35" s="3">
         <v>30400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>26200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>19200</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E38" s="2">
         <v>44227</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43861</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43496</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43131</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42766</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42400</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42035</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1461,8 +1545,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1474,35 +1559,39 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>272000</v>
+      </c>
+      <c r="E41" s="3">
         <v>170300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>56600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>34800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>44800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>48600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>47400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>150400</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1518,59 +1607,65 @@
       <c r="G42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H42" s="3">
-        <v>0</v>
+      <c r="H42" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
         <v>5900</v>
       </c>
-      <c r="J42" s="3" t="s">
+      <c r="K42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>71100</v>
+      </c>
+      <c r="E43" s="3">
         <v>66300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>54000</v>
       </c>
-      <c r="F43" s="3">
-        <v>45600</v>
-      </c>
       <c r="G43" s="3">
+        <v>45700</v>
+      </c>
+      <c r="H43" s="3">
         <v>40700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>37100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>36600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>33000</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="E44" s="3">
         <v>500</v>
       </c>
       <c r="F44" s="3">
+        <v>500</v>
+      </c>
+      <c r="G44" s="3">
         <v>100</v>
-      </c>
-      <c r="G44" s="3">
-        <v>200</v>
       </c>
       <c r="H44" s="3">
         <v>200</v>
@@ -1579,65 +1674,74 @@
         <v>200</v>
       </c>
       <c r="J44" s="3">
+        <v>200</v>
+      </c>
+      <c r="K44" s="3">
         <v>600</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E45" s="3">
         <v>21600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>16500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>11500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>9700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>16400</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>258700</v>
+        <v>372200</v>
       </c>
       <c r="E46" s="3">
-        <v>127600</v>
+        <v>258800</v>
       </c>
       <c r="F46" s="3">
-        <v>92000</v>
+        <v>127700</v>
       </c>
       <c r="G46" s="3">
-        <v>95300</v>
+        <v>92100</v>
       </c>
       <c r="H46" s="3">
-        <v>92400</v>
+        <v>95400</v>
       </c>
       <c r="I46" s="3">
+        <v>92500</v>
+      </c>
+      <c r="J46" s="3">
         <v>95500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>200400</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1662,63 +1766,72 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>27300</v>
+      </c>
+      <c r="E48" s="3">
         <v>30900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>33900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>16100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>16300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>13300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>11000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>10000</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1025600</v>
+        <v>1068300</v>
       </c>
       <c r="E49" s="3">
-        <v>994400</v>
+        <v>1026000</v>
       </c>
       <c r="F49" s="3">
-        <v>706200</v>
+        <v>994800</v>
       </c>
       <c r="G49" s="3">
-        <v>672800</v>
+        <v>706400</v>
       </c>
       <c r="H49" s="3">
-        <v>520400</v>
+        <v>673000</v>
       </c>
       <c r="I49" s="3">
-        <v>447200</v>
+        <v>520600</v>
       </c>
       <c r="J49" s="3">
+        <v>447300</v>
+      </c>
+      <c r="K49" s="3">
         <v>334500</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1743,9 +1856,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1770,36 +1886,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>42800</v>
+      </c>
+      <c r="E52" s="3">
         <v>39200</v>
       </c>
-      <c r="E52" s="3">
-        <v>44700</v>
-      </c>
       <c r="F52" s="3">
+        <v>44800</v>
+      </c>
+      <c r="G52" s="3">
         <v>18000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>11600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>11400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>23200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>21000</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1824,36 +1946,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1354400</v>
+        <v>1510600</v>
       </c>
       <c r="E54" s="3">
-        <v>1200700</v>
+        <v>1354900</v>
       </c>
       <c r="F54" s="3">
-        <v>832200</v>
+        <v>1201100</v>
       </c>
       <c r="G54" s="3">
-        <v>796000</v>
+        <v>832500</v>
       </c>
       <c r="H54" s="3">
-        <v>637600</v>
+        <v>796300</v>
       </c>
       <c r="I54" s="3">
-        <v>576800</v>
+        <v>637800</v>
       </c>
       <c r="J54" s="3">
+        <v>577000</v>
+      </c>
+      <c r="K54" s="3">
         <v>565800</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1865,8 +1993,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1878,35 +2007,39 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E57" s="3">
         <v>10100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>9800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>10100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5900</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -1931,63 +2064,72 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>156600</v>
+      </c>
+      <c r="E59" s="3">
         <v>122700</v>
       </c>
-      <c r="E59" s="3">
-        <v>103500</v>
-      </c>
       <c r="F59" s="3">
+        <v>103600</v>
+      </c>
+      <c r="G59" s="3">
         <v>83100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>76200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>62600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>45300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>46000</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>132800</v>
+        <v>170000</v>
       </c>
       <c r="E60" s="3">
+        <v>132900</v>
+      </c>
+      <c r="F60" s="3">
         <v>113300</v>
       </c>
-      <c r="F60" s="3">
-        <v>89600</v>
-      </c>
       <c r="G60" s="3">
-        <v>86200</v>
+        <v>89700</v>
       </c>
       <c r="H60" s="3">
+        <v>86300</v>
+      </c>
+      <c r="I60" s="3">
         <v>68600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>51000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>51900</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -1998,50 +2140,56 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>32400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>47100</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>61000</v>
+        <v>66500</v>
       </c>
       <c r="E62" s="3">
+        <v>61100</v>
+      </c>
+      <c r="F62" s="3">
         <v>40700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>30600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>27200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>20500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>13600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>16700</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2066,9 +2214,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2093,9 +2244,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2120,36 +2274,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>236500</v>
+      </c>
+      <c r="E66" s="3">
         <v>193900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>154000</v>
       </c>
-      <c r="F66" s="3">
-        <v>152600</v>
-      </c>
       <c r="G66" s="3">
+        <v>152700</v>
+      </c>
+      <c r="H66" s="3">
         <v>160600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>89100</v>
       </c>
-      <c r="I66" s="3">
-        <v>64600</v>
-      </c>
       <c r="J66" s="3">
+        <v>64700</v>
+      </c>
+      <c r="K66" s="3">
         <v>68600</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2161,8 +2321,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2187,9 +2348,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2214,9 +2378,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2241,9 +2408,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2268,36 +2438,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-106600</v>
       </c>
-      <c r="E72" s="3">
-        <v>-172900</v>
-      </c>
       <c r="F72" s="3">
-        <v>-220100</v>
+        <v>-173000</v>
       </c>
       <c r="G72" s="3">
-        <v>-269600</v>
+        <v>-220200</v>
       </c>
       <c r="H72" s="3">
-        <v>-303800</v>
+        <v>-269700</v>
       </c>
       <c r="I72" s="3">
-        <v>-334100</v>
+        <v>-303900</v>
       </c>
       <c r="J72" s="3">
+        <v>-334300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-360300</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2322,9 +2498,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2349,9 +2528,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2376,36 +2558,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1160500</v>
+        <v>1274100</v>
       </c>
       <c r="E76" s="3">
-        <v>1046700</v>
+        <v>1161000</v>
       </c>
       <c r="F76" s="3">
-        <v>679600</v>
+        <v>1047100</v>
       </c>
       <c r="G76" s="3">
-        <v>635400</v>
+        <v>679800</v>
       </c>
       <c r="H76" s="3">
-        <v>548500</v>
+        <v>635600</v>
       </c>
       <c r="I76" s="3">
-        <v>512100</v>
+        <v>548700</v>
       </c>
       <c r="J76" s="3">
+        <v>512300</v>
+      </c>
+      <c r="K76" s="3">
         <v>497300</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2430,68 +2618,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E80" s="2">
         <v>44227</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43861</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43496</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43131</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42766</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42400</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42035</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>109900</v>
+      </c>
+      <c r="E81" s="3">
         <v>66400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>47100</v>
       </c>
-      <c r="F81" s="3">
-        <v>39800</v>
-      </c>
       <c r="G81" s="3">
-        <v>34200</v>
+        <v>39900</v>
       </c>
       <c r="H81" s="3">
+        <v>34300</v>
+      </c>
+      <c r="I81" s="3">
         <v>30400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>26200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>19200</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2503,35 +2700,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>78500</v>
+        <v>81800</v>
       </c>
       <c r="E83" s="3">
+        <v>78600</v>
+      </c>
+      <c r="F83" s="3">
         <v>78400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>57000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>47900</v>
       </c>
-      <c r="H83" s="3">
-        <v>42800</v>
-      </c>
       <c r="I83" s="3">
+        <v>42900</v>
+      </c>
+      <c r="J83" s="3">
         <v>37700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>31900</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2556,9 +2757,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2583,9 +2787,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2610,9 +2817,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2637,9 +2847,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2664,36 +2877,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>224500</v>
+      </c>
+      <c r="E89" s="3">
         <v>167200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>132800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>99500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>91900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>92500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>69100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>63000</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2705,35 +2924,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-6200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-6700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-6500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-6300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3400</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2758,9 +2981,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2785,36 +3011,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-66400</v>
+        <v>-121200</v>
       </c>
       <c r="E94" s="3">
-        <v>-378300</v>
+        <v>-66500</v>
       </c>
       <c r="F94" s="3">
+        <v>-378400</v>
+      </c>
+      <c r="G94" s="3">
         <v>-93200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-149000</v>
       </c>
-      <c r="H94" s="3">
-        <v>-89600</v>
-      </c>
       <c r="I94" s="3">
+        <v>-89700</v>
+      </c>
+      <c r="J94" s="3">
         <v>-165400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-108100</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2826,8 +3058,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2852,9 +3085,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2879,9 +3115,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2906,9 +3145,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2933,88 +3175,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E100" s="3">
         <v>7100</v>
       </c>
-      <c r="E100" s="3">
-        <v>267700</v>
-      </c>
       <c r="F100" s="3">
+        <v>267800</v>
+      </c>
+      <c r="G100" s="3">
         <v>-14500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>48400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>123100</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E101" s="3">
         <v>5900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>4900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-3600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-7500</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>101700</v>
+      </c>
+      <c r="E102" s="3">
         <v>113700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>21800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-10000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-103000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>70500</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/DSG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DSG_YR_FIN.xlsx
@@ -714,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>541200</v>
+        <v>554000</v>
       </c>
       <c r="E8" s="3">
-        <v>444300</v>
+        <v>454800</v>
       </c>
       <c r="F8" s="3">
-        <v>415200</v>
+        <v>425000</v>
       </c>
       <c r="G8" s="3">
-        <v>350700</v>
+        <v>358900</v>
       </c>
       <c r="H8" s="3">
-        <v>302600</v>
+        <v>309700</v>
       </c>
       <c r="I8" s="3">
-        <v>259700</v>
+        <v>265800</v>
       </c>
       <c r="J8" s="3">
-        <v>235700</v>
+        <v>241300</v>
       </c>
       <c r="K8" s="3">
         <v>217600</v>
@@ -744,25 +744,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>129700</v>
+        <v>132800</v>
       </c>
       <c r="E9" s="3">
-        <v>114600</v>
+        <v>117300</v>
       </c>
       <c r="F9" s="3">
-        <v>109200</v>
+        <v>111800</v>
       </c>
       <c r="G9" s="3">
-        <v>95600</v>
+        <v>97800</v>
       </c>
       <c r="H9" s="3">
-        <v>81200</v>
+        <v>83100</v>
       </c>
       <c r="I9" s="3">
-        <v>71400</v>
+        <v>73100</v>
       </c>
       <c r="J9" s="3">
-        <v>68600</v>
+        <v>70300</v>
       </c>
       <c r="K9" s="3">
         <v>69900</v>
@@ -774,25 +774,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>411400</v>
+        <v>421200</v>
       </c>
       <c r="E10" s="3">
-        <v>329700</v>
+        <v>337500</v>
       </c>
       <c r="F10" s="3">
-        <v>305900</v>
+        <v>313100</v>
       </c>
       <c r="G10" s="3">
-        <v>255100</v>
+        <v>261100</v>
       </c>
       <c r="H10" s="3">
-        <v>221400</v>
+        <v>226600</v>
       </c>
       <c r="I10" s="3">
-        <v>188200</v>
+        <v>192700</v>
       </c>
       <c r="J10" s="3">
-        <v>167100</v>
+        <v>171100</v>
       </c>
       <c r="K10" s="3">
         <v>147700</v>
@@ -818,25 +818,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>79700</v>
+        <v>81600</v>
       </c>
       <c r="E12" s="3">
-        <v>68900</v>
+        <v>70500</v>
       </c>
       <c r="F12" s="3">
-        <v>68200</v>
+        <v>69800</v>
       </c>
       <c r="G12" s="3">
-        <v>61000</v>
+        <v>62400</v>
       </c>
       <c r="H12" s="3">
-        <v>53300</v>
+        <v>54500</v>
       </c>
       <c r="I12" s="3">
-        <v>45300</v>
+        <v>46400</v>
       </c>
       <c r="J12" s="3">
-        <v>39900</v>
+        <v>40800</v>
       </c>
       <c r="K12" s="3">
         <v>35800</v>
@@ -878,22 +878,22 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="E14" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="F14" s="3">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="G14" s="3">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="H14" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="I14" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="J14" s="3">
         <v>1900</v>
@@ -908,25 +908,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>75300</v>
+        <v>77100</v>
       </c>
       <c r="E15" s="3">
-        <v>71200</v>
+        <v>72900</v>
       </c>
       <c r="F15" s="3">
-        <v>70700</v>
+        <v>72400</v>
       </c>
       <c r="G15" s="3">
-        <v>51200</v>
+        <v>52400</v>
       </c>
       <c r="H15" s="3">
-        <v>42700</v>
+        <v>43700</v>
       </c>
       <c r="I15" s="3">
-        <v>38200</v>
+        <v>39100</v>
       </c>
       <c r="J15" s="3">
-        <v>33400</v>
+        <v>34200</v>
       </c>
       <c r="K15" s="3">
         <v>27700</v>
@@ -949,25 +949,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>409400</v>
+        <v>419000</v>
       </c>
       <c r="E17" s="3">
-        <v>353300</v>
+        <v>361700</v>
       </c>
       <c r="F17" s="3">
-        <v>348600</v>
+        <v>356800</v>
       </c>
       <c r="G17" s="3">
-        <v>297800</v>
+        <v>304900</v>
       </c>
       <c r="H17" s="3">
-        <v>256800</v>
+        <v>262900</v>
       </c>
       <c r="I17" s="3">
-        <v>220600</v>
+        <v>225800</v>
       </c>
       <c r="J17" s="3">
-        <v>199900</v>
+        <v>204700</v>
       </c>
       <c r="K17" s="3">
         <v>188900</v>
@@ -979,25 +979,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>131800</v>
+        <v>134900</v>
       </c>
       <c r="E18" s="3">
-        <v>91000</v>
+        <v>93100</v>
       </c>
       <c r="F18" s="3">
-        <v>66600</v>
+        <v>68200</v>
       </c>
       <c r="G18" s="3">
-        <v>52800</v>
+        <v>54100</v>
       </c>
       <c r="H18" s="3">
-        <v>45700</v>
+        <v>46800</v>
       </c>
       <c r="I18" s="3">
-        <v>39100</v>
+        <v>40000</v>
       </c>
       <c r="J18" s="3">
-        <v>35800</v>
+        <v>36600</v>
       </c>
       <c r="K18" s="3">
         <v>28800</v>
@@ -1029,10 +1029,10 @@
         <v>200</v>
       </c>
       <c r="F20" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G20" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H20" s="3">
         <v>200</v>
@@ -1041,7 +1041,7 @@
         <v>1800</v>
       </c>
       <c r="J20" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K20" s="3">
         <v>400</v>
@@ -1053,25 +1053,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>214400</v>
+        <v>218800</v>
       </c>
       <c r="E21" s="3">
-        <v>170100</v>
+        <v>173500</v>
       </c>
       <c r="F21" s="3">
-        <v>145600</v>
+        <v>148400</v>
       </c>
       <c r="G21" s="3">
-        <v>110300</v>
+        <v>112400</v>
       </c>
       <c r="H21" s="3">
-        <v>94000</v>
+        <v>95800</v>
       </c>
       <c r="I21" s="3">
-        <v>84000</v>
+        <v>85600</v>
       </c>
       <c r="J21" s="3">
-        <v>74000</v>
+        <v>75400</v>
       </c>
       <c r="K21" s="3">
         <v>61200</v>
@@ -1083,16 +1083,16 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="E22" s="3">
         <v>1500</v>
       </c>
       <c r="F22" s="3">
-        <v>5600</v>
+        <v>5800</v>
       </c>
       <c r="G22" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="H22" s="3">
         <v>1700</v>
@@ -1113,25 +1113,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>130800</v>
+        <v>133800</v>
       </c>
       <c r="E23" s="3">
-        <v>89700</v>
+        <v>91800</v>
       </c>
       <c r="F23" s="3">
-        <v>61200</v>
+        <v>62700</v>
       </c>
       <c r="G23" s="3">
-        <v>50300</v>
+        <v>51500</v>
       </c>
       <c r="H23" s="3">
-        <v>44300</v>
+        <v>45300</v>
       </c>
       <c r="I23" s="3">
-        <v>40100</v>
+        <v>41100</v>
       </c>
       <c r="J23" s="3">
-        <v>35400</v>
+        <v>36200</v>
       </c>
       <c r="K23" s="3">
         <v>27800</v>
@@ -1143,25 +1143,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>20800</v>
+        <v>21300</v>
       </c>
       <c r="E24" s="3">
-        <v>23300</v>
+        <v>23800</v>
       </c>
       <c r="F24" s="3">
-        <v>14100</v>
+        <v>14400</v>
       </c>
       <c r="G24" s="3">
-        <v>10500</v>
+        <v>10700</v>
       </c>
       <c r="H24" s="3">
-        <v>10900</v>
+        <v>11200</v>
       </c>
       <c r="I24" s="3">
-        <v>9800</v>
+        <v>10000</v>
       </c>
       <c r="J24" s="3">
-        <v>9200</v>
+        <v>9400</v>
       </c>
       <c r="K24" s="3">
         <v>8600</v>
@@ -1203,25 +1203,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>109900</v>
+        <v>112500</v>
       </c>
       <c r="E26" s="3">
-        <v>66400</v>
+        <v>68000</v>
       </c>
       <c r="F26" s="3">
-        <v>47100</v>
+        <v>48300</v>
       </c>
       <c r="G26" s="3">
-        <v>39900</v>
+        <v>40800</v>
       </c>
       <c r="H26" s="3">
-        <v>33400</v>
+        <v>34100</v>
       </c>
       <c r="I26" s="3">
-        <v>30400</v>
+        <v>31100</v>
       </c>
       <c r="J26" s="3">
-        <v>26200</v>
+        <v>26800</v>
       </c>
       <c r="K26" s="3">
         <v>19200</v>
@@ -1233,25 +1233,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>109900</v>
+        <v>112500</v>
       </c>
       <c r="E27" s="3">
-        <v>66400</v>
+        <v>68000</v>
       </c>
       <c r="F27" s="3">
-        <v>47100</v>
+        <v>48300</v>
       </c>
       <c r="G27" s="3">
-        <v>39900</v>
+        <v>40800</v>
       </c>
       <c r="H27" s="3">
-        <v>33400</v>
+        <v>34100</v>
       </c>
       <c r="I27" s="3">
-        <v>30400</v>
+        <v>31100</v>
       </c>
       <c r="J27" s="3">
-        <v>26200</v>
+        <v>26800</v>
       </c>
       <c r="K27" s="3">
         <v>19200</v>
@@ -1389,10 +1389,10 @@
         <v>-200</v>
       </c>
       <c r="F32" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="G32" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="H32" s="3">
         <v>-200</v>
@@ -1401,7 +1401,7 @@
         <v>-1800</v>
       </c>
       <c r="J32" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="K32" s="3">
         <v>-400</v>
@@ -1413,25 +1413,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>109900</v>
+        <v>112500</v>
       </c>
       <c r="E33" s="3">
-        <v>66400</v>
+        <v>68000</v>
       </c>
       <c r="F33" s="3">
-        <v>47100</v>
+        <v>48300</v>
       </c>
       <c r="G33" s="3">
-        <v>39900</v>
+        <v>40800</v>
       </c>
       <c r="H33" s="3">
-        <v>34300</v>
+        <v>35100</v>
       </c>
       <c r="I33" s="3">
-        <v>30400</v>
+        <v>31100</v>
       </c>
       <c r="J33" s="3">
-        <v>26200</v>
+        <v>26800</v>
       </c>
       <c r="K33" s="3">
         <v>19200</v>
@@ -1473,25 +1473,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>109900</v>
+        <v>112500</v>
       </c>
       <c r="E35" s="3">
-        <v>66400</v>
+        <v>68000</v>
       </c>
       <c r="F35" s="3">
-        <v>47100</v>
+        <v>48300</v>
       </c>
       <c r="G35" s="3">
-        <v>39900</v>
+        <v>40800</v>
       </c>
       <c r="H35" s="3">
-        <v>34300</v>
+        <v>35100</v>
       </c>
       <c r="I35" s="3">
-        <v>30400</v>
+        <v>31100</v>
       </c>
       <c r="J35" s="3">
-        <v>26200</v>
+        <v>26800</v>
       </c>
       <c r="K35" s="3">
         <v>19200</v>
@@ -1566,25 +1566,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>272000</v>
+        <v>278400</v>
       </c>
       <c r="E41" s="3">
-        <v>170300</v>
+        <v>174300</v>
       </c>
       <c r="F41" s="3">
-        <v>56600</v>
+        <v>57900</v>
       </c>
       <c r="G41" s="3">
-        <v>34800</v>
+        <v>35600</v>
       </c>
       <c r="H41" s="3">
-        <v>44800</v>
+        <v>45800</v>
       </c>
       <c r="I41" s="3">
-        <v>48600</v>
+        <v>49700</v>
       </c>
       <c r="J41" s="3">
-        <v>47400</v>
+        <v>48500</v>
       </c>
       <c r="K41" s="3">
         <v>150400</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>24</v>
@@ -1626,25 +1626,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>71100</v>
+        <v>72800</v>
       </c>
       <c r="E43" s="3">
-        <v>66300</v>
+        <v>67900</v>
       </c>
       <c r="F43" s="3">
-        <v>54000</v>
+        <v>55300</v>
       </c>
       <c r="G43" s="3">
-        <v>45700</v>
+        <v>46700</v>
       </c>
       <c r="H43" s="3">
-        <v>40700</v>
+        <v>41700</v>
       </c>
       <c r="I43" s="3">
-        <v>37100</v>
+        <v>38000</v>
       </c>
       <c r="J43" s="3">
-        <v>36600</v>
+        <v>37500</v>
       </c>
       <c r="K43" s="3">
         <v>33000</v>
@@ -1659,7 +1659,7 @@
         <v>1100</v>
       </c>
       <c r="E44" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F44" s="3">
         <v>500</v>
@@ -1686,25 +1686,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>28000</v>
+        <v>28700</v>
       </c>
       <c r="E45" s="3">
-        <v>21600</v>
+        <v>22100</v>
       </c>
       <c r="F45" s="3">
-        <v>16500</v>
+        <v>16900</v>
       </c>
       <c r="G45" s="3">
-        <v>11500</v>
+        <v>11800</v>
       </c>
       <c r="H45" s="3">
-        <v>9700</v>
+        <v>9900</v>
       </c>
       <c r="I45" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="J45" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="K45" s="3">
         <v>16400</v>
@@ -1716,25 +1716,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>372200</v>
+        <v>381000</v>
       </c>
       <c r="E46" s="3">
-        <v>258800</v>
+        <v>264900</v>
       </c>
       <c r="F46" s="3">
-        <v>127700</v>
+        <v>130700</v>
       </c>
       <c r="G46" s="3">
-        <v>92100</v>
+        <v>94200</v>
       </c>
       <c r="H46" s="3">
-        <v>95400</v>
+        <v>97600</v>
       </c>
       <c r="I46" s="3">
-        <v>92500</v>
+        <v>94600</v>
       </c>
       <c r="J46" s="3">
-        <v>95500</v>
+        <v>97800</v>
       </c>
       <c r="K46" s="3">
         <v>200400</v>
@@ -1776,25 +1776,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>27300</v>
+        <v>27900</v>
       </c>
       <c r="E48" s="3">
-        <v>30900</v>
+        <v>31600</v>
       </c>
       <c r="F48" s="3">
-        <v>33900</v>
+        <v>34700</v>
       </c>
       <c r="G48" s="3">
-        <v>16100</v>
+        <v>16500</v>
       </c>
       <c r="H48" s="3">
-        <v>16300</v>
+        <v>16700</v>
       </c>
       <c r="I48" s="3">
-        <v>13300</v>
+        <v>13600</v>
       </c>
       <c r="J48" s="3">
-        <v>11000</v>
+        <v>11200</v>
       </c>
       <c r="K48" s="3">
         <v>10000</v>
@@ -1806,25 +1806,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1068300</v>
+        <v>1093600</v>
       </c>
       <c r="E49" s="3">
-        <v>1026000</v>
+        <v>1050300</v>
       </c>
       <c r="F49" s="3">
-        <v>994800</v>
+        <v>1018300</v>
       </c>
       <c r="G49" s="3">
-        <v>706400</v>
+        <v>723100</v>
       </c>
       <c r="H49" s="3">
-        <v>673000</v>
+        <v>688900</v>
       </c>
       <c r="I49" s="3">
-        <v>520600</v>
+        <v>532900</v>
       </c>
       <c r="J49" s="3">
-        <v>447300</v>
+        <v>457900</v>
       </c>
       <c r="K49" s="3">
         <v>334500</v>
@@ -1896,25 +1896,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>42800</v>
+        <v>43800</v>
       </c>
       <c r="E52" s="3">
-        <v>39200</v>
+        <v>40100</v>
       </c>
       <c r="F52" s="3">
-        <v>44800</v>
+        <v>45800</v>
       </c>
       <c r="G52" s="3">
-        <v>18000</v>
+        <v>18400</v>
       </c>
       <c r="H52" s="3">
-        <v>11600</v>
+        <v>11800</v>
       </c>
       <c r="I52" s="3">
-        <v>11400</v>
+        <v>11700</v>
       </c>
       <c r="J52" s="3">
-        <v>23200</v>
+        <v>23700</v>
       </c>
       <c r="K52" s="3">
         <v>21000</v>
@@ -1956,25 +1956,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1510600</v>
+        <v>1546300</v>
       </c>
       <c r="E54" s="3">
-        <v>1354900</v>
+        <v>1386900</v>
       </c>
       <c r="F54" s="3">
-        <v>1201100</v>
+        <v>1229500</v>
       </c>
       <c r="G54" s="3">
-        <v>832500</v>
+        <v>852200</v>
       </c>
       <c r="H54" s="3">
-        <v>796300</v>
+        <v>815100</v>
       </c>
       <c r="I54" s="3">
-        <v>637800</v>
+        <v>652900</v>
       </c>
       <c r="J54" s="3">
-        <v>577000</v>
+        <v>590600</v>
       </c>
       <c r="K54" s="3">
         <v>565800</v>
@@ -2014,25 +2014,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>13500</v>
+        <v>13800</v>
       </c>
       <c r="E57" s="3">
-        <v>10100</v>
+        <v>10400</v>
       </c>
       <c r="F57" s="3">
-        <v>9800</v>
+        <v>10000</v>
       </c>
       <c r="G57" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="H57" s="3">
-        <v>10100</v>
+        <v>10300</v>
       </c>
       <c r="I57" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="J57" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="K57" s="3">
         <v>5900</v>
@@ -2074,25 +2074,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>156600</v>
+        <v>160300</v>
       </c>
       <c r="E59" s="3">
-        <v>122700</v>
+        <v>125600</v>
       </c>
       <c r="F59" s="3">
-        <v>103600</v>
+        <v>106000</v>
       </c>
       <c r="G59" s="3">
-        <v>83100</v>
+        <v>85100</v>
       </c>
       <c r="H59" s="3">
-        <v>76200</v>
+        <v>78000</v>
       </c>
       <c r="I59" s="3">
-        <v>62600</v>
+        <v>64100</v>
       </c>
       <c r="J59" s="3">
-        <v>45300</v>
+        <v>46400</v>
       </c>
       <c r="K59" s="3">
         <v>46000</v>
@@ -2104,25 +2104,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>170000</v>
+        <v>174100</v>
       </c>
       <c r="E60" s="3">
-        <v>132900</v>
+        <v>136000</v>
       </c>
       <c r="F60" s="3">
-        <v>113300</v>
+        <v>116000</v>
       </c>
       <c r="G60" s="3">
-        <v>89700</v>
+        <v>91800</v>
       </c>
       <c r="H60" s="3">
-        <v>86300</v>
+        <v>88300</v>
       </c>
       <c r="I60" s="3">
-        <v>68600</v>
+        <v>70200</v>
       </c>
       <c r="J60" s="3">
-        <v>51000</v>
+        <v>52200</v>
       </c>
       <c r="K60" s="3">
         <v>51900</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>32400</v>
+        <v>33200</v>
       </c>
       <c r="H61" s="3">
-        <v>47100</v>
+        <v>48300</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2164,25 +2164,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>66500</v>
+        <v>68100</v>
       </c>
       <c r="E62" s="3">
-        <v>61100</v>
+        <v>62500</v>
       </c>
       <c r="F62" s="3">
-        <v>40700</v>
+        <v>41700</v>
       </c>
       <c r="G62" s="3">
-        <v>30600</v>
+        <v>31300</v>
       </c>
       <c r="H62" s="3">
-        <v>27200</v>
+        <v>27900</v>
       </c>
       <c r="I62" s="3">
-        <v>20500</v>
+        <v>21000</v>
       </c>
       <c r="J62" s="3">
-        <v>13600</v>
+        <v>14000</v>
       </c>
       <c r="K62" s="3">
         <v>16700</v>
@@ -2284,25 +2284,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>236500</v>
+        <v>242100</v>
       </c>
       <c r="E66" s="3">
-        <v>193900</v>
+        <v>198500</v>
       </c>
       <c r="F66" s="3">
-        <v>154000</v>
+        <v>157700</v>
       </c>
       <c r="G66" s="3">
-        <v>152700</v>
+        <v>156300</v>
       </c>
       <c r="H66" s="3">
-        <v>160600</v>
+        <v>164400</v>
       </c>
       <c r="I66" s="3">
-        <v>89100</v>
+        <v>91200</v>
       </c>
       <c r="J66" s="3">
-        <v>64700</v>
+        <v>66200</v>
       </c>
       <c r="K66" s="3">
         <v>68600</v>
@@ -2448,25 +2448,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="E72" s="3">
-        <v>-106600</v>
+        <v>-109100</v>
       </c>
       <c r="F72" s="3">
-        <v>-173000</v>
+        <v>-177100</v>
       </c>
       <c r="G72" s="3">
-        <v>-220200</v>
+        <v>-225400</v>
       </c>
       <c r="H72" s="3">
-        <v>-269700</v>
+        <v>-276000</v>
       </c>
       <c r="I72" s="3">
-        <v>-303900</v>
+        <v>-311100</v>
       </c>
       <c r="J72" s="3">
-        <v>-334300</v>
+        <v>-342100</v>
       </c>
       <c r="K72" s="3">
         <v>-360300</v>
@@ -2568,25 +2568,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1274100</v>
+        <v>1304200</v>
       </c>
       <c r="E76" s="3">
-        <v>1161000</v>
+        <v>1188400</v>
       </c>
       <c r="F76" s="3">
-        <v>1047100</v>
+        <v>1071800</v>
       </c>
       <c r="G76" s="3">
-        <v>679800</v>
+        <v>695900</v>
       </c>
       <c r="H76" s="3">
-        <v>635600</v>
+        <v>650700</v>
       </c>
       <c r="I76" s="3">
-        <v>548700</v>
+        <v>561700</v>
       </c>
       <c r="J76" s="3">
-        <v>512300</v>
+        <v>524400</v>
       </c>
       <c r="K76" s="3">
         <v>497300</v>
@@ -2663,25 +2663,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>109900</v>
+        <v>112500</v>
       </c>
       <c r="E81" s="3">
-        <v>66400</v>
+        <v>68000</v>
       </c>
       <c r="F81" s="3">
-        <v>47100</v>
+        <v>48300</v>
       </c>
       <c r="G81" s="3">
-        <v>39900</v>
+        <v>40800</v>
       </c>
       <c r="H81" s="3">
-        <v>34300</v>
+        <v>35100</v>
       </c>
       <c r="I81" s="3">
-        <v>30400</v>
+        <v>31100</v>
       </c>
       <c r="J81" s="3">
-        <v>26200</v>
+        <v>26800</v>
       </c>
       <c r="K81" s="3">
         <v>19200</v>
@@ -2707,25 +2707,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>81800</v>
+        <v>83800</v>
       </c>
       <c r="E83" s="3">
-        <v>78600</v>
+        <v>80400</v>
       </c>
       <c r="F83" s="3">
-        <v>78400</v>
+        <v>80200</v>
       </c>
       <c r="G83" s="3">
-        <v>57000</v>
+        <v>58300</v>
       </c>
       <c r="H83" s="3">
-        <v>47900</v>
+        <v>49000</v>
       </c>
       <c r="I83" s="3">
-        <v>42900</v>
+        <v>43900</v>
       </c>
       <c r="J83" s="3">
-        <v>37700</v>
+        <v>38600</v>
       </c>
       <c r="K83" s="3">
         <v>31900</v>
@@ -2887,25 +2887,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>224500</v>
+        <v>229800</v>
       </c>
       <c r="E89" s="3">
-        <v>167200</v>
+        <v>171200</v>
       </c>
       <c r="F89" s="3">
-        <v>132800</v>
+        <v>136000</v>
       </c>
       <c r="G89" s="3">
-        <v>99500</v>
+        <v>101800</v>
       </c>
       <c r="H89" s="3">
-        <v>91900</v>
+        <v>94100</v>
       </c>
       <c r="I89" s="3">
-        <v>92500</v>
+        <v>94700</v>
       </c>
       <c r="J89" s="3">
-        <v>69100</v>
+        <v>70800</v>
       </c>
       <c r="K89" s="3">
         <v>63000</v>
@@ -2931,25 +2931,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-6200</v>
+        <v>-6300</v>
       </c>
       <c r="E91" s="3">
-        <v>-4800</v>
+        <v>-4900</v>
       </c>
       <c r="F91" s="3">
-        <v>-6200</v>
+        <v>-6400</v>
       </c>
       <c r="G91" s="3">
-        <v>-6700</v>
+        <v>-6800</v>
       </c>
       <c r="H91" s="3">
-        <v>-6500</v>
+        <v>-6600</v>
       </c>
       <c r="I91" s="3">
-        <v>-6300</v>
+        <v>-6400</v>
       </c>
       <c r="J91" s="3">
-        <v>-5500</v>
+        <v>-5600</v>
       </c>
       <c r="K91" s="3">
         <v>-3400</v>
@@ -3021,25 +3021,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-121200</v>
+        <v>-124100</v>
       </c>
       <c r="E94" s="3">
-        <v>-66500</v>
+        <v>-68000</v>
       </c>
       <c r="F94" s="3">
-        <v>-378400</v>
+        <v>-387300</v>
       </c>
       <c r="G94" s="3">
-        <v>-93200</v>
+        <v>-95500</v>
       </c>
       <c r="H94" s="3">
-        <v>-149000</v>
+        <v>-152600</v>
       </c>
       <c r="I94" s="3">
-        <v>-89700</v>
+        <v>-91800</v>
       </c>
       <c r="J94" s="3">
-        <v>-165400</v>
+        <v>-169300</v>
       </c>
       <c r="K94" s="3">
         <v>-108100</v>
@@ -3185,25 +3185,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="E100" s="3">
-        <v>7100</v>
+        <v>7200</v>
       </c>
       <c r="F100" s="3">
-        <v>267800</v>
+        <v>274100</v>
       </c>
       <c r="G100" s="3">
-        <v>-14500</v>
+        <v>-14800</v>
       </c>
       <c r="H100" s="3">
-        <v>48400</v>
+        <v>49600</v>
       </c>
       <c r="I100" s="3">
         <v>-300</v>
       </c>
       <c r="J100" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="K100" s="3">
         <v>123100</v>
@@ -3215,25 +3215,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3500</v>
+        <v>-3600</v>
       </c>
       <c r="E101" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="F101" s="3">
         <v>-500</v>
       </c>
       <c r="G101" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="H101" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="I101" s="3">
         <v>-1400</v>
       </c>
       <c r="J101" s="3">
-        <v>-3600</v>
+        <v>-3700</v>
       </c>
       <c r="K101" s="3">
         <v>-7500</v>
@@ -3245,25 +3245,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>101700</v>
+        <v>104100</v>
       </c>
       <c r="E102" s="3">
-        <v>113700</v>
+        <v>116400</v>
       </c>
       <c r="F102" s="3">
-        <v>21800</v>
+        <v>22300</v>
       </c>
       <c r="G102" s="3">
-        <v>-10000</v>
+        <v>-10200</v>
       </c>
       <c r="H102" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="I102" s="3">
         <v>1200</v>
       </c>
       <c r="J102" s="3">
-        <v>-103000</v>
+        <v>-105400</v>
       </c>
       <c r="K102" s="3">
         <v>70500</v>

--- a/AAII_Financials/Yearly/DSG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DSG_YR_FIN.xlsx
@@ -714,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>554000</v>
+        <v>548900</v>
       </c>
       <c r="E8" s="3">
-        <v>454800</v>
+        <v>450600</v>
       </c>
       <c r="F8" s="3">
-        <v>425000</v>
+        <v>421100</v>
       </c>
       <c r="G8" s="3">
-        <v>358900</v>
+        <v>355600</v>
       </c>
       <c r="H8" s="3">
-        <v>309700</v>
+        <v>306900</v>
       </c>
       <c r="I8" s="3">
-        <v>265800</v>
+        <v>263400</v>
       </c>
       <c r="J8" s="3">
-        <v>241300</v>
+        <v>239100</v>
       </c>
       <c r="K8" s="3">
         <v>217600</v>
@@ -744,25 +744,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>132800</v>
+        <v>131600</v>
       </c>
       <c r="E9" s="3">
-        <v>117300</v>
+        <v>116200</v>
       </c>
       <c r="F9" s="3">
-        <v>111800</v>
+        <v>110800</v>
       </c>
       <c r="G9" s="3">
-        <v>97800</v>
+        <v>96900</v>
       </c>
       <c r="H9" s="3">
-        <v>83100</v>
+        <v>82300</v>
       </c>
       <c r="I9" s="3">
-        <v>73100</v>
+        <v>72400</v>
       </c>
       <c r="J9" s="3">
-        <v>70300</v>
+        <v>69600</v>
       </c>
       <c r="K9" s="3">
         <v>69900</v>
@@ -774,25 +774,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>421200</v>
+        <v>417300</v>
       </c>
       <c r="E10" s="3">
-        <v>337500</v>
+        <v>334400</v>
       </c>
       <c r="F10" s="3">
-        <v>313100</v>
+        <v>310300</v>
       </c>
       <c r="G10" s="3">
-        <v>261100</v>
+        <v>258700</v>
       </c>
       <c r="H10" s="3">
-        <v>226600</v>
+        <v>224500</v>
       </c>
       <c r="I10" s="3">
-        <v>192700</v>
+        <v>190900</v>
       </c>
       <c r="J10" s="3">
-        <v>171100</v>
+        <v>169500</v>
       </c>
       <c r="K10" s="3">
         <v>147700</v>
@@ -818,25 +818,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>81600</v>
+        <v>80900</v>
       </c>
       <c r="E12" s="3">
-        <v>70500</v>
+        <v>69900</v>
       </c>
       <c r="F12" s="3">
-        <v>69800</v>
+        <v>69200</v>
       </c>
       <c r="G12" s="3">
-        <v>62400</v>
+        <v>61900</v>
       </c>
       <c r="H12" s="3">
-        <v>54500</v>
+        <v>54000</v>
       </c>
       <c r="I12" s="3">
-        <v>46400</v>
+        <v>46000</v>
       </c>
       <c r="J12" s="3">
-        <v>40800</v>
+        <v>40400</v>
       </c>
       <c r="K12" s="3">
         <v>35800</v>
@@ -878,16 +878,16 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="E14" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="F14" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="G14" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="H14" s="3">
         <v>5200</v>
@@ -908,25 +908,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>77100</v>
+        <v>76400</v>
       </c>
       <c r="E15" s="3">
-        <v>72900</v>
+        <v>72300</v>
       </c>
       <c r="F15" s="3">
-        <v>72400</v>
+        <v>71700</v>
       </c>
       <c r="G15" s="3">
-        <v>52400</v>
+        <v>51900</v>
       </c>
       <c r="H15" s="3">
-        <v>43700</v>
+        <v>43300</v>
       </c>
       <c r="I15" s="3">
-        <v>39100</v>
+        <v>38800</v>
       </c>
       <c r="J15" s="3">
-        <v>34200</v>
+        <v>33900</v>
       </c>
       <c r="K15" s="3">
         <v>27700</v>
@@ -949,25 +949,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>419000</v>
+        <v>415200</v>
       </c>
       <c r="E17" s="3">
-        <v>361700</v>
+        <v>358300</v>
       </c>
       <c r="F17" s="3">
-        <v>356800</v>
+        <v>353500</v>
       </c>
       <c r="G17" s="3">
-        <v>304900</v>
+        <v>302100</v>
       </c>
       <c r="H17" s="3">
-        <v>262900</v>
+        <v>260500</v>
       </c>
       <c r="I17" s="3">
-        <v>225800</v>
+        <v>223700</v>
       </c>
       <c r="J17" s="3">
-        <v>204700</v>
+        <v>202800</v>
       </c>
       <c r="K17" s="3">
         <v>188900</v>
@@ -979,25 +979,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>134900</v>
+        <v>133700</v>
       </c>
       <c r="E18" s="3">
-        <v>93100</v>
+        <v>92300</v>
       </c>
       <c r="F18" s="3">
-        <v>68200</v>
+        <v>67500</v>
       </c>
       <c r="G18" s="3">
-        <v>54100</v>
+        <v>53600</v>
       </c>
       <c r="H18" s="3">
-        <v>46800</v>
+        <v>46400</v>
       </c>
       <c r="I18" s="3">
-        <v>40000</v>
+        <v>39700</v>
       </c>
       <c r="J18" s="3">
-        <v>36600</v>
+        <v>36300</v>
       </c>
       <c r="K18" s="3">
         <v>28800</v>
@@ -1029,7 +1029,7 @@
         <v>200</v>
       </c>
       <c r="F20" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G20" s="3">
         <v>300</v>
@@ -1053,25 +1053,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>218800</v>
+        <v>217300</v>
       </c>
       <c r="E21" s="3">
-        <v>173500</v>
+        <v>172400</v>
       </c>
       <c r="F21" s="3">
-        <v>148400</v>
+        <v>147600</v>
       </c>
       <c r="G21" s="3">
-        <v>112400</v>
+        <v>111800</v>
       </c>
       <c r="H21" s="3">
-        <v>95800</v>
+        <v>95300</v>
       </c>
       <c r="I21" s="3">
-        <v>85600</v>
+        <v>85100</v>
       </c>
       <c r="J21" s="3">
-        <v>75400</v>
+        <v>74900</v>
       </c>
       <c r="K21" s="3">
         <v>61200</v>
@@ -1089,7 +1089,7 @@
         <v>1500</v>
       </c>
       <c r="F22" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="G22" s="3">
         <v>2800</v>
@@ -1113,25 +1113,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>133800</v>
+        <v>132600</v>
       </c>
       <c r="E23" s="3">
-        <v>91800</v>
+        <v>90900</v>
       </c>
       <c r="F23" s="3">
-        <v>62700</v>
+        <v>62100</v>
       </c>
       <c r="G23" s="3">
-        <v>51500</v>
+        <v>51100</v>
       </c>
       <c r="H23" s="3">
-        <v>45300</v>
+        <v>44900</v>
       </c>
       <c r="I23" s="3">
-        <v>41100</v>
+        <v>40700</v>
       </c>
       <c r="J23" s="3">
-        <v>36200</v>
+        <v>35900</v>
       </c>
       <c r="K23" s="3">
         <v>27800</v>
@@ -1143,25 +1143,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>21300</v>
+        <v>21100</v>
       </c>
       <c r="E24" s="3">
-        <v>23800</v>
+        <v>23600</v>
       </c>
       <c r="F24" s="3">
-        <v>14400</v>
+        <v>14300</v>
       </c>
       <c r="G24" s="3">
-        <v>10700</v>
+        <v>10600</v>
       </c>
       <c r="H24" s="3">
-        <v>11200</v>
+        <v>11100</v>
       </c>
       <c r="I24" s="3">
-        <v>10000</v>
+        <v>9900</v>
       </c>
       <c r="J24" s="3">
-        <v>9400</v>
+        <v>9300</v>
       </c>
       <c r="K24" s="3">
         <v>8600</v>
@@ -1203,25 +1203,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>112500</v>
+        <v>111500</v>
       </c>
       <c r="E26" s="3">
-        <v>68000</v>
+        <v>67300</v>
       </c>
       <c r="F26" s="3">
-        <v>48300</v>
+        <v>47800</v>
       </c>
       <c r="G26" s="3">
-        <v>40800</v>
+        <v>40400</v>
       </c>
       <c r="H26" s="3">
-        <v>34100</v>
+        <v>33800</v>
       </c>
       <c r="I26" s="3">
-        <v>31100</v>
+        <v>30800</v>
       </c>
       <c r="J26" s="3">
-        <v>26800</v>
+        <v>26600</v>
       </c>
       <c r="K26" s="3">
         <v>19200</v>
@@ -1233,25 +1233,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>112500</v>
+        <v>111500</v>
       </c>
       <c r="E27" s="3">
-        <v>68000</v>
+        <v>67300</v>
       </c>
       <c r="F27" s="3">
-        <v>48300</v>
+        <v>47800</v>
       </c>
       <c r="G27" s="3">
-        <v>40800</v>
+        <v>40400</v>
       </c>
       <c r="H27" s="3">
-        <v>34100</v>
+        <v>33800</v>
       </c>
       <c r="I27" s="3">
-        <v>31100</v>
+        <v>30800</v>
       </c>
       <c r="J27" s="3">
-        <v>26800</v>
+        <v>26600</v>
       </c>
       <c r="K27" s="3">
         <v>19200</v>
@@ -1389,7 +1389,7 @@
         <v>-200</v>
       </c>
       <c r="F32" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="G32" s="3">
         <v>-300</v>
@@ -1413,25 +1413,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>112500</v>
+        <v>111500</v>
       </c>
       <c r="E33" s="3">
-        <v>68000</v>
+        <v>67300</v>
       </c>
       <c r="F33" s="3">
-        <v>48300</v>
+        <v>47800</v>
       </c>
       <c r="G33" s="3">
-        <v>40800</v>
+        <v>40400</v>
       </c>
       <c r="H33" s="3">
-        <v>35100</v>
+        <v>34700</v>
       </c>
       <c r="I33" s="3">
-        <v>31100</v>
+        <v>30800</v>
       </c>
       <c r="J33" s="3">
-        <v>26800</v>
+        <v>26600</v>
       </c>
       <c r="K33" s="3">
         <v>19200</v>
@@ -1473,25 +1473,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>112500</v>
+        <v>111500</v>
       </c>
       <c r="E35" s="3">
-        <v>68000</v>
+        <v>67300</v>
       </c>
       <c r="F35" s="3">
-        <v>48300</v>
+        <v>47800</v>
       </c>
       <c r="G35" s="3">
-        <v>40800</v>
+        <v>40400</v>
       </c>
       <c r="H35" s="3">
-        <v>35100</v>
+        <v>34700</v>
       </c>
       <c r="I35" s="3">
-        <v>31100</v>
+        <v>30800</v>
       </c>
       <c r="J35" s="3">
-        <v>26800</v>
+        <v>26600</v>
       </c>
       <c r="K35" s="3">
         <v>19200</v>
@@ -1566,25 +1566,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>278400</v>
+        <v>275800</v>
       </c>
       <c r="E41" s="3">
-        <v>174300</v>
+        <v>172700</v>
       </c>
       <c r="F41" s="3">
-        <v>57900</v>
+        <v>57400</v>
       </c>
       <c r="G41" s="3">
-        <v>35600</v>
+        <v>35300</v>
       </c>
       <c r="H41" s="3">
-        <v>45800</v>
+        <v>45400</v>
       </c>
       <c r="I41" s="3">
-        <v>49700</v>
+        <v>49300</v>
       </c>
       <c r="J41" s="3">
-        <v>48500</v>
+        <v>48100</v>
       </c>
       <c r="K41" s="3">
         <v>150400</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="3">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>24</v>
@@ -1626,25 +1626,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>72800</v>
+        <v>72100</v>
       </c>
       <c r="E43" s="3">
-        <v>67900</v>
+        <v>67300</v>
       </c>
       <c r="F43" s="3">
-        <v>55300</v>
+        <v>54800</v>
       </c>
       <c r="G43" s="3">
-        <v>46700</v>
+        <v>46300</v>
       </c>
       <c r="H43" s="3">
-        <v>41700</v>
+        <v>41300</v>
       </c>
       <c r="I43" s="3">
-        <v>38000</v>
+        <v>37600</v>
       </c>
       <c r="J43" s="3">
-        <v>37500</v>
+        <v>37200</v>
       </c>
       <c r="K43" s="3">
         <v>33000</v>
@@ -1686,25 +1686,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>28700</v>
+        <v>28400</v>
       </c>
       <c r="E45" s="3">
-        <v>22100</v>
+        <v>21900</v>
       </c>
       <c r="F45" s="3">
-        <v>16900</v>
+        <v>16800</v>
       </c>
       <c r="G45" s="3">
-        <v>11800</v>
+        <v>11700</v>
       </c>
       <c r="H45" s="3">
-        <v>9900</v>
+        <v>9800</v>
       </c>
       <c r="I45" s="3">
         <v>6700</v>
       </c>
       <c r="J45" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="K45" s="3">
         <v>16400</v>
@@ -1716,25 +1716,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>381000</v>
+        <v>377500</v>
       </c>
       <c r="E46" s="3">
-        <v>264900</v>
+        <v>262400</v>
       </c>
       <c r="F46" s="3">
-        <v>130700</v>
+        <v>129500</v>
       </c>
       <c r="G46" s="3">
-        <v>94200</v>
+        <v>93400</v>
       </c>
       <c r="H46" s="3">
-        <v>97600</v>
+        <v>96700</v>
       </c>
       <c r="I46" s="3">
-        <v>94600</v>
+        <v>93800</v>
       </c>
       <c r="J46" s="3">
-        <v>97800</v>
+        <v>96900</v>
       </c>
       <c r="K46" s="3">
         <v>200400</v>
@@ -1776,25 +1776,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>27900</v>
+        <v>27600</v>
       </c>
       <c r="E48" s="3">
-        <v>31600</v>
+        <v>31300</v>
       </c>
       <c r="F48" s="3">
-        <v>34700</v>
+        <v>34400</v>
       </c>
       <c r="G48" s="3">
+        <v>16300</v>
+      </c>
+      <c r="H48" s="3">
         <v>16500</v>
       </c>
-      <c r="H48" s="3">
-        <v>16700</v>
-      </c>
       <c r="I48" s="3">
-        <v>13600</v>
+        <v>13500</v>
       </c>
       <c r="J48" s="3">
-        <v>11200</v>
+        <v>11100</v>
       </c>
       <c r="K48" s="3">
         <v>10000</v>
@@ -1806,25 +1806,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1093600</v>
+        <v>1083500</v>
       </c>
       <c r="E49" s="3">
-        <v>1050300</v>
+        <v>1040600</v>
       </c>
       <c r="F49" s="3">
-        <v>1018300</v>
+        <v>1008900</v>
       </c>
       <c r="G49" s="3">
-        <v>723100</v>
+        <v>716500</v>
       </c>
       <c r="H49" s="3">
-        <v>688900</v>
+        <v>682600</v>
       </c>
       <c r="I49" s="3">
-        <v>532900</v>
+        <v>528000</v>
       </c>
       <c r="J49" s="3">
-        <v>457900</v>
+        <v>453700</v>
       </c>
       <c r="K49" s="3">
         <v>334500</v>
@@ -1896,25 +1896,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>43800</v>
+        <v>43400</v>
       </c>
       <c r="E52" s="3">
-        <v>40100</v>
+        <v>39800</v>
       </c>
       <c r="F52" s="3">
-        <v>45800</v>
+        <v>45400</v>
       </c>
       <c r="G52" s="3">
-        <v>18400</v>
+        <v>18200</v>
       </c>
       <c r="H52" s="3">
-        <v>11800</v>
+        <v>11700</v>
       </c>
       <c r="I52" s="3">
-        <v>11700</v>
+        <v>11600</v>
       </c>
       <c r="J52" s="3">
-        <v>23700</v>
+        <v>23500</v>
       </c>
       <c r="K52" s="3">
         <v>21000</v>
@@ -1956,25 +1956,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1546300</v>
+        <v>1532100</v>
       </c>
       <c r="E54" s="3">
-        <v>1386900</v>
+        <v>1374100</v>
       </c>
       <c r="F54" s="3">
-        <v>1229500</v>
+        <v>1218200</v>
       </c>
       <c r="G54" s="3">
-        <v>852200</v>
+        <v>844400</v>
       </c>
       <c r="H54" s="3">
-        <v>815100</v>
+        <v>807600</v>
       </c>
       <c r="I54" s="3">
-        <v>652900</v>
+        <v>646900</v>
       </c>
       <c r="J54" s="3">
-        <v>590600</v>
+        <v>585200</v>
       </c>
       <c r="K54" s="3">
         <v>565800</v>
@@ -2014,22 +2014,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>13800</v>
+        <v>13700</v>
       </c>
       <c r="E57" s="3">
-        <v>10400</v>
+        <v>10300</v>
       </c>
       <c r="F57" s="3">
-        <v>10000</v>
+        <v>9900</v>
       </c>
       <c r="G57" s="3">
         <v>6700</v>
       </c>
       <c r="H57" s="3">
-        <v>10300</v>
+        <v>10200</v>
       </c>
       <c r="I57" s="3">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="J57" s="3">
         <v>5800</v>
@@ -2074,25 +2074,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>160300</v>
+        <v>158800</v>
       </c>
       <c r="E59" s="3">
-        <v>125600</v>
+        <v>124500</v>
       </c>
       <c r="F59" s="3">
-        <v>106000</v>
+        <v>105000</v>
       </c>
       <c r="G59" s="3">
-        <v>85100</v>
+        <v>84300</v>
       </c>
       <c r="H59" s="3">
-        <v>78000</v>
+        <v>77300</v>
       </c>
       <c r="I59" s="3">
-        <v>64100</v>
+        <v>63500</v>
       </c>
       <c r="J59" s="3">
-        <v>46400</v>
+        <v>46000</v>
       </c>
       <c r="K59" s="3">
         <v>46000</v>
@@ -2104,25 +2104,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>174100</v>
+        <v>172400</v>
       </c>
       <c r="E60" s="3">
-        <v>136000</v>
+        <v>134700</v>
       </c>
       <c r="F60" s="3">
-        <v>116000</v>
+        <v>114900</v>
       </c>
       <c r="G60" s="3">
-        <v>91800</v>
+        <v>90900</v>
       </c>
       <c r="H60" s="3">
-        <v>88300</v>
+        <v>87500</v>
       </c>
       <c r="I60" s="3">
-        <v>70200</v>
+        <v>69600</v>
       </c>
       <c r="J60" s="3">
-        <v>52200</v>
+        <v>51800</v>
       </c>
       <c r="K60" s="3">
         <v>51900</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>33200</v>
+        <v>32900</v>
       </c>
       <c r="H61" s="3">
-        <v>48300</v>
+        <v>47800</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2164,25 +2164,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>68100</v>
+        <v>67400</v>
       </c>
       <c r="E62" s="3">
-        <v>62500</v>
+        <v>61900</v>
       </c>
       <c r="F62" s="3">
-        <v>41700</v>
+        <v>41300</v>
       </c>
       <c r="G62" s="3">
-        <v>31300</v>
+        <v>31000</v>
       </c>
       <c r="H62" s="3">
-        <v>27900</v>
+        <v>27600</v>
       </c>
       <c r="I62" s="3">
-        <v>21000</v>
+        <v>20800</v>
       </c>
       <c r="J62" s="3">
-        <v>14000</v>
+        <v>13800</v>
       </c>
       <c r="K62" s="3">
         <v>16700</v>
@@ -2284,25 +2284,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>242100</v>
+        <v>239900</v>
       </c>
       <c r="E66" s="3">
-        <v>198500</v>
+        <v>196700</v>
       </c>
       <c r="F66" s="3">
-        <v>157700</v>
+        <v>156200</v>
       </c>
       <c r="G66" s="3">
-        <v>156300</v>
+        <v>154900</v>
       </c>
       <c r="H66" s="3">
-        <v>164400</v>
+        <v>162900</v>
       </c>
       <c r="I66" s="3">
-        <v>91200</v>
+        <v>90400</v>
       </c>
       <c r="J66" s="3">
-        <v>66200</v>
+        <v>65600</v>
       </c>
       <c r="K66" s="3">
         <v>68600</v>
@@ -2451,22 +2451,22 @@
         <v>3400</v>
       </c>
       <c r="E72" s="3">
-        <v>-109100</v>
+        <v>-108100</v>
       </c>
       <c r="F72" s="3">
-        <v>-177100</v>
+        <v>-175500</v>
       </c>
       <c r="G72" s="3">
-        <v>-225400</v>
+        <v>-223300</v>
       </c>
       <c r="H72" s="3">
-        <v>-276000</v>
+        <v>-273500</v>
       </c>
       <c r="I72" s="3">
-        <v>-311100</v>
+        <v>-308200</v>
       </c>
       <c r="J72" s="3">
-        <v>-342100</v>
+        <v>-339000</v>
       </c>
       <c r="K72" s="3">
         <v>-360300</v>
@@ -2568,25 +2568,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1304200</v>
+        <v>1292200</v>
       </c>
       <c r="E76" s="3">
-        <v>1188400</v>
+        <v>1177500</v>
       </c>
       <c r="F76" s="3">
-        <v>1071800</v>
+        <v>1062000</v>
       </c>
       <c r="G76" s="3">
-        <v>695900</v>
+        <v>689500</v>
       </c>
       <c r="H76" s="3">
-        <v>650700</v>
+        <v>644700</v>
       </c>
       <c r="I76" s="3">
-        <v>561700</v>
+        <v>556500</v>
       </c>
       <c r="J76" s="3">
-        <v>524400</v>
+        <v>519600</v>
       </c>
       <c r="K76" s="3">
         <v>497300</v>
@@ -2663,25 +2663,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>112500</v>
+        <v>111500</v>
       </c>
       <c r="E81" s="3">
-        <v>68000</v>
+        <v>67300</v>
       </c>
       <c r="F81" s="3">
-        <v>48300</v>
+        <v>47800</v>
       </c>
       <c r="G81" s="3">
-        <v>40800</v>
+        <v>40400</v>
       </c>
       <c r="H81" s="3">
-        <v>35100</v>
+        <v>34700</v>
       </c>
       <c r="I81" s="3">
-        <v>31100</v>
+        <v>30800</v>
       </c>
       <c r="J81" s="3">
-        <v>26800</v>
+        <v>26600</v>
       </c>
       <c r="K81" s="3">
         <v>19200</v>
@@ -2707,25 +2707,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>83800</v>
+        <v>83000</v>
       </c>
       <c r="E83" s="3">
-        <v>80400</v>
+        <v>79700</v>
       </c>
       <c r="F83" s="3">
-        <v>80200</v>
+        <v>79500</v>
       </c>
       <c r="G83" s="3">
-        <v>58300</v>
+        <v>57800</v>
       </c>
       <c r="H83" s="3">
-        <v>49000</v>
+        <v>48600</v>
       </c>
       <c r="I83" s="3">
-        <v>43900</v>
+        <v>43500</v>
       </c>
       <c r="J83" s="3">
-        <v>38600</v>
+        <v>38300</v>
       </c>
       <c r="K83" s="3">
         <v>31900</v>
@@ -2887,25 +2887,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>229800</v>
+        <v>227600</v>
       </c>
       <c r="E89" s="3">
-        <v>171200</v>
+        <v>169600</v>
       </c>
       <c r="F89" s="3">
-        <v>136000</v>
+        <v>134700</v>
       </c>
       <c r="G89" s="3">
-        <v>101800</v>
+        <v>100900</v>
       </c>
       <c r="H89" s="3">
-        <v>94100</v>
+        <v>93200</v>
       </c>
       <c r="I89" s="3">
-        <v>94700</v>
+        <v>93800</v>
       </c>
       <c r="J89" s="3">
-        <v>70800</v>
+        <v>70100</v>
       </c>
       <c r="K89" s="3">
         <v>63000</v>
@@ -2931,13 +2931,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-6300</v>
+        <v>-6200</v>
       </c>
       <c r="E91" s="3">
         <v>-4900</v>
       </c>
       <c r="F91" s="3">
-        <v>-6400</v>
+        <v>-6300</v>
       </c>
       <c r="G91" s="3">
         <v>-6800</v>
@@ -3021,25 +3021,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-124100</v>
+        <v>-122900</v>
       </c>
       <c r="E94" s="3">
-        <v>-68000</v>
+        <v>-67400</v>
       </c>
       <c r="F94" s="3">
-        <v>-387300</v>
+        <v>-383800</v>
       </c>
       <c r="G94" s="3">
-        <v>-95500</v>
+        <v>-94600</v>
       </c>
       <c r="H94" s="3">
-        <v>-152600</v>
+        <v>-151200</v>
       </c>
       <c r="I94" s="3">
-        <v>-91800</v>
+        <v>-90900</v>
       </c>
       <c r="J94" s="3">
-        <v>-169300</v>
+        <v>-167800</v>
       </c>
       <c r="K94" s="3">
         <v>-108100</v>
@@ -3191,19 +3191,19 @@
         <v>7200</v>
       </c>
       <c r="F100" s="3">
-        <v>274100</v>
+        <v>271600</v>
       </c>
       <c r="G100" s="3">
-        <v>-14800</v>
+        <v>-14700</v>
       </c>
       <c r="H100" s="3">
-        <v>49600</v>
+        <v>49100</v>
       </c>
       <c r="I100" s="3">
         <v>-300</v>
       </c>
       <c r="J100" s="3">
-        <v>-3200</v>
+        <v>-3100</v>
       </c>
       <c r="K100" s="3">
         <v>123100</v>
@@ -3227,13 +3227,13 @@
         <v>-1800</v>
       </c>
       <c r="H101" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="I101" s="3">
         <v>-1400</v>
       </c>
       <c r="J101" s="3">
-        <v>-3700</v>
+        <v>-3600</v>
       </c>
       <c r="K101" s="3">
         <v>-7500</v>
@@ -3245,16 +3245,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>104100</v>
+        <v>103100</v>
       </c>
       <c r="E102" s="3">
-        <v>116400</v>
+        <v>115400</v>
       </c>
       <c r="F102" s="3">
-        <v>22300</v>
+        <v>22100</v>
       </c>
       <c r="G102" s="3">
-        <v>-10200</v>
+        <v>-10100</v>
       </c>
       <c r="H102" s="3">
         <v>-3900</v>
@@ -3263,7 +3263,7 @@
         <v>1200</v>
       </c>
       <c r="J102" s="3">
-        <v>-105400</v>
+        <v>-104500</v>
       </c>
       <c r="K102" s="3">
         <v>70500</v>

--- a/AAII_Financials/Yearly/DSG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DSG_YR_FIN.xlsx
@@ -714,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>548900</v>
+        <v>565600</v>
       </c>
       <c r="E8" s="3">
-        <v>450600</v>
+        <v>464400</v>
       </c>
       <c r="F8" s="3">
-        <v>421100</v>
+        <v>433900</v>
       </c>
       <c r="G8" s="3">
-        <v>355600</v>
+        <v>366500</v>
       </c>
       <c r="H8" s="3">
-        <v>306900</v>
+        <v>316200</v>
       </c>
       <c r="I8" s="3">
-        <v>263400</v>
+        <v>271400</v>
       </c>
       <c r="J8" s="3">
-        <v>239100</v>
+        <v>246400</v>
       </c>
       <c r="K8" s="3">
         <v>217600</v>
@@ -744,25 +744,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>131600</v>
+        <v>135600</v>
       </c>
       <c r="E9" s="3">
-        <v>116200</v>
+        <v>119700</v>
       </c>
       <c r="F9" s="3">
-        <v>110800</v>
+        <v>114200</v>
       </c>
       <c r="G9" s="3">
-        <v>96900</v>
+        <v>99900</v>
       </c>
       <c r="H9" s="3">
-        <v>82300</v>
+        <v>84800</v>
       </c>
       <c r="I9" s="3">
-        <v>72400</v>
+        <v>74600</v>
       </c>
       <c r="J9" s="3">
-        <v>69600</v>
+        <v>71700</v>
       </c>
       <c r="K9" s="3">
         <v>69900</v>
@@ -774,25 +774,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>417300</v>
+        <v>430000</v>
       </c>
       <c r="E10" s="3">
-        <v>334400</v>
+        <v>344600</v>
       </c>
       <c r="F10" s="3">
-        <v>310300</v>
+        <v>319700</v>
       </c>
       <c r="G10" s="3">
-        <v>258700</v>
+        <v>266600</v>
       </c>
       <c r="H10" s="3">
-        <v>224500</v>
+        <v>231400</v>
       </c>
       <c r="I10" s="3">
-        <v>190900</v>
+        <v>196700</v>
       </c>
       <c r="J10" s="3">
-        <v>169500</v>
+        <v>174600</v>
       </c>
       <c r="K10" s="3">
         <v>147700</v>
@@ -818,25 +818,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>80900</v>
+        <v>83300</v>
       </c>
       <c r="E12" s="3">
-        <v>69900</v>
+        <v>72000</v>
       </c>
       <c r="F12" s="3">
-        <v>69200</v>
+        <v>71300</v>
       </c>
       <c r="G12" s="3">
-        <v>61900</v>
+        <v>63800</v>
       </c>
       <c r="H12" s="3">
-        <v>54000</v>
+        <v>55700</v>
       </c>
       <c r="I12" s="3">
-        <v>46000</v>
+        <v>47400</v>
       </c>
       <c r="J12" s="3">
-        <v>40400</v>
+        <v>41700</v>
       </c>
       <c r="K12" s="3">
         <v>35800</v>
@@ -878,25 +878,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="E14" s="3">
-        <v>5500</v>
+        <v>5700</v>
       </c>
       <c r="F14" s="3">
-        <v>4900</v>
+        <v>5100</v>
       </c>
       <c r="G14" s="3">
-        <v>4900</v>
+        <v>5100</v>
       </c>
       <c r="H14" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="I14" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="J14" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="K14" s="3">
         <v>3700</v>
@@ -908,25 +908,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>76400</v>
+        <v>78700</v>
       </c>
       <c r="E15" s="3">
-        <v>72300</v>
+        <v>74500</v>
       </c>
       <c r="F15" s="3">
-        <v>71700</v>
+        <v>73900</v>
       </c>
       <c r="G15" s="3">
-        <v>51900</v>
+        <v>53500</v>
       </c>
       <c r="H15" s="3">
-        <v>43300</v>
+        <v>44600</v>
       </c>
       <c r="I15" s="3">
-        <v>38800</v>
+        <v>40000</v>
       </c>
       <c r="J15" s="3">
-        <v>33900</v>
+        <v>34900</v>
       </c>
       <c r="K15" s="3">
         <v>27700</v>
@@ -949,25 +949,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>415200</v>
+        <v>427800</v>
       </c>
       <c r="E17" s="3">
-        <v>358300</v>
+        <v>369300</v>
       </c>
       <c r="F17" s="3">
-        <v>353500</v>
+        <v>364300</v>
       </c>
       <c r="G17" s="3">
-        <v>302100</v>
+        <v>311300</v>
       </c>
       <c r="H17" s="3">
-        <v>260500</v>
+        <v>268400</v>
       </c>
       <c r="I17" s="3">
-        <v>223700</v>
+        <v>230500</v>
       </c>
       <c r="J17" s="3">
-        <v>202800</v>
+        <v>209000</v>
       </c>
       <c r="K17" s="3">
         <v>188900</v>
@@ -979,25 +979,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>133700</v>
+        <v>137800</v>
       </c>
       <c r="E18" s="3">
-        <v>92300</v>
+        <v>95100</v>
       </c>
       <c r="F18" s="3">
-        <v>67500</v>
+        <v>69600</v>
       </c>
       <c r="G18" s="3">
-        <v>53600</v>
+        <v>55200</v>
       </c>
       <c r="H18" s="3">
-        <v>46400</v>
+        <v>47800</v>
       </c>
       <c r="I18" s="3">
-        <v>39700</v>
+        <v>40900</v>
       </c>
       <c r="J18" s="3">
-        <v>36300</v>
+        <v>37400</v>
       </c>
       <c r="K18" s="3">
         <v>28800</v>
@@ -1029,7 +1029,7 @@
         <v>200</v>
       </c>
       <c r="F20" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G20" s="3">
         <v>300</v>
@@ -1038,7 +1038,7 @@
         <v>200</v>
       </c>
       <c r="I20" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="J20" s="3">
         <v>300</v>
@@ -1053,25 +1053,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>217300</v>
+        <v>225000</v>
       </c>
       <c r="E21" s="3">
-        <v>172400</v>
+        <v>178700</v>
       </c>
       <c r="F21" s="3">
-        <v>147600</v>
+        <v>153100</v>
       </c>
       <c r="G21" s="3">
-        <v>111800</v>
+        <v>115900</v>
       </c>
       <c r="H21" s="3">
-        <v>95300</v>
+        <v>98800</v>
       </c>
       <c r="I21" s="3">
-        <v>85100</v>
+        <v>88300</v>
       </c>
       <c r="J21" s="3">
-        <v>74900</v>
+        <v>77700</v>
       </c>
       <c r="K21" s="3">
         <v>61200</v>
@@ -1086,10 +1086,10 @@
         <v>1500</v>
       </c>
       <c r="E22" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="F22" s="3">
-        <v>5700</v>
+        <v>5900</v>
       </c>
       <c r="G22" s="3">
         <v>2800</v>
@@ -1113,25 +1113,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>132600</v>
+        <v>136700</v>
       </c>
       <c r="E23" s="3">
-        <v>90900</v>
+        <v>93700</v>
       </c>
       <c r="F23" s="3">
-        <v>62100</v>
+        <v>64000</v>
       </c>
       <c r="G23" s="3">
-        <v>51100</v>
+        <v>52600</v>
       </c>
       <c r="H23" s="3">
-        <v>44900</v>
+        <v>46300</v>
       </c>
       <c r="I23" s="3">
-        <v>40700</v>
+        <v>42000</v>
       </c>
       <c r="J23" s="3">
-        <v>35900</v>
+        <v>37000</v>
       </c>
       <c r="K23" s="3">
         <v>27800</v>
@@ -1143,25 +1143,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>21100</v>
+        <v>21700</v>
       </c>
       <c r="E24" s="3">
-        <v>23600</v>
+        <v>24300</v>
       </c>
       <c r="F24" s="3">
-        <v>14300</v>
+        <v>14700</v>
       </c>
       <c r="G24" s="3">
-        <v>10600</v>
+        <v>11000</v>
       </c>
       <c r="H24" s="3">
-        <v>11100</v>
+        <v>11400</v>
       </c>
       <c r="I24" s="3">
-        <v>9900</v>
+        <v>10200</v>
       </c>
       <c r="J24" s="3">
-        <v>9300</v>
+        <v>9600</v>
       </c>
       <c r="K24" s="3">
         <v>8600</v>
@@ -1203,25 +1203,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>111500</v>
+        <v>114900</v>
       </c>
       <c r="E26" s="3">
-        <v>67300</v>
+        <v>69400</v>
       </c>
       <c r="F26" s="3">
-        <v>47800</v>
+        <v>49300</v>
       </c>
       <c r="G26" s="3">
-        <v>40400</v>
+        <v>41700</v>
       </c>
       <c r="H26" s="3">
-        <v>33800</v>
+        <v>34900</v>
       </c>
       <c r="I26" s="3">
-        <v>30800</v>
+        <v>31700</v>
       </c>
       <c r="J26" s="3">
-        <v>26600</v>
+        <v>27400</v>
       </c>
       <c r="K26" s="3">
         <v>19200</v>
@@ -1233,25 +1233,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>111500</v>
+        <v>114900</v>
       </c>
       <c r="E27" s="3">
-        <v>67300</v>
+        <v>69400</v>
       </c>
       <c r="F27" s="3">
-        <v>47800</v>
+        <v>49300</v>
       </c>
       <c r="G27" s="3">
-        <v>40400</v>
+        <v>41700</v>
       </c>
       <c r="H27" s="3">
-        <v>33800</v>
+        <v>34900</v>
       </c>
       <c r="I27" s="3">
-        <v>30800</v>
+        <v>31700</v>
       </c>
       <c r="J27" s="3">
-        <v>26600</v>
+        <v>27400</v>
       </c>
       <c r="K27" s="3">
         <v>19200</v>
@@ -1389,7 +1389,7 @@
         <v>-200</v>
       </c>
       <c r="F32" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="G32" s="3">
         <v>-300</v>
@@ -1398,7 +1398,7 @@
         <v>-200</v>
       </c>
       <c r="I32" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="J32" s="3">
         <v>-300</v>
@@ -1413,25 +1413,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>111500</v>
+        <v>114900</v>
       </c>
       <c r="E33" s="3">
-        <v>67300</v>
+        <v>69400</v>
       </c>
       <c r="F33" s="3">
-        <v>47800</v>
+        <v>49300</v>
       </c>
       <c r="G33" s="3">
-        <v>40400</v>
+        <v>41700</v>
       </c>
       <c r="H33" s="3">
-        <v>34700</v>
+        <v>35800</v>
       </c>
       <c r="I33" s="3">
-        <v>30800</v>
+        <v>31700</v>
       </c>
       <c r="J33" s="3">
-        <v>26600</v>
+        <v>27400</v>
       </c>
       <c r="K33" s="3">
         <v>19200</v>
@@ -1473,25 +1473,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>111500</v>
+        <v>114900</v>
       </c>
       <c r="E35" s="3">
-        <v>67300</v>
+        <v>69400</v>
       </c>
       <c r="F35" s="3">
-        <v>47800</v>
+        <v>49300</v>
       </c>
       <c r="G35" s="3">
-        <v>40400</v>
+        <v>41700</v>
       </c>
       <c r="H35" s="3">
-        <v>34700</v>
+        <v>35800</v>
       </c>
       <c r="I35" s="3">
-        <v>30800</v>
+        <v>31700</v>
       </c>
       <c r="J35" s="3">
-        <v>26600</v>
+        <v>27400</v>
       </c>
       <c r="K35" s="3">
         <v>19200</v>
@@ -1566,25 +1566,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>275800</v>
+        <v>284300</v>
       </c>
       <c r="E41" s="3">
-        <v>172700</v>
+        <v>178000</v>
       </c>
       <c r="F41" s="3">
-        <v>57400</v>
+        <v>59100</v>
       </c>
       <c r="G41" s="3">
-        <v>35300</v>
+        <v>36400</v>
       </c>
       <c r="H41" s="3">
-        <v>45400</v>
+        <v>46800</v>
       </c>
       <c r="I41" s="3">
-        <v>49300</v>
+        <v>50800</v>
       </c>
       <c r="J41" s="3">
-        <v>48100</v>
+        <v>49600</v>
       </c>
       <c r="K41" s="3">
         <v>150400</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="3">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>24</v>
@@ -1626,25 +1626,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>72100</v>
+        <v>74300</v>
       </c>
       <c r="E43" s="3">
-        <v>67300</v>
+        <v>69300</v>
       </c>
       <c r="F43" s="3">
-        <v>54800</v>
+        <v>56500</v>
       </c>
       <c r="G43" s="3">
-        <v>46300</v>
+        <v>47700</v>
       </c>
       <c r="H43" s="3">
-        <v>41300</v>
+        <v>42600</v>
       </c>
       <c r="I43" s="3">
-        <v>37600</v>
+        <v>38800</v>
       </c>
       <c r="J43" s="3">
-        <v>37200</v>
+        <v>38300</v>
       </c>
       <c r="K43" s="3">
         <v>33000</v>
@@ -1656,7 +1656,7 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="E44" s="3">
         <v>600</v>
@@ -1686,25 +1686,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>28400</v>
+        <v>29300</v>
       </c>
       <c r="E45" s="3">
-        <v>21900</v>
+        <v>22600</v>
       </c>
       <c r="F45" s="3">
-        <v>16800</v>
+        <v>17300</v>
       </c>
       <c r="G45" s="3">
-        <v>11700</v>
+        <v>12000</v>
       </c>
       <c r="H45" s="3">
-        <v>9800</v>
+        <v>10100</v>
       </c>
       <c r="I45" s="3">
-        <v>6700</v>
+        <v>6900</v>
       </c>
       <c r="J45" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="K45" s="3">
         <v>16400</v>
@@ -1716,25 +1716,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>377500</v>
+        <v>389000</v>
       </c>
       <c r="E46" s="3">
-        <v>262400</v>
+        <v>270400</v>
       </c>
       <c r="F46" s="3">
-        <v>129500</v>
+        <v>133500</v>
       </c>
       <c r="G46" s="3">
-        <v>93400</v>
+        <v>96200</v>
       </c>
       <c r="H46" s="3">
-        <v>96700</v>
+        <v>99700</v>
       </c>
       <c r="I46" s="3">
-        <v>93800</v>
+        <v>96600</v>
       </c>
       <c r="J46" s="3">
-        <v>96900</v>
+        <v>99800</v>
       </c>
       <c r="K46" s="3">
         <v>200400</v>
@@ -1776,25 +1776,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>27600</v>
+        <v>28500</v>
       </c>
       <c r="E48" s="3">
-        <v>31300</v>
+        <v>32300</v>
       </c>
       <c r="F48" s="3">
-        <v>34400</v>
+        <v>35400</v>
       </c>
       <c r="G48" s="3">
-        <v>16300</v>
+        <v>16800</v>
       </c>
       <c r="H48" s="3">
-        <v>16500</v>
+        <v>17000</v>
       </c>
       <c r="I48" s="3">
-        <v>13500</v>
+        <v>13900</v>
       </c>
       <c r="J48" s="3">
-        <v>11100</v>
+        <v>11500</v>
       </c>
       <c r="K48" s="3">
         <v>10000</v>
@@ -1806,25 +1806,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1083500</v>
+        <v>1116500</v>
       </c>
       <c r="E49" s="3">
-        <v>1040600</v>
+        <v>1072300</v>
       </c>
       <c r="F49" s="3">
-        <v>1008900</v>
+        <v>1039700</v>
       </c>
       <c r="G49" s="3">
-        <v>716500</v>
+        <v>738300</v>
       </c>
       <c r="H49" s="3">
-        <v>682600</v>
+        <v>703400</v>
       </c>
       <c r="I49" s="3">
-        <v>528000</v>
+        <v>544100</v>
       </c>
       <c r="J49" s="3">
-        <v>453700</v>
+        <v>467500</v>
       </c>
       <c r="K49" s="3">
         <v>334500</v>
@@ -1896,25 +1896,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>43400</v>
+        <v>44800</v>
       </c>
       <c r="E52" s="3">
-        <v>39800</v>
+        <v>41000</v>
       </c>
       <c r="F52" s="3">
-        <v>45400</v>
+        <v>46800</v>
       </c>
       <c r="G52" s="3">
-        <v>18200</v>
+        <v>18800</v>
       </c>
       <c r="H52" s="3">
-        <v>11700</v>
+        <v>12100</v>
       </c>
       <c r="I52" s="3">
-        <v>11600</v>
+        <v>12000</v>
       </c>
       <c r="J52" s="3">
-        <v>23500</v>
+        <v>24200</v>
       </c>
       <c r="K52" s="3">
         <v>21000</v>
@@ -1956,25 +1956,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1532100</v>
+        <v>1578800</v>
       </c>
       <c r="E54" s="3">
-        <v>1374100</v>
+        <v>1416000</v>
       </c>
       <c r="F54" s="3">
-        <v>1218200</v>
+        <v>1255300</v>
       </c>
       <c r="G54" s="3">
-        <v>844400</v>
+        <v>870100</v>
       </c>
       <c r="H54" s="3">
-        <v>807600</v>
+        <v>832200</v>
       </c>
       <c r="I54" s="3">
-        <v>646900</v>
+        <v>666600</v>
       </c>
       <c r="J54" s="3">
-        <v>585200</v>
+        <v>603000</v>
       </c>
       <c r="K54" s="3">
         <v>565800</v>
@@ -2014,25 +2014,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>13700</v>
+        <v>14100</v>
       </c>
       <c r="E57" s="3">
-        <v>10300</v>
+        <v>10600</v>
       </c>
       <c r="F57" s="3">
-        <v>9900</v>
+        <v>10200</v>
       </c>
       <c r="G57" s="3">
-        <v>6700</v>
+        <v>6900</v>
       </c>
       <c r="H57" s="3">
-        <v>10200</v>
+        <v>10500</v>
       </c>
       <c r="I57" s="3">
+        <v>6200</v>
+      </c>
+      <c r="J57" s="3">
         <v>6000</v>
-      </c>
-      <c r="J57" s="3">
-        <v>5800</v>
       </c>
       <c r="K57" s="3">
         <v>5900</v>
@@ -2074,25 +2074,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>158800</v>
+        <v>163600</v>
       </c>
       <c r="E59" s="3">
-        <v>124500</v>
+        <v>128300</v>
       </c>
       <c r="F59" s="3">
-        <v>105000</v>
+        <v>108200</v>
       </c>
       <c r="G59" s="3">
-        <v>84300</v>
+        <v>86900</v>
       </c>
       <c r="H59" s="3">
-        <v>77300</v>
+        <v>79600</v>
       </c>
       <c r="I59" s="3">
-        <v>63500</v>
+        <v>65500</v>
       </c>
       <c r="J59" s="3">
-        <v>46000</v>
+        <v>47400</v>
       </c>
       <c r="K59" s="3">
         <v>46000</v>
@@ -2104,25 +2104,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>172400</v>
+        <v>177700</v>
       </c>
       <c r="E60" s="3">
-        <v>134700</v>
+        <v>138900</v>
       </c>
       <c r="F60" s="3">
-        <v>114900</v>
+        <v>118500</v>
       </c>
       <c r="G60" s="3">
-        <v>90900</v>
+        <v>93700</v>
       </c>
       <c r="H60" s="3">
-        <v>87500</v>
+        <v>90100</v>
       </c>
       <c r="I60" s="3">
-        <v>69600</v>
+        <v>71700</v>
       </c>
       <c r="J60" s="3">
-        <v>51800</v>
+        <v>53300</v>
       </c>
       <c r="K60" s="3">
         <v>51900</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>32900</v>
+        <v>33900</v>
       </c>
       <c r="H61" s="3">
-        <v>47800</v>
+        <v>49300</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2164,25 +2164,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>67400</v>
+        <v>69500</v>
       </c>
       <c r="E62" s="3">
-        <v>61900</v>
+        <v>63800</v>
       </c>
       <c r="F62" s="3">
-        <v>41300</v>
+        <v>42500</v>
       </c>
       <c r="G62" s="3">
-        <v>31000</v>
+        <v>32000</v>
       </c>
       <c r="H62" s="3">
-        <v>27600</v>
+        <v>28500</v>
       </c>
       <c r="I62" s="3">
-        <v>20800</v>
+        <v>21500</v>
       </c>
       <c r="J62" s="3">
-        <v>13800</v>
+        <v>14300</v>
       </c>
       <c r="K62" s="3">
         <v>16700</v>
@@ -2284,25 +2284,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>239900</v>
+        <v>247200</v>
       </c>
       <c r="E66" s="3">
-        <v>196700</v>
+        <v>202700</v>
       </c>
       <c r="F66" s="3">
-        <v>156200</v>
+        <v>161000</v>
       </c>
       <c r="G66" s="3">
-        <v>154900</v>
+        <v>159600</v>
       </c>
       <c r="H66" s="3">
-        <v>162900</v>
+        <v>167900</v>
       </c>
       <c r="I66" s="3">
-        <v>90400</v>
+        <v>93200</v>
       </c>
       <c r="J66" s="3">
-        <v>65600</v>
+        <v>67600</v>
       </c>
       <c r="K66" s="3">
         <v>68600</v>
@@ -2448,25 +2448,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="E72" s="3">
-        <v>-108100</v>
+        <v>-111400</v>
       </c>
       <c r="F72" s="3">
-        <v>-175500</v>
+        <v>-180800</v>
       </c>
       <c r="G72" s="3">
-        <v>-223300</v>
+        <v>-230100</v>
       </c>
       <c r="H72" s="3">
-        <v>-273500</v>
+        <v>-281800</v>
       </c>
       <c r="I72" s="3">
-        <v>-308200</v>
+        <v>-317600</v>
       </c>
       <c r="J72" s="3">
-        <v>-339000</v>
+        <v>-349300</v>
       </c>
       <c r="K72" s="3">
         <v>-360300</v>
@@ -2568,25 +2568,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1292200</v>
+        <v>1331600</v>
       </c>
       <c r="E76" s="3">
-        <v>1177500</v>
+        <v>1213400</v>
       </c>
       <c r="F76" s="3">
-        <v>1062000</v>
+        <v>1094400</v>
       </c>
       <c r="G76" s="3">
-        <v>689500</v>
+        <v>710500</v>
       </c>
       <c r="H76" s="3">
-        <v>644700</v>
+        <v>664300</v>
       </c>
       <c r="I76" s="3">
-        <v>556500</v>
+        <v>573500</v>
       </c>
       <c r="J76" s="3">
-        <v>519600</v>
+        <v>535400</v>
       </c>
       <c r="K76" s="3">
         <v>497300</v>
@@ -2663,25 +2663,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>111500</v>
+        <v>114900</v>
       </c>
       <c r="E81" s="3">
-        <v>67300</v>
+        <v>69400</v>
       </c>
       <c r="F81" s="3">
-        <v>47800</v>
+        <v>49300</v>
       </c>
       <c r="G81" s="3">
-        <v>40400</v>
+        <v>41700</v>
       </c>
       <c r="H81" s="3">
-        <v>34700</v>
+        <v>35800</v>
       </c>
       <c r="I81" s="3">
-        <v>30800</v>
+        <v>31700</v>
       </c>
       <c r="J81" s="3">
-        <v>26600</v>
+        <v>27400</v>
       </c>
       <c r="K81" s="3">
         <v>19200</v>
@@ -2707,25 +2707,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>83000</v>
+        <v>85500</v>
       </c>
       <c r="E83" s="3">
-        <v>79700</v>
+        <v>82100</v>
       </c>
       <c r="F83" s="3">
-        <v>79500</v>
+        <v>81900</v>
       </c>
       <c r="G83" s="3">
-        <v>57800</v>
+        <v>59600</v>
       </c>
       <c r="H83" s="3">
-        <v>48600</v>
+        <v>50000</v>
       </c>
       <c r="I83" s="3">
-        <v>43500</v>
+        <v>44800</v>
       </c>
       <c r="J83" s="3">
-        <v>38300</v>
+        <v>39400</v>
       </c>
       <c r="K83" s="3">
         <v>31900</v>
@@ -2887,25 +2887,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>227600</v>
+        <v>234600</v>
       </c>
       <c r="E89" s="3">
-        <v>169600</v>
+        <v>174800</v>
       </c>
       <c r="F89" s="3">
-        <v>134700</v>
+        <v>138800</v>
       </c>
       <c r="G89" s="3">
-        <v>100900</v>
+        <v>104000</v>
       </c>
       <c r="H89" s="3">
-        <v>93200</v>
+        <v>96100</v>
       </c>
       <c r="I89" s="3">
-        <v>93800</v>
+        <v>96700</v>
       </c>
       <c r="J89" s="3">
-        <v>70100</v>
+        <v>72200</v>
       </c>
       <c r="K89" s="3">
         <v>63000</v>
@@ -2931,25 +2931,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-6200</v>
+        <v>-6400</v>
       </c>
       <c r="E91" s="3">
-        <v>-4900</v>
+        <v>-5000</v>
       </c>
       <c r="F91" s="3">
-        <v>-6300</v>
+        <v>-6500</v>
       </c>
       <c r="G91" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="H91" s="3">
         <v>-6800</v>
       </c>
-      <c r="H91" s="3">
-        <v>-6600</v>
-      </c>
       <c r="I91" s="3">
-        <v>-6400</v>
+        <v>-6500</v>
       </c>
       <c r="J91" s="3">
-        <v>-5600</v>
+        <v>-5700</v>
       </c>
       <c r="K91" s="3">
         <v>-3400</v>
@@ -3021,25 +3021,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-122900</v>
+        <v>-126700</v>
       </c>
       <c r="E94" s="3">
-        <v>-67400</v>
+        <v>-69500</v>
       </c>
       <c r="F94" s="3">
-        <v>-383800</v>
+        <v>-395500</v>
       </c>
       <c r="G94" s="3">
-        <v>-94600</v>
+        <v>-97500</v>
       </c>
       <c r="H94" s="3">
-        <v>-151200</v>
+        <v>-155800</v>
       </c>
       <c r="I94" s="3">
-        <v>-90900</v>
+        <v>-93700</v>
       </c>
       <c r="J94" s="3">
-        <v>-167800</v>
+        <v>-172900</v>
       </c>
       <c r="K94" s="3">
         <v>-108100</v>
@@ -3188,22 +3188,22 @@
         <v>2000</v>
       </c>
       <c r="E100" s="3">
-        <v>7200</v>
+        <v>7400</v>
       </c>
       <c r="F100" s="3">
-        <v>271600</v>
+        <v>279900</v>
       </c>
       <c r="G100" s="3">
-        <v>-14700</v>
+        <v>-15200</v>
       </c>
       <c r="H100" s="3">
-        <v>49100</v>
+        <v>50600</v>
       </c>
       <c r="I100" s="3">
         <v>-300</v>
       </c>
       <c r="J100" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="K100" s="3">
         <v>123100</v>
@@ -3215,10 +3215,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3600</v>
+        <v>-3700</v>
       </c>
       <c r="E101" s="3">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="F101" s="3">
         <v>-500</v>
@@ -3227,13 +3227,13 @@
         <v>-1800</v>
       </c>
       <c r="H101" s="3">
-        <v>4900</v>
+        <v>5100</v>
       </c>
       <c r="I101" s="3">
         <v>-1400</v>
       </c>
       <c r="J101" s="3">
-        <v>-3600</v>
+        <v>-3800</v>
       </c>
       <c r="K101" s="3">
         <v>-7500</v>
@@ -3245,25 +3245,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>103100</v>
+        <v>106200</v>
       </c>
       <c r="E102" s="3">
-        <v>115400</v>
+        <v>118900</v>
       </c>
       <c r="F102" s="3">
-        <v>22100</v>
+        <v>22800</v>
       </c>
       <c r="G102" s="3">
-        <v>-10100</v>
+        <v>-10500</v>
       </c>
       <c r="H102" s="3">
-        <v>-3900</v>
+        <v>-4000</v>
       </c>
       <c r="I102" s="3">
         <v>1200</v>
       </c>
       <c r="J102" s="3">
-        <v>-104500</v>
+        <v>-107700</v>
       </c>
       <c r="K102" s="3">
         <v>70500</v>

--- a/AAII_Financials/Yearly/DSG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DSG_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
   <si>
     <t>DSG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E7" s="2">
         <v>44592</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44227</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43861</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43496</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43131</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42766</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42400</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42035</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>565600</v>
+        <v>672000</v>
       </c>
       <c r="E8" s="3">
-        <v>464400</v>
+        <v>587200</v>
       </c>
       <c r="F8" s="3">
-        <v>433900</v>
+        <v>482100</v>
       </c>
       <c r="G8" s="3">
-        <v>366500</v>
+        <v>450500</v>
       </c>
       <c r="H8" s="3">
-        <v>316200</v>
+        <v>380500</v>
       </c>
       <c r="I8" s="3">
-        <v>271400</v>
+        <v>328300</v>
       </c>
       <c r="J8" s="3">
+        <v>281800</v>
+      </c>
+      <c r="K8" s="3">
         <v>246400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>217600</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>135600</v>
+        <v>156700</v>
       </c>
       <c r="E9" s="3">
-        <v>119700</v>
+        <v>140800</v>
       </c>
       <c r="F9" s="3">
-        <v>114200</v>
+        <v>124300</v>
       </c>
       <c r="G9" s="3">
-        <v>99900</v>
+        <v>118500</v>
       </c>
       <c r="H9" s="3">
-        <v>84800</v>
+        <v>103700</v>
       </c>
       <c r="I9" s="3">
-        <v>74600</v>
+        <v>88100</v>
       </c>
       <c r="J9" s="3">
+        <v>77500</v>
+      </c>
+      <c r="K9" s="3">
         <v>71700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>69900</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>430000</v>
+        <v>515300</v>
       </c>
       <c r="E10" s="3">
-        <v>344600</v>
+        <v>446400</v>
       </c>
       <c r="F10" s="3">
-        <v>319700</v>
+        <v>357800</v>
       </c>
       <c r="G10" s="3">
-        <v>266600</v>
+        <v>331900</v>
       </c>
       <c r="H10" s="3">
-        <v>231400</v>
+        <v>276800</v>
       </c>
       <c r="I10" s="3">
-        <v>196700</v>
+        <v>240200</v>
       </c>
       <c r="J10" s="3">
+        <v>204300</v>
+      </c>
+      <c r="K10" s="3">
         <v>174600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>147700</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,38 +824,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>83300</v>
+        <v>97300</v>
       </c>
       <c r="E12" s="3">
-        <v>72000</v>
+        <v>86500</v>
       </c>
       <c r="F12" s="3">
-        <v>71300</v>
+        <v>74800</v>
       </c>
       <c r="G12" s="3">
-        <v>63800</v>
+        <v>74000</v>
       </c>
       <c r="H12" s="3">
-        <v>55700</v>
+        <v>66200</v>
       </c>
       <c r="I12" s="3">
-        <v>47400</v>
+        <v>57800</v>
       </c>
       <c r="J12" s="3">
+        <v>49200</v>
+      </c>
+      <c r="K12" s="3">
         <v>41700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>35800</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -871,69 +887,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>2600</v>
+        <v>3600</v>
       </c>
       <c r="E14" s="3">
-        <v>5700</v>
+        <v>2700</v>
       </c>
       <c r="F14" s="3">
-        <v>5100</v>
+        <v>5900</v>
       </c>
       <c r="G14" s="3">
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="H14" s="3">
         <v>5300</v>
       </c>
       <c r="I14" s="3">
-        <v>4600</v>
+        <v>5500</v>
       </c>
       <c r="J14" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K14" s="3">
         <v>2000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3700</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>78700</v>
+        <v>83200</v>
       </c>
       <c r="E15" s="3">
-        <v>74500</v>
+        <v>81700</v>
       </c>
       <c r="F15" s="3">
-        <v>73900</v>
+        <v>77300</v>
       </c>
       <c r="G15" s="3">
-        <v>53500</v>
+        <v>76700</v>
       </c>
       <c r="H15" s="3">
-        <v>44600</v>
+        <v>55600</v>
       </c>
       <c r="I15" s="3">
-        <v>40000</v>
+        <v>46300</v>
       </c>
       <c r="J15" s="3">
+        <v>41500</v>
+      </c>
+      <c r="K15" s="3">
         <v>34900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>27700</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>427800</v>
+        <v>491700</v>
       </c>
       <c r="E17" s="3">
-        <v>369300</v>
+        <v>444200</v>
       </c>
       <c r="F17" s="3">
-        <v>364300</v>
+        <v>383400</v>
       </c>
       <c r="G17" s="3">
-        <v>311300</v>
+        <v>378200</v>
       </c>
       <c r="H17" s="3">
-        <v>268400</v>
+        <v>323200</v>
       </c>
       <c r="I17" s="3">
-        <v>230500</v>
+        <v>278700</v>
       </c>
       <c r="J17" s="3">
+        <v>239300</v>
+      </c>
+      <c r="K17" s="3">
         <v>209000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>188900</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>137800</v>
+        <v>180400</v>
       </c>
       <c r="E18" s="3">
-        <v>95100</v>
+        <v>143000</v>
       </c>
       <c r="F18" s="3">
-        <v>69600</v>
+        <v>98700</v>
       </c>
       <c r="G18" s="3">
-        <v>55200</v>
+        <v>72300</v>
       </c>
       <c r="H18" s="3">
-        <v>47800</v>
+        <v>57300</v>
       </c>
       <c r="I18" s="3">
-        <v>40900</v>
+        <v>49600</v>
       </c>
       <c r="J18" s="3">
+        <v>42400</v>
+      </c>
+      <c r="K18" s="3">
         <v>37400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>28800</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E20" s="3">
         <v>400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>200</v>
-      </c>
-      <c r="F20" s="3">
-        <v>300</v>
       </c>
       <c r="G20" s="3">
         <v>300</v>
       </c>
       <c r="H20" s="3">
+        <v>300</v>
+      </c>
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
-        <v>1900</v>
-      </c>
       <c r="J20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>225000</v>
+        <v>276800</v>
       </c>
       <c r="E21" s="3">
-        <v>178700</v>
+        <v>232100</v>
       </c>
       <c r="F21" s="3">
-        <v>153100</v>
+        <v>184100</v>
       </c>
       <c r="G21" s="3">
-        <v>115900</v>
+        <v>157400</v>
       </c>
       <c r="H21" s="3">
-        <v>98800</v>
+        <v>119300</v>
       </c>
       <c r="I21" s="3">
-        <v>88300</v>
+        <v>101700</v>
       </c>
       <c r="J21" s="3">
+        <v>90800</v>
+      </c>
+      <c r="K21" s="3">
         <v>77700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>61200</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="E22" s="3">
         <v>1600</v>
       </c>
       <c r="F22" s="3">
-        <v>5900</v>
+        <v>1600</v>
       </c>
       <c r="G22" s="3">
-        <v>2800</v>
+        <v>6100</v>
       </c>
       <c r="H22" s="3">
-        <v>1700</v>
+        <v>2900</v>
       </c>
       <c r="I22" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J22" s="3">
         <v>800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1400</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>136700</v>
+        <v>184900</v>
       </c>
       <c r="E23" s="3">
-        <v>93700</v>
+        <v>141900</v>
       </c>
       <c r="F23" s="3">
-        <v>64000</v>
+        <v>97300</v>
       </c>
       <c r="G23" s="3">
-        <v>52600</v>
+        <v>66400</v>
       </c>
       <c r="H23" s="3">
-        <v>46300</v>
+        <v>54600</v>
       </c>
       <c r="I23" s="3">
-        <v>42000</v>
+        <v>48000</v>
       </c>
       <c r="J23" s="3">
+        <v>43600</v>
+      </c>
+      <c r="K23" s="3">
         <v>37000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>27800</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>21700</v>
+        <v>43500</v>
       </c>
       <c r="E24" s="3">
-        <v>24300</v>
+        <v>22600</v>
       </c>
       <c r="F24" s="3">
-        <v>14700</v>
+        <v>25300</v>
       </c>
       <c r="G24" s="3">
-        <v>11000</v>
+        <v>15300</v>
       </c>
       <c r="H24" s="3">
         <v>11400</v>
       </c>
       <c r="I24" s="3">
-        <v>10200</v>
+        <v>11800</v>
       </c>
       <c r="J24" s="3">
+        <v>10600</v>
+      </c>
+      <c r="K24" s="3">
         <v>9600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>8600</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>114900</v>
+        <v>141400</v>
       </c>
       <c r="E26" s="3">
-        <v>69400</v>
+        <v>119300</v>
       </c>
       <c r="F26" s="3">
-        <v>49300</v>
+        <v>72000</v>
       </c>
       <c r="G26" s="3">
-        <v>41700</v>
+        <v>51200</v>
       </c>
       <c r="H26" s="3">
-        <v>34900</v>
+        <v>43200</v>
       </c>
       <c r="I26" s="3">
-        <v>31700</v>
+        <v>36200</v>
       </c>
       <c r="J26" s="3">
+        <v>33000</v>
+      </c>
+      <c r="K26" s="3">
         <v>27400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>19200</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>114900</v>
+        <v>141400</v>
       </c>
       <c r="E27" s="3">
-        <v>69400</v>
+        <v>119300</v>
       </c>
       <c r="F27" s="3">
-        <v>49300</v>
+        <v>72000</v>
       </c>
       <c r="G27" s="3">
-        <v>41700</v>
+        <v>51200</v>
       </c>
       <c r="H27" s="3">
-        <v>34900</v>
+        <v>43200</v>
       </c>
       <c r="I27" s="3">
-        <v>31700</v>
+        <v>36200</v>
       </c>
       <c r="J27" s="3">
+        <v>33000</v>
+      </c>
+      <c r="K27" s="3">
         <v>27400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>19200</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1286,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1304,11 +1364,11 @@
       <c r="G29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="3">
-        <v>900</v>
-      </c>
-      <c r="I29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="I29" s="3">
+        <v>1000</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>24</v>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-200</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-300</v>
       </c>
       <c r="G32" s="3">
         <v>-300</v>
       </c>
       <c r="H32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
-        <v>-1900</v>
-      </c>
       <c r="J32" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>114900</v>
+        <v>141400</v>
       </c>
       <c r="E33" s="3">
-        <v>69400</v>
+        <v>119300</v>
       </c>
       <c r="F33" s="3">
-        <v>49300</v>
+        <v>72000</v>
       </c>
       <c r="G33" s="3">
-        <v>41700</v>
+        <v>51200</v>
       </c>
       <c r="H33" s="3">
-        <v>35800</v>
+        <v>43200</v>
       </c>
       <c r="I33" s="3">
-        <v>31700</v>
+        <v>37200</v>
       </c>
       <c r="J33" s="3">
+        <v>33000</v>
+      </c>
+      <c r="K33" s="3">
         <v>27400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>19200</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>114900</v>
+        <v>141400</v>
       </c>
       <c r="E35" s="3">
-        <v>69400</v>
+        <v>119300</v>
       </c>
       <c r="F35" s="3">
-        <v>49300</v>
+        <v>72000</v>
       </c>
       <c r="G35" s="3">
-        <v>41700</v>
+        <v>51200</v>
       </c>
       <c r="H35" s="3">
-        <v>35800</v>
+        <v>43200</v>
       </c>
       <c r="I35" s="3">
-        <v>31700</v>
+        <v>37200</v>
       </c>
       <c r="J35" s="3">
+        <v>33000</v>
+      </c>
+      <c r="K35" s="3">
         <v>27400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>19200</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E38" s="2">
         <v>44592</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44227</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43861</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43496</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43131</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42766</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42400</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42035</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,115 +1645,125 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>284300</v>
+        <v>382200</v>
       </c>
       <c r="E41" s="3">
-        <v>178000</v>
+        <v>295100</v>
       </c>
       <c r="F41" s="3">
-        <v>59100</v>
+        <v>184800</v>
       </c>
       <c r="G41" s="3">
-        <v>36400</v>
+        <v>61400</v>
       </c>
       <c r="H41" s="3">
-        <v>46800</v>
+        <v>37700</v>
       </c>
       <c r="I41" s="3">
-        <v>50800</v>
+        <v>48600</v>
       </c>
       <c r="J41" s="3">
+        <v>52700</v>
+      </c>
+      <c r="K41" s="3">
         <v>49600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>150400</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
+        <v>6200</v>
+      </c>
+      <c r="L42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>6200</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>74300</v>
+        <v>78600</v>
       </c>
       <c r="E43" s="3">
-        <v>69300</v>
+        <v>77100</v>
       </c>
       <c r="F43" s="3">
-        <v>56500</v>
+        <v>72000</v>
       </c>
       <c r="G43" s="3">
-        <v>47700</v>
+        <v>58600</v>
       </c>
       <c r="H43" s="3">
-        <v>42600</v>
+        <v>49500</v>
       </c>
       <c r="I43" s="3">
-        <v>38800</v>
+        <v>44200</v>
       </c>
       <c r="J43" s="3">
+        <v>40300</v>
+      </c>
+      <c r="K43" s="3">
         <v>38300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>33000</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>600</v>
       </c>
-      <c r="F44" s="3">
-        <v>500</v>
-      </c>
       <c r="G44" s="3">
+        <v>600</v>
+      </c>
+      <c r="H44" s="3">
         <v>100</v>
-      </c>
-      <c r="H44" s="3">
-        <v>200</v>
       </c>
       <c r="I44" s="3">
         <v>200</v>
@@ -1677,71 +1772,80 @@
         <v>200</v>
       </c>
       <c r="K44" s="3">
+        <v>200</v>
+      </c>
+      <c r="L44" s="3">
         <v>600</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>29300</v>
+        <v>34100</v>
       </c>
       <c r="E45" s="3">
-        <v>22600</v>
+        <v>30400</v>
       </c>
       <c r="F45" s="3">
-        <v>17300</v>
+        <v>23400</v>
       </c>
       <c r="G45" s="3">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="H45" s="3">
-        <v>10100</v>
+        <v>12500</v>
       </c>
       <c r="I45" s="3">
-        <v>6900</v>
+        <v>10500</v>
       </c>
       <c r="J45" s="3">
+        <v>7100</v>
+      </c>
+      <c r="K45" s="3">
         <v>5600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>16400</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>389000</v>
+        <v>495900</v>
       </c>
       <c r="E46" s="3">
-        <v>270400</v>
+        <v>403800</v>
       </c>
       <c r="F46" s="3">
-        <v>133500</v>
+        <v>280800</v>
       </c>
       <c r="G46" s="3">
-        <v>96200</v>
+        <v>138600</v>
       </c>
       <c r="H46" s="3">
-        <v>99700</v>
+        <v>99900</v>
       </c>
       <c r="I46" s="3">
-        <v>96600</v>
+        <v>103500</v>
       </c>
       <c r="J46" s="3">
+        <v>100300</v>
+      </c>
+      <c r="K46" s="3">
         <v>99800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>200400</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1769,69 +1873,78 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>28500</v>
+        <v>25200</v>
       </c>
       <c r="E48" s="3">
-        <v>32300</v>
+        <v>29600</v>
       </c>
       <c r="F48" s="3">
-        <v>35400</v>
+        <v>33500</v>
       </c>
       <c r="G48" s="3">
-        <v>16800</v>
+        <v>36800</v>
       </c>
       <c r="H48" s="3">
-        <v>17000</v>
+        <v>17400</v>
       </c>
       <c r="I48" s="3">
-        <v>13900</v>
+        <v>17700</v>
       </c>
       <c r="J48" s="3">
+        <v>14400</v>
+      </c>
+      <c r="K48" s="3">
         <v>11500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>10000</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1116500</v>
+        <v>1252000</v>
       </c>
       <c r="E49" s="3">
-        <v>1072300</v>
+        <v>1159200</v>
       </c>
       <c r="F49" s="3">
-        <v>1039700</v>
+        <v>1113300</v>
       </c>
       <c r="G49" s="3">
-        <v>738300</v>
+        <v>1079400</v>
       </c>
       <c r="H49" s="3">
-        <v>703400</v>
+        <v>766500</v>
       </c>
       <c r="I49" s="3">
-        <v>544100</v>
+        <v>730300</v>
       </c>
       <c r="J49" s="3">
+        <v>564900</v>
+      </c>
+      <c r="K49" s="3">
         <v>467500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>334500</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>44800</v>
+        <v>46600</v>
       </c>
       <c r="E52" s="3">
-        <v>41000</v>
+        <v>46500</v>
       </c>
       <c r="F52" s="3">
-        <v>46800</v>
+        <v>42500</v>
       </c>
       <c r="G52" s="3">
-        <v>18800</v>
+        <v>48600</v>
       </c>
       <c r="H52" s="3">
-        <v>12100</v>
+        <v>19500</v>
       </c>
       <c r="I52" s="3">
-        <v>12000</v>
+        <v>12600</v>
       </c>
       <c r="J52" s="3">
+        <v>12400</v>
+      </c>
+      <c r="K52" s="3">
         <v>24200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>21000</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1578800</v>
+        <v>1819700</v>
       </c>
       <c r="E54" s="3">
-        <v>1416000</v>
+        <v>1639100</v>
       </c>
       <c r="F54" s="3">
-        <v>1255300</v>
+        <v>1470200</v>
       </c>
       <c r="G54" s="3">
-        <v>870100</v>
+        <v>1303300</v>
       </c>
       <c r="H54" s="3">
-        <v>832200</v>
+        <v>903400</v>
       </c>
       <c r="I54" s="3">
-        <v>666600</v>
+        <v>864000</v>
       </c>
       <c r="J54" s="3">
+        <v>692100</v>
+      </c>
+      <c r="K54" s="3">
         <v>603000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>565800</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,38 +2137,42 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>14100</v>
+        <v>14600</v>
       </c>
       <c r="E57" s="3">
+        <v>14600</v>
+      </c>
+      <c r="F57" s="3">
+        <v>11000</v>
+      </c>
+      <c r="G57" s="3">
         <v>10600</v>
       </c>
-      <c r="F57" s="3">
-        <v>10200</v>
-      </c>
-      <c r="G57" s="3">
-        <v>6900</v>
-      </c>
       <c r="H57" s="3">
-        <v>10500</v>
+        <v>7100</v>
       </c>
       <c r="I57" s="3">
-        <v>6200</v>
+        <v>10900</v>
       </c>
       <c r="J57" s="3">
+        <v>6500</v>
+      </c>
+      <c r="K57" s="3">
         <v>6000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5900</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2067,69 +2200,78 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>163600</v>
+        <v>219900</v>
       </c>
       <c r="E59" s="3">
-        <v>128300</v>
+        <v>169900</v>
       </c>
       <c r="F59" s="3">
-        <v>108200</v>
+        <v>133200</v>
       </c>
       <c r="G59" s="3">
-        <v>86900</v>
+        <v>112400</v>
       </c>
       <c r="H59" s="3">
-        <v>79600</v>
+        <v>90200</v>
       </c>
       <c r="I59" s="3">
-        <v>65500</v>
+        <v>82700</v>
       </c>
       <c r="J59" s="3">
+        <v>68000</v>
+      </c>
+      <c r="K59" s="3">
         <v>47400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>46000</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>177700</v>
+        <v>234500</v>
       </c>
       <c r="E60" s="3">
-        <v>138900</v>
+        <v>184500</v>
       </c>
       <c r="F60" s="3">
-        <v>118500</v>
+        <v>144200</v>
       </c>
       <c r="G60" s="3">
-        <v>93700</v>
+        <v>123000</v>
       </c>
       <c r="H60" s="3">
-        <v>90100</v>
+        <v>97300</v>
       </c>
       <c r="I60" s="3">
-        <v>71700</v>
+        <v>93600</v>
       </c>
       <c r="J60" s="3">
+        <v>74400</v>
+      </c>
+      <c r="K60" s="3">
         <v>53300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>51900</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2143,13 +2285,13 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>33900</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>49300</v>
+        <v>35200</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>51200</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2157,39 +2299,45 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>69500</v>
+        <v>65100</v>
       </c>
       <c r="E62" s="3">
-        <v>63800</v>
+        <v>72100</v>
       </c>
       <c r="F62" s="3">
-        <v>42500</v>
+        <v>66300</v>
       </c>
       <c r="G62" s="3">
-        <v>32000</v>
+        <v>44200</v>
       </c>
       <c r="H62" s="3">
-        <v>28500</v>
+        <v>33200</v>
       </c>
       <c r="I62" s="3">
-        <v>21500</v>
+        <v>29600</v>
       </c>
       <c r="J62" s="3">
+        <v>22300</v>
+      </c>
+      <c r="K62" s="3">
         <v>14300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>16700</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>247200</v>
+        <v>299600</v>
       </c>
       <c r="E66" s="3">
-        <v>202700</v>
+        <v>256600</v>
       </c>
       <c r="F66" s="3">
-        <v>161000</v>
+        <v>210400</v>
       </c>
       <c r="G66" s="3">
-        <v>159600</v>
+        <v>167100</v>
       </c>
       <c r="H66" s="3">
-        <v>167900</v>
+        <v>165700</v>
       </c>
       <c r="I66" s="3">
-        <v>93200</v>
+        <v>174300</v>
       </c>
       <c r="J66" s="3">
+        <v>96700</v>
+      </c>
+      <c r="K66" s="3">
         <v>67600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>68600</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3500</v>
+        <v>145000</v>
       </c>
       <c r="E72" s="3">
-        <v>-111400</v>
+        <v>3600</v>
       </c>
       <c r="F72" s="3">
-        <v>-180800</v>
+        <v>-115700</v>
       </c>
       <c r="G72" s="3">
-        <v>-230100</v>
+        <v>-187700</v>
       </c>
       <c r="H72" s="3">
-        <v>-281800</v>
+        <v>-238900</v>
       </c>
       <c r="I72" s="3">
-        <v>-317600</v>
+        <v>-292600</v>
       </c>
       <c r="J72" s="3">
+        <v>-329700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-349300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-360300</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1331600</v>
+        <v>1520100</v>
       </c>
       <c r="E76" s="3">
-        <v>1213400</v>
+        <v>1382400</v>
       </c>
       <c r="F76" s="3">
-        <v>1094400</v>
+        <v>1259700</v>
       </c>
       <c r="G76" s="3">
-        <v>710500</v>
+        <v>1136200</v>
       </c>
       <c r="H76" s="3">
-        <v>664300</v>
+        <v>737700</v>
       </c>
       <c r="I76" s="3">
-        <v>573500</v>
+        <v>689700</v>
       </c>
       <c r="J76" s="3">
+        <v>595400</v>
+      </c>
+      <c r="K76" s="3">
         <v>535400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>497300</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E80" s="2">
         <v>44592</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44227</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43861</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43496</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43131</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42766</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42400</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42035</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>114900</v>
+        <v>141400</v>
       </c>
       <c r="E81" s="3">
-        <v>69400</v>
+        <v>119300</v>
       </c>
       <c r="F81" s="3">
-        <v>49300</v>
+        <v>72000</v>
       </c>
       <c r="G81" s="3">
-        <v>41700</v>
+        <v>51200</v>
       </c>
       <c r="H81" s="3">
-        <v>35800</v>
+        <v>43200</v>
       </c>
       <c r="I81" s="3">
-        <v>31700</v>
+        <v>37200</v>
       </c>
       <c r="J81" s="3">
+        <v>33000</v>
+      </c>
+      <c r="K81" s="3">
         <v>27400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>19200</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>85500</v>
+        <v>90400</v>
       </c>
       <c r="E83" s="3">
-        <v>82100</v>
+        <v>88800</v>
       </c>
       <c r="F83" s="3">
-        <v>81900</v>
+        <v>85300</v>
       </c>
       <c r="G83" s="3">
-        <v>59600</v>
+        <v>85100</v>
       </c>
       <c r="H83" s="3">
-        <v>50000</v>
+        <v>61800</v>
       </c>
       <c r="I83" s="3">
-        <v>44800</v>
+        <v>52000</v>
       </c>
       <c r="J83" s="3">
+        <v>46500</v>
+      </c>
+      <c r="K83" s="3">
         <v>39400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>31900</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>234600</v>
+        <v>266000</v>
       </c>
       <c r="E89" s="3">
-        <v>174800</v>
+        <v>243500</v>
       </c>
       <c r="F89" s="3">
-        <v>138800</v>
+        <v>181500</v>
       </c>
       <c r="G89" s="3">
-        <v>104000</v>
+        <v>144100</v>
       </c>
       <c r="H89" s="3">
-        <v>96100</v>
+        <v>108000</v>
       </c>
       <c r="I89" s="3">
-        <v>96700</v>
+        <v>99800</v>
       </c>
       <c r="J89" s="3">
+        <v>100400</v>
+      </c>
+      <c r="K89" s="3">
         <v>72200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>63000</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-6400</v>
+        <v>-8400</v>
       </c>
       <c r="E91" s="3">
-        <v>-5000</v>
+        <v>-6700</v>
       </c>
       <c r="F91" s="3">
-        <v>-6500</v>
+        <v>-5200</v>
       </c>
       <c r="G91" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="I91" s="3">
         <v>-7000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-6800</v>
       </c>
-      <c r="I91" s="3">
-        <v>-6500</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3400</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-126700</v>
+        <v>-168200</v>
       </c>
       <c r="E94" s="3">
-        <v>-69500</v>
+        <v>-131500</v>
       </c>
       <c r="F94" s="3">
-        <v>-395500</v>
+        <v>-72100</v>
       </c>
       <c r="G94" s="3">
-        <v>-97500</v>
+        <v>-410600</v>
       </c>
       <c r="H94" s="3">
-        <v>-155800</v>
+        <v>-101200</v>
       </c>
       <c r="I94" s="3">
-        <v>-93700</v>
+        <v>-161700</v>
       </c>
       <c r="J94" s="3">
+        <v>-97300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-172900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-108100</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,8 +3291,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3088,9 +3321,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2000</v>
+        <v>-6400</v>
       </c>
       <c r="E100" s="3">
-        <v>7400</v>
+        <v>2100</v>
       </c>
       <c r="F100" s="3">
-        <v>279900</v>
+        <v>7700</v>
       </c>
       <c r="G100" s="3">
-        <v>-15200</v>
+        <v>290600</v>
       </c>
       <c r="H100" s="3">
-        <v>50600</v>
+        <v>-15700</v>
       </c>
       <c r="I100" s="3">
+        <v>52500</v>
+      </c>
+      <c r="J100" s="3">
         <v>-300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-3200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>123100</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3700</v>
+        <v>-4400</v>
       </c>
       <c r="E101" s="3">
-        <v>6200</v>
+        <v>-3800</v>
       </c>
       <c r="F101" s="3">
+        <v>6400</v>
+      </c>
+      <c r="G101" s="3">
         <v>-500</v>
       </c>
-      <c r="G101" s="3">
-        <v>-1800</v>
-      </c>
       <c r="H101" s="3">
-        <v>5100</v>
+        <v>-1900</v>
       </c>
       <c r="I101" s="3">
-        <v>-1400</v>
+        <v>5300</v>
       </c>
       <c r="J101" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="K101" s="3">
         <v>-3800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-7500</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>106200</v>
+        <v>87000</v>
       </c>
       <c r="E102" s="3">
-        <v>118900</v>
+        <v>110300</v>
       </c>
       <c r="F102" s="3">
-        <v>22800</v>
+        <v>123400</v>
       </c>
       <c r="G102" s="3">
-        <v>-10500</v>
+        <v>23700</v>
       </c>
       <c r="H102" s="3">
-        <v>-4000</v>
+        <v>-10900</v>
       </c>
       <c r="I102" s="3">
-        <v>1200</v>
+        <v>-4100</v>
       </c>
       <c r="J102" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-107700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>70500</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/DSG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DSG_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>672000</v>
+        <v>656100</v>
       </c>
       <c r="E8" s="3">
-        <v>587200</v>
+        <v>573300</v>
       </c>
       <c r="F8" s="3">
-        <v>482100</v>
+        <v>470700</v>
       </c>
       <c r="G8" s="3">
-        <v>450500</v>
+        <v>439800</v>
       </c>
       <c r="H8" s="3">
-        <v>380500</v>
+        <v>371500</v>
       </c>
       <c r="I8" s="3">
-        <v>328300</v>
+        <v>320500</v>
       </c>
       <c r="J8" s="3">
-        <v>281800</v>
+        <v>275100</v>
       </c>
       <c r="K8" s="3">
         <v>246400</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>156700</v>
+        <v>153000</v>
       </c>
       <c r="E9" s="3">
-        <v>140800</v>
+        <v>137400</v>
       </c>
       <c r="F9" s="3">
-        <v>124300</v>
+        <v>121400</v>
       </c>
       <c r="G9" s="3">
-        <v>118500</v>
+        <v>115700</v>
       </c>
       <c r="H9" s="3">
-        <v>103700</v>
+        <v>101200</v>
       </c>
       <c r="I9" s="3">
-        <v>88100</v>
+        <v>86000</v>
       </c>
       <c r="J9" s="3">
-        <v>77500</v>
+        <v>75700</v>
       </c>
       <c r="K9" s="3">
         <v>71700</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>515300</v>
+        <v>503100</v>
       </c>
       <c r="E10" s="3">
-        <v>446400</v>
+        <v>435900</v>
       </c>
       <c r="F10" s="3">
-        <v>357800</v>
+        <v>349300</v>
       </c>
       <c r="G10" s="3">
-        <v>331900</v>
+        <v>324100</v>
       </c>
       <c r="H10" s="3">
-        <v>276800</v>
+        <v>270200</v>
       </c>
       <c r="I10" s="3">
-        <v>240200</v>
+        <v>234500</v>
       </c>
       <c r="J10" s="3">
-        <v>204300</v>
+        <v>199400</v>
       </c>
       <c r="K10" s="3">
         <v>174600</v>
@@ -831,25 +831,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>97300</v>
+        <v>95000</v>
       </c>
       <c r="E12" s="3">
-        <v>86500</v>
+        <v>84500</v>
       </c>
       <c r="F12" s="3">
-        <v>74800</v>
+        <v>73000</v>
       </c>
       <c r="G12" s="3">
-        <v>74000</v>
+        <v>72200</v>
       </c>
       <c r="H12" s="3">
-        <v>66200</v>
+        <v>64600</v>
       </c>
       <c r="I12" s="3">
-        <v>57800</v>
+        <v>56400</v>
       </c>
       <c r="J12" s="3">
-        <v>49200</v>
+        <v>48000</v>
       </c>
       <c r="K12" s="3">
         <v>41700</v>
@@ -903,19 +903,19 @@
         <v>2700</v>
       </c>
       <c r="F14" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="G14" s="3">
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="H14" s="3">
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="I14" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="J14" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="K14" s="3">
         <v>2000</v>
@@ -930,25 +930,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>83200</v>
+        <v>81200</v>
       </c>
       <c r="E15" s="3">
-        <v>81700</v>
+        <v>79800</v>
       </c>
       <c r="F15" s="3">
-        <v>77300</v>
+        <v>75500</v>
       </c>
       <c r="G15" s="3">
-        <v>76700</v>
+        <v>74900</v>
       </c>
       <c r="H15" s="3">
-        <v>55600</v>
+        <v>54200</v>
       </c>
       <c r="I15" s="3">
-        <v>46300</v>
+        <v>45200</v>
       </c>
       <c r="J15" s="3">
-        <v>41500</v>
+        <v>40500</v>
       </c>
       <c r="K15" s="3">
         <v>34900</v>
@@ -975,25 +975,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>491700</v>
+        <v>480000</v>
       </c>
       <c r="E17" s="3">
-        <v>444200</v>
+        <v>433700</v>
       </c>
       <c r="F17" s="3">
-        <v>383400</v>
+        <v>374300</v>
       </c>
       <c r="G17" s="3">
-        <v>378200</v>
+        <v>369300</v>
       </c>
       <c r="H17" s="3">
-        <v>323200</v>
+        <v>315500</v>
       </c>
       <c r="I17" s="3">
-        <v>278700</v>
+        <v>272100</v>
       </c>
       <c r="J17" s="3">
-        <v>239300</v>
+        <v>233700</v>
       </c>
       <c r="K17" s="3">
         <v>209000</v>
@@ -1008,25 +1008,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>180400</v>
+        <v>176100</v>
       </c>
       <c r="E18" s="3">
-        <v>143000</v>
+        <v>139600</v>
       </c>
       <c r="F18" s="3">
-        <v>98700</v>
+        <v>96400</v>
       </c>
       <c r="G18" s="3">
-        <v>72300</v>
+        <v>70500</v>
       </c>
       <c r="H18" s="3">
-        <v>57300</v>
+        <v>55900</v>
       </c>
       <c r="I18" s="3">
-        <v>49600</v>
+        <v>48400</v>
       </c>
       <c r="J18" s="3">
-        <v>42400</v>
+        <v>41400</v>
       </c>
       <c r="K18" s="3">
         <v>37400</v>
@@ -1056,7 +1056,7 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>6200</v>
+        <v>6000</v>
       </c>
       <c r="E20" s="3">
         <v>400</v>
@@ -1074,7 +1074,7 @@
         <v>200</v>
       </c>
       <c r="J20" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="K20" s="3">
         <v>300</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>276800</v>
+        <v>270100</v>
       </c>
       <c r="E21" s="3">
-        <v>232100</v>
+        <v>226400</v>
       </c>
       <c r="F21" s="3">
-        <v>184100</v>
+        <v>179500</v>
       </c>
       <c r="G21" s="3">
-        <v>157400</v>
+        <v>153600</v>
       </c>
       <c r="H21" s="3">
-        <v>119300</v>
+        <v>116400</v>
       </c>
       <c r="I21" s="3">
-        <v>101700</v>
+        <v>99200</v>
       </c>
       <c r="J21" s="3">
-        <v>90800</v>
+        <v>88600</v>
       </c>
       <c r="K21" s="3">
         <v>77700</v>
@@ -1125,13 +1125,13 @@
         <v>1600</v>
       </c>
       <c r="E22" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="F22" s="3">
         <v>1600</v>
       </c>
       <c r="G22" s="3">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="H22" s="3">
         <v>2900</v>
@@ -1155,25 +1155,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>184900</v>
+        <v>180500</v>
       </c>
       <c r="E23" s="3">
-        <v>141900</v>
+        <v>138500</v>
       </c>
       <c r="F23" s="3">
-        <v>97300</v>
+        <v>95000</v>
       </c>
       <c r="G23" s="3">
-        <v>66400</v>
+        <v>64800</v>
       </c>
       <c r="H23" s="3">
-        <v>54600</v>
+        <v>53300</v>
       </c>
       <c r="I23" s="3">
-        <v>48000</v>
+        <v>46900</v>
       </c>
       <c r="J23" s="3">
-        <v>43600</v>
+        <v>42500</v>
       </c>
       <c r="K23" s="3">
         <v>37000</v>
@@ -1188,25 +1188,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>43500</v>
+        <v>42500</v>
       </c>
       <c r="E24" s="3">
-        <v>22600</v>
+        <v>22000</v>
       </c>
       <c r="F24" s="3">
-        <v>25300</v>
+        <v>24700</v>
       </c>
       <c r="G24" s="3">
-        <v>15300</v>
+        <v>14900</v>
       </c>
       <c r="H24" s="3">
-        <v>11400</v>
+        <v>11100</v>
       </c>
       <c r="I24" s="3">
-        <v>11800</v>
+        <v>11600</v>
       </c>
       <c r="J24" s="3">
-        <v>10600</v>
+        <v>10300</v>
       </c>
       <c r="K24" s="3">
         <v>9600</v>
@@ -1254,25 +1254,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>141400</v>
+        <v>138000</v>
       </c>
       <c r="E26" s="3">
-        <v>119300</v>
+        <v>116500</v>
       </c>
       <c r="F26" s="3">
-        <v>72000</v>
+        <v>70300</v>
       </c>
       <c r="G26" s="3">
-        <v>51200</v>
+        <v>49900</v>
       </c>
       <c r="H26" s="3">
-        <v>43200</v>
+        <v>42200</v>
       </c>
       <c r="I26" s="3">
-        <v>36200</v>
+        <v>35300</v>
       </c>
       <c r="J26" s="3">
-        <v>33000</v>
+        <v>32200</v>
       </c>
       <c r="K26" s="3">
         <v>27400</v>
@@ -1287,25 +1287,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>141400</v>
+        <v>138000</v>
       </c>
       <c r="E27" s="3">
-        <v>119300</v>
+        <v>116500</v>
       </c>
       <c r="F27" s="3">
-        <v>72000</v>
+        <v>70300</v>
       </c>
       <c r="G27" s="3">
-        <v>51200</v>
+        <v>49900</v>
       </c>
       <c r="H27" s="3">
-        <v>43200</v>
+        <v>42200</v>
       </c>
       <c r="I27" s="3">
-        <v>36200</v>
+        <v>35300</v>
       </c>
       <c r="J27" s="3">
-        <v>33000</v>
+        <v>32200</v>
       </c>
       <c r="K27" s="3">
         <v>27400</v>
@@ -1368,7 +1368,7 @@
         <v>24</v>
       </c>
       <c r="I29" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>24</v>
@@ -1452,7 +1452,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-6200</v>
+        <v>-6000</v>
       </c>
       <c r="E32" s="3">
         <v>-400</v>
@@ -1470,7 +1470,7 @@
         <v>-200</v>
       </c>
       <c r="J32" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="K32" s="3">
         <v>-300</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>141400</v>
+        <v>138000</v>
       </c>
       <c r="E33" s="3">
-        <v>119300</v>
+        <v>116500</v>
       </c>
       <c r="F33" s="3">
-        <v>72000</v>
+        <v>70300</v>
       </c>
       <c r="G33" s="3">
-        <v>51200</v>
+        <v>49900</v>
       </c>
       <c r="H33" s="3">
-        <v>43200</v>
+        <v>42200</v>
       </c>
       <c r="I33" s="3">
-        <v>37200</v>
+        <v>36300</v>
       </c>
       <c r="J33" s="3">
-        <v>33000</v>
+        <v>32200</v>
       </c>
       <c r="K33" s="3">
         <v>27400</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>141400</v>
+        <v>138000</v>
       </c>
       <c r="E35" s="3">
-        <v>119300</v>
+        <v>116500</v>
       </c>
       <c r="F35" s="3">
-        <v>72000</v>
+        <v>70300</v>
       </c>
       <c r="G35" s="3">
-        <v>51200</v>
+        <v>49900</v>
       </c>
       <c r="H35" s="3">
-        <v>43200</v>
+        <v>42200</v>
       </c>
       <c r="I35" s="3">
-        <v>37200</v>
+        <v>36300</v>
       </c>
       <c r="J35" s="3">
-        <v>33000</v>
+        <v>32200</v>
       </c>
       <c r="K35" s="3">
         <v>27400</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>382200</v>
+        <v>373100</v>
       </c>
       <c r="E41" s="3">
-        <v>295100</v>
+        <v>288100</v>
       </c>
       <c r="F41" s="3">
-        <v>184800</v>
+        <v>180400</v>
       </c>
       <c r="G41" s="3">
-        <v>61400</v>
+        <v>59900</v>
       </c>
       <c r="H41" s="3">
-        <v>37700</v>
+        <v>36900</v>
       </c>
       <c r="I41" s="3">
-        <v>48600</v>
+        <v>47400</v>
       </c>
       <c r="J41" s="3">
-        <v>52700</v>
+        <v>51500</v>
       </c>
       <c r="K41" s="3">
         <v>49600</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>78600</v>
+        <v>76700</v>
       </c>
       <c r="E43" s="3">
-        <v>77100</v>
+        <v>75300</v>
       </c>
       <c r="F43" s="3">
-        <v>72000</v>
+        <v>70200</v>
       </c>
       <c r="G43" s="3">
-        <v>58600</v>
+        <v>57300</v>
       </c>
       <c r="H43" s="3">
-        <v>49500</v>
+        <v>48400</v>
       </c>
       <c r="I43" s="3">
-        <v>44200</v>
+        <v>43200</v>
       </c>
       <c r="J43" s="3">
-        <v>40300</v>
+        <v>39300</v>
       </c>
       <c r="K43" s="3">
         <v>38300</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>34100</v>
+        <v>33300</v>
       </c>
       <c r="E45" s="3">
-        <v>30400</v>
+        <v>29700</v>
       </c>
       <c r="F45" s="3">
-        <v>23400</v>
+        <v>22900</v>
       </c>
       <c r="G45" s="3">
-        <v>18000</v>
+        <v>17500</v>
       </c>
       <c r="H45" s="3">
-        <v>12500</v>
+        <v>12200</v>
       </c>
       <c r="I45" s="3">
-        <v>10500</v>
+        <v>10300</v>
       </c>
       <c r="J45" s="3">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="K45" s="3">
         <v>5600</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>495900</v>
+        <v>484200</v>
       </c>
       <c r="E46" s="3">
-        <v>403800</v>
+        <v>394300</v>
       </c>
       <c r="F46" s="3">
-        <v>280800</v>
+        <v>274100</v>
       </c>
       <c r="G46" s="3">
-        <v>138600</v>
+        <v>135300</v>
       </c>
       <c r="H46" s="3">
-        <v>99900</v>
+        <v>97500</v>
       </c>
       <c r="I46" s="3">
-        <v>103500</v>
+        <v>101100</v>
       </c>
       <c r="J46" s="3">
-        <v>100300</v>
+        <v>98000</v>
       </c>
       <c r="K46" s="3">
         <v>99800</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>25200</v>
+        <v>24600</v>
       </c>
       <c r="E48" s="3">
-        <v>29600</v>
+        <v>28900</v>
       </c>
       <c r="F48" s="3">
-        <v>33500</v>
+        <v>32700</v>
       </c>
       <c r="G48" s="3">
-        <v>36800</v>
+        <v>35900</v>
       </c>
       <c r="H48" s="3">
-        <v>17400</v>
+        <v>17000</v>
       </c>
       <c r="I48" s="3">
-        <v>17700</v>
+        <v>17300</v>
       </c>
       <c r="J48" s="3">
-        <v>14400</v>
+        <v>14100</v>
       </c>
       <c r="K48" s="3">
         <v>11500</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1252000</v>
+        <v>1222400</v>
       </c>
       <c r="E49" s="3">
-        <v>1159200</v>
+        <v>1131800</v>
       </c>
       <c r="F49" s="3">
-        <v>1113300</v>
+        <v>1087000</v>
       </c>
       <c r="G49" s="3">
-        <v>1079400</v>
+        <v>1053900</v>
       </c>
       <c r="H49" s="3">
-        <v>766500</v>
+        <v>748400</v>
       </c>
       <c r="I49" s="3">
-        <v>730300</v>
+        <v>713000</v>
       </c>
       <c r="J49" s="3">
-        <v>564900</v>
+        <v>551600</v>
       </c>
       <c r="K49" s="3">
         <v>467500</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>46600</v>
+        <v>45500</v>
       </c>
       <c r="E52" s="3">
-        <v>46500</v>
+        <v>45400</v>
       </c>
       <c r="F52" s="3">
-        <v>42500</v>
+        <v>41500</v>
       </c>
       <c r="G52" s="3">
-        <v>48600</v>
+        <v>47400</v>
       </c>
       <c r="H52" s="3">
-        <v>19500</v>
+        <v>19000</v>
       </c>
       <c r="I52" s="3">
-        <v>12600</v>
+        <v>12300</v>
       </c>
       <c r="J52" s="3">
-        <v>12400</v>
+        <v>12100</v>
       </c>
       <c r="K52" s="3">
         <v>24200</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1819700</v>
+        <v>1776700</v>
       </c>
       <c r="E54" s="3">
-        <v>1639100</v>
+        <v>1600300</v>
       </c>
       <c r="F54" s="3">
-        <v>1470200</v>
+        <v>1435400</v>
       </c>
       <c r="G54" s="3">
-        <v>1303300</v>
+        <v>1272500</v>
       </c>
       <c r="H54" s="3">
-        <v>903400</v>
+        <v>882000</v>
       </c>
       <c r="I54" s="3">
-        <v>864000</v>
+        <v>843600</v>
       </c>
       <c r="J54" s="3">
-        <v>692100</v>
+        <v>675700</v>
       </c>
       <c r="K54" s="3">
         <v>603000</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>14600</v>
+        <v>14300</v>
       </c>
       <c r="E57" s="3">
-        <v>14600</v>
+        <v>14300</v>
       </c>
       <c r="F57" s="3">
-        <v>11000</v>
+        <v>10700</v>
       </c>
       <c r="G57" s="3">
-        <v>10600</v>
+        <v>10400</v>
       </c>
       <c r="H57" s="3">
-        <v>7100</v>
+        <v>6900</v>
       </c>
       <c r="I57" s="3">
-        <v>10900</v>
+        <v>10700</v>
       </c>
       <c r="J57" s="3">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="K57" s="3">
         <v>6000</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>219900</v>
+        <v>214700</v>
       </c>
       <c r="E59" s="3">
-        <v>169900</v>
+        <v>165900</v>
       </c>
       <c r="F59" s="3">
-        <v>133200</v>
+        <v>130000</v>
       </c>
       <c r="G59" s="3">
-        <v>112400</v>
+        <v>109700</v>
       </c>
       <c r="H59" s="3">
-        <v>90200</v>
+        <v>88000</v>
       </c>
       <c r="I59" s="3">
-        <v>82700</v>
+        <v>80700</v>
       </c>
       <c r="J59" s="3">
-        <v>68000</v>
+        <v>66300</v>
       </c>
       <c r="K59" s="3">
         <v>47400</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>234500</v>
+        <v>229000</v>
       </c>
       <c r="E60" s="3">
-        <v>184500</v>
+        <v>180100</v>
       </c>
       <c r="F60" s="3">
-        <v>144200</v>
+        <v>140800</v>
       </c>
       <c r="G60" s="3">
-        <v>123000</v>
+        <v>120100</v>
       </c>
       <c r="H60" s="3">
-        <v>97300</v>
+        <v>95000</v>
       </c>
       <c r="I60" s="3">
-        <v>93600</v>
+        <v>91400</v>
       </c>
       <c r="J60" s="3">
-        <v>74400</v>
+        <v>72700</v>
       </c>
       <c r="K60" s="3">
         <v>53300</v>
@@ -2288,10 +2288,10 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>35200</v>
+        <v>34400</v>
       </c>
       <c r="I61" s="3">
-        <v>51200</v>
+        <v>50000</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>65100</v>
+        <v>63500</v>
       </c>
       <c r="E62" s="3">
-        <v>72100</v>
+        <v>70400</v>
       </c>
       <c r="F62" s="3">
-        <v>66300</v>
+        <v>64700</v>
       </c>
       <c r="G62" s="3">
-        <v>44200</v>
+        <v>43100</v>
       </c>
       <c r="H62" s="3">
-        <v>33200</v>
+        <v>32400</v>
       </c>
       <c r="I62" s="3">
-        <v>29600</v>
+        <v>28900</v>
       </c>
       <c r="J62" s="3">
-        <v>22300</v>
+        <v>21800</v>
       </c>
       <c r="K62" s="3">
         <v>14300</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>299600</v>
+        <v>292500</v>
       </c>
       <c r="E66" s="3">
-        <v>256600</v>
+        <v>250600</v>
       </c>
       <c r="F66" s="3">
-        <v>210400</v>
+        <v>205500</v>
       </c>
       <c r="G66" s="3">
-        <v>167100</v>
+        <v>163200</v>
       </c>
       <c r="H66" s="3">
-        <v>165700</v>
+        <v>161800</v>
       </c>
       <c r="I66" s="3">
-        <v>174300</v>
+        <v>170200</v>
       </c>
       <c r="J66" s="3">
-        <v>96700</v>
+        <v>94400</v>
       </c>
       <c r="K66" s="3">
         <v>67600</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>145000</v>
+        <v>141500</v>
       </c>
       <c r="E72" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="F72" s="3">
-        <v>-115700</v>
+        <v>-113000</v>
       </c>
       <c r="G72" s="3">
-        <v>-187700</v>
+        <v>-183300</v>
       </c>
       <c r="H72" s="3">
-        <v>-238900</v>
+        <v>-233200</v>
       </c>
       <c r="I72" s="3">
-        <v>-292600</v>
+        <v>-285700</v>
       </c>
       <c r="J72" s="3">
-        <v>-329700</v>
+        <v>-321900</v>
       </c>
       <c r="K72" s="3">
         <v>-349300</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1520100</v>
+        <v>1484200</v>
       </c>
       <c r="E76" s="3">
-        <v>1382400</v>
+        <v>1349800</v>
       </c>
       <c r="F76" s="3">
-        <v>1259700</v>
+        <v>1229900</v>
       </c>
       <c r="G76" s="3">
-        <v>1136200</v>
+        <v>1109300</v>
       </c>
       <c r="H76" s="3">
-        <v>737700</v>
+        <v>720200</v>
       </c>
       <c r="I76" s="3">
-        <v>689700</v>
+        <v>673400</v>
       </c>
       <c r="J76" s="3">
-        <v>595400</v>
+        <v>581300</v>
       </c>
       <c r="K76" s="3">
         <v>535400</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>141400</v>
+        <v>138000</v>
       </c>
       <c r="E81" s="3">
-        <v>119300</v>
+        <v>116500</v>
       </c>
       <c r="F81" s="3">
-        <v>72000</v>
+        <v>70300</v>
       </c>
       <c r="G81" s="3">
-        <v>51200</v>
+        <v>49900</v>
       </c>
       <c r="H81" s="3">
-        <v>43200</v>
+        <v>42200</v>
       </c>
       <c r="I81" s="3">
-        <v>37200</v>
+        <v>36300</v>
       </c>
       <c r="J81" s="3">
-        <v>33000</v>
+        <v>32200</v>
       </c>
       <c r="K81" s="3">
         <v>27400</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>90400</v>
+        <v>88300</v>
       </c>
       <c r="E83" s="3">
-        <v>88800</v>
+        <v>86700</v>
       </c>
       <c r="F83" s="3">
-        <v>85300</v>
+        <v>83200</v>
       </c>
       <c r="G83" s="3">
-        <v>85100</v>
+        <v>83100</v>
       </c>
       <c r="H83" s="3">
-        <v>61800</v>
+        <v>60400</v>
       </c>
       <c r="I83" s="3">
-        <v>52000</v>
+        <v>50700</v>
       </c>
       <c r="J83" s="3">
-        <v>46500</v>
+        <v>45400</v>
       </c>
       <c r="K83" s="3">
         <v>39400</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>266000</v>
+        <v>259700</v>
       </c>
       <c r="E89" s="3">
-        <v>243500</v>
+        <v>237800</v>
       </c>
       <c r="F89" s="3">
-        <v>181500</v>
+        <v>177200</v>
       </c>
       <c r="G89" s="3">
-        <v>144100</v>
+        <v>140700</v>
       </c>
       <c r="H89" s="3">
-        <v>108000</v>
+        <v>105400</v>
       </c>
       <c r="I89" s="3">
-        <v>99800</v>
+        <v>97400</v>
       </c>
       <c r="J89" s="3">
-        <v>100400</v>
+        <v>98000</v>
       </c>
       <c r="K89" s="3">
         <v>72200</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-8400</v>
+        <v>-8200</v>
       </c>
       <c r="E91" s="3">
-        <v>-6700</v>
+        <v>-6500</v>
       </c>
       <c r="F91" s="3">
-        <v>-5200</v>
+        <v>-5100</v>
       </c>
       <c r="G91" s="3">
-        <v>-6800</v>
+        <v>-6600</v>
       </c>
       <c r="H91" s="3">
-        <v>-7300</v>
+        <v>-7100</v>
       </c>
       <c r="I91" s="3">
-        <v>-7000</v>
+        <v>-6900</v>
       </c>
       <c r="J91" s="3">
-        <v>-6800</v>
+        <v>-6600</v>
       </c>
       <c r="K91" s="3">
         <v>-5700</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-168200</v>
+        <v>-164200</v>
       </c>
       <c r="E94" s="3">
-        <v>-131500</v>
+        <v>-128400</v>
       </c>
       <c r="F94" s="3">
-        <v>-72100</v>
+        <v>-70400</v>
       </c>
       <c r="G94" s="3">
-        <v>-410600</v>
+        <v>-400900</v>
       </c>
       <c r="H94" s="3">
-        <v>-101200</v>
+        <v>-98800</v>
       </c>
       <c r="I94" s="3">
-        <v>-161700</v>
+        <v>-157900</v>
       </c>
       <c r="J94" s="3">
-        <v>-97300</v>
+        <v>-95000</v>
       </c>
       <c r="K94" s="3">
         <v>-172900</v>
@@ -3430,22 +3430,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-6400</v>
+        <v>-6200</v>
       </c>
       <c r="E100" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="F100" s="3">
-        <v>7700</v>
+        <v>7500</v>
       </c>
       <c r="G100" s="3">
-        <v>290600</v>
+        <v>283700</v>
       </c>
       <c r="H100" s="3">
-        <v>-15700</v>
+        <v>-15400</v>
       </c>
       <c r="I100" s="3">
-        <v>52500</v>
+        <v>51300</v>
       </c>
       <c r="J100" s="3">
         <v>-300</v>
@@ -3463,22 +3463,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-4400</v>
+        <v>-4300</v>
       </c>
       <c r="E101" s="3">
-        <v>-3800</v>
+        <v>-3700</v>
       </c>
       <c r="F101" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="G101" s="3">
         <v>-500</v>
       </c>
       <c r="H101" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="I101" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="J101" s="3">
         <v>-1500</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>87000</v>
+        <v>85000</v>
       </c>
       <c r="E102" s="3">
-        <v>110300</v>
+        <v>107700</v>
       </c>
       <c r="F102" s="3">
-        <v>123400</v>
+        <v>120500</v>
       </c>
       <c r="G102" s="3">
-        <v>23700</v>
+        <v>23100</v>
       </c>
       <c r="H102" s="3">
-        <v>-10900</v>
+        <v>-10600</v>
       </c>
       <c r="I102" s="3">
-        <v>-4100</v>
+        <v>-4000</v>
       </c>
       <c r="J102" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="K102" s="3">
         <v>-107700</v>

--- a/AAII_Financials/Yearly/DSG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DSG_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>656100</v>
+        <v>656500</v>
       </c>
       <c r="E8" s="3">
-        <v>573300</v>
+        <v>573600</v>
       </c>
       <c r="F8" s="3">
-        <v>470700</v>
+        <v>470900</v>
       </c>
       <c r="G8" s="3">
-        <v>439800</v>
+        <v>440000</v>
       </c>
       <c r="H8" s="3">
-        <v>371500</v>
+        <v>371700</v>
       </c>
       <c r="I8" s="3">
-        <v>320500</v>
+        <v>320700</v>
       </c>
       <c r="J8" s="3">
-        <v>275100</v>
+        <v>275200</v>
       </c>
       <c r="K8" s="3">
         <v>246400</v>
@@ -750,19 +750,19 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>153000</v>
+        <v>153100</v>
       </c>
       <c r="E9" s="3">
-        <v>137400</v>
+        <v>137500</v>
       </c>
       <c r="F9" s="3">
         <v>121400</v>
       </c>
       <c r="G9" s="3">
-        <v>115700</v>
+        <v>115800</v>
       </c>
       <c r="H9" s="3">
-        <v>101200</v>
+        <v>101300</v>
       </c>
       <c r="I9" s="3">
         <v>86000</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>503100</v>
+        <v>503400</v>
       </c>
       <c r="E10" s="3">
-        <v>435900</v>
+        <v>436100</v>
       </c>
       <c r="F10" s="3">
-        <v>349300</v>
+        <v>349500</v>
       </c>
       <c r="G10" s="3">
-        <v>324100</v>
+        <v>324300</v>
       </c>
       <c r="H10" s="3">
-        <v>270200</v>
+        <v>270400</v>
       </c>
       <c r="I10" s="3">
-        <v>234500</v>
+        <v>234700</v>
       </c>
       <c r="J10" s="3">
-        <v>199400</v>
+        <v>199500</v>
       </c>
       <c r="K10" s="3">
         <v>174600</v>
@@ -840,13 +840,13 @@
         <v>73000</v>
       </c>
       <c r="G12" s="3">
-        <v>72200</v>
+        <v>72300</v>
       </c>
       <c r="H12" s="3">
-        <v>64600</v>
+        <v>64700</v>
       </c>
       <c r="I12" s="3">
-        <v>56400</v>
+        <v>56500</v>
       </c>
       <c r="J12" s="3">
         <v>48000</v>
@@ -930,7 +930,7 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>81200</v>
+        <v>81300</v>
       </c>
       <c r="E15" s="3">
         <v>79800</v>
@@ -942,7 +942,7 @@
         <v>74900</v>
       </c>
       <c r="H15" s="3">
-        <v>54200</v>
+        <v>54300</v>
       </c>
       <c r="I15" s="3">
         <v>45200</v>
@@ -975,25 +975,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>480000</v>
+        <v>480300</v>
       </c>
       <c r="E17" s="3">
-        <v>433700</v>
+        <v>433900</v>
       </c>
       <c r="F17" s="3">
-        <v>374300</v>
+        <v>374500</v>
       </c>
       <c r="G17" s="3">
-        <v>369300</v>
+        <v>369500</v>
       </c>
       <c r="H17" s="3">
-        <v>315500</v>
+        <v>315700</v>
       </c>
       <c r="I17" s="3">
-        <v>272100</v>
+        <v>272200</v>
       </c>
       <c r="J17" s="3">
-        <v>233700</v>
+        <v>233800</v>
       </c>
       <c r="K17" s="3">
         <v>209000</v>
@@ -1008,25 +1008,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>176100</v>
+        <v>176200</v>
       </c>
       <c r="E18" s="3">
-        <v>139600</v>
+        <v>139700</v>
       </c>
       <c r="F18" s="3">
         <v>96400</v>
       </c>
       <c r="G18" s="3">
-        <v>70500</v>
+        <v>70600</v>
       </c>
       <c r="H18" s="3">
-        <v>55900</v>
+        <v>56000</v>
       </c>
       <c r="I18" s="3">
-        <v>48400</v>
+        <v>48500</v>
       </c>
       <c r="J18" s="3">
-        <v>41400</v>
+        <v>41500</v>
       </c>
       <c r="K18" s="3">
         <v>37400</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>270100</v>
+        <v>270500</v>
       </c>
       <c r="E21" s="3">
-        <v>226400</v>
+        <v>226900</v>
       </c>
       <c r="F21" s="3">
-        <v>179500</v>
+        <v>179900</v>
       </c>
       <c r="G21" s="3">
-        <v>153600</v>
+        <v>153900</v>
       </c>
       <c r="H21" s="3">
-        <v>116400</v>
+        <v>116600</v>
       </c>
       <c r="I21" s="3">
-        <v>99200</v>
+        <v>99400</v>
       </c>
       <c r="J21" s="3">
-        <v>88600</v>
+        <v>88800</v>
       </c>
       <c r="K21" s="3">
         <v>77700</v>
@@ -1155,19 +1155,19 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>180500</v>
+        <v>180600</v>
       </c>
       <c r="E23" s="3">
-        <v>138500</v>
+        <v>138600</v>
       </c>
       <c r="F23" s="3">
         <v>95000</v>
       </c>
       <c r="G23" s="3">
-        <v>64800</v>
+        <v>64900</v>
       </c>
       <c r="H23" s="3">
-        <v>53300</v>
+        <v>53400</v>
       </c>
       <c r="I23" s="3">
         <v>46900</v>
@@ -1191,7 +1191,7 @@
         <v>42500</v>
       </c>
       <c r="E24" s="3">
-        <v>22000</v>
+        <v>22100</v>
       </c>
       <c r="F24" s="3">
         <v>24700</v>
@@ -1254,22 +1254,22 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>138000</v>
+        <v>138100</v>
       </c>
       <c r="E26" s="3">
         <v>116500</v>
       </c>
       <c r="F26" s="3">
-        <v>70300</v>
+        <v>70400</v>
       </c>
       <c r="G26" s="3">
-        <v>49900</v>
+        <v>50000</v>
       </c>
       <c r="H26" s="3">
         <v>42200</v>
       </c>
       <c r="I26" s="3">
-        <v>35300</v>
+        <v>35400</v>
       </c>
       <c r="J26" s="3">
         <v>32200</v>
@@ -1287,22 +1287,22 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>138000</v>
+        <v>138100</v>
       </c>
       <c r="E27" s="3">
         <v>116500</v>
       </c>
       <c r="F27" s="3">
-        <v>70300</v>
+        <v>70400</v>
       </c>
       <c r="G27" s="3">
-        <v>49900</v>
+        <v>50000</v>
       </c>
       <c r="H27" s="3">
         <v>42200</v>
       </c>
       <c r="I27" s="3">
-        <v>35300</v>
+        <v>35400</v>
       </c>
       <c r="J27" s="3">
         <v>32200</v>
@@ -1485,16 +1485,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>138000</v>
+        <v>138100</v>
       </c>
       <c r="E33" s="3">
         <v>116500</v>
       </c>
       <c r="F33" s="3">
-        <v>70300</v>
+        <v>70400</v>
       </c>
       <c r="G33" s="3">
-        <v>49900</v>
+        <v>50000</v>
       </c>
       <c r="H33" s="3">
         <v>42200</v>
@@ -1551,16 +1551,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>138000</v>
+        <v>138100</v>
       </c>
       <c r="E35" s="3">
         <v>116500</v>
       </c>
       <c r="F35" s="3">
-        <v>70300</v>
+        <v>70400</v>
       </c>
       <c r="G35" s="3">
-        <v>49900</v>
+        <v>50000</v>
       </c>
       <c r="H35" s="3">
         <v>42200</v>
@@ -1652,22 +1652,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>373100</v>
+        <v>373300</v>
       </c>
       <c r="E41" s="3">
-        <v>288100</v>
+        <v>288300</v>
       </c>
       <c r="F41" s="3">
-        <v>180400</v>
+        <v>180500</v>
       </c>
       <c r="G41" s="3">
-        <v>59900</v>
+        <v>60000</v>
       </c>
       <c r="H41" s="3">
         <v>36900</v>
       </c>
       <c r="I41" s="3">
-        <v>47400</v>
+        <v>47500</v>
       </c>
       <c r="J41" s="3">
         <v>51500</v>
@@ -1718,13 +1718,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>76700</v>
+        <v>76800</v>
       </c>
       <c r="E43" s="3">
         <v>75300</v>
       </c>
       <c r="F43" s="3">
-        <v>70200</v>
+        <v>70300</v>
       </c>
       <c r="G43" s="3">
         <v>57300</v>
@@ -1817,19 +1817,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>484200</v>
+        <v>484400</v>
       </c>
       <c r="E46" s="3">
-        <v>394300</v>
+        <v>394500</v>
       </c>
       <c r="F46" s="3">
-        <v>274100</v>
+        <v>274300</v>
       </c>
       <c r="G46" s="3">
-        <v>135300</v>
+        <v>135400</v>
       </c>
       <c r="H46" s="3">
-        <v>97500</v>
+        <v>97600</v>
       </c>
       <c r="I46" s="3">
         <v>101100</v>
@@ -1889,7 +1889,7 @@
         <v>28900</v>
       </c>
       <c r="F48" s="3">
-        <v>32700</v>
+        <v>32800</v>
       </c>
       <c r="G48" s="3">
         <v>35900</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1222400</v>
+        <v>1223000</v>
       </c>
       <c r="E49" s="3">
-        <v>1131800</v>
+        <v>1132400</v>
       </c>
       <c r="F49" s="3">
-        <v>1087000</v>
+        <v>1087500</v>
       </c>
       <c r="G49" s="3">
-        <v>1053900</v>
+        <v>1054400</v>
       </c>
       <c r="H49" s="3">
-        <v>748400</v>
+        <v>748800</v>
       </c>
       <c r="I49" s="3">
-        <v>713000</v>
+        <v>713400</v>
       </c>
       <c r="J49" s="3">
-        <v>551600</v>
+        <v>551800</v>
       </c>
       <c r="K49" s="3">
         <v>467500</v>
@@ -2015,19 +2015,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>45500</v>
+        <v>45600</v>
       </c>
       <c r="E52" s="3">
         <v>45400</v>
       </c>
       <c r="F52" s="3">
-        <v>41500</v>
+        <v>41600</v>
       </c>
       <c r="G52" s="3">
         <v>47400</v>
       </c>
       <c r="H52" s="3">
-        <v>19000</v>
+        <v>19100</v>
       </c>
       <c r="I52" s="3">
         <v>12300</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1776700</v>
+        <v>1777600</v>
       </c>
       <c r="E54" s="3">
-        <v>1600300</v>
+        <v>1601200</v>
       </c>
       <c r="F54" s="3">
-        <v>1435400</v>
+        <v>1436100</v>
       </c>
       <c r="G54" s="3">
-        <v>1272500</v>
+        <v>1273200</v>
       </c>
       <c r="H54" s="3">
-        <v>882000</v>
+        <v>882500</v>
       </c>
       <c r="I54" s="3">
-        <v>843600</v>
+        <v>844000</v>
       </c>
       <c r="J54" s="3">
-        <v>675700</v>
+        <v>676100</v>
       </c>
       <c r="K54" s="3">
         <v>603000</v>
@@ -2156,7 +2156,7 @@
         <v>10400</v>
       </c>
       <c r="H57" s="3">
-        <v>6900</v>
+        <v>7000</v>
       </c>
       <c r="I57" s="3">
         <v>10700</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>214700</v>
+        <v>214800</v>
       </c>
       <c r="E59" s="3">
-        <v>165900</v>
+        <v>166000</v>
       </c>
       <c r="F59" s="3">
-        <v>130000</v>
+        <v>130100</v>
       </c>
       <c r="G59" s="3">
-        <v>109700</v>
+        <v>109800</v>
       </c>
       <c r="H59" s="3">
-        <v>88000</v>
+        <v>88100</v>
       </c>
       <c r="I59" s="3">
-        <v>80700</v>
+        <v>80800</v>
       </c>
       <c r="J59" s="3">
-        <v>66300</v>
+        <v>66400</v>
       </c>
       <c r="K59" s="3">
         <v>47400</v>
@@ -2243,10 +2243,10 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>229000</v>
+        <v>229100</v>
       </c>
       <c r="E60" s="3">
-        <v>180100</v>
+        <v>180200</v>
       </c>
       <c r="F60" s="3">
         <v>140800</v>
@@ -2309,10 +2309,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>63500</v>
+        <v>63600</v>
       </c>
       <c r="E62" s="3">
-        <v>70400</v>
+        <v>70500</v>
       </c>
       <c r="F62" s="3">
         <v>64700</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>292500</v>
+        <v>292600</v>
       </c>
       <c r="E66" s="3">
-        <v>250600</v>
+        <v>250700</v>
       </c>
       <c r="F66" s="3">
-        <v>205500</v>
+        <v>205600</v>
       </c>
       <c r="G66" s="3">
-        <v>163200</v>
+        <v>163300</v>
       </c>
       <c r="H66" s="3">
-        <v>161800</v>
+        <v>161900</v>
       </c>
       <c r="I66" s="3">
-        <v>170200</v>
+        <v>170300</v>
       </c>
       <c r="J66" s="3">
-        <v>94400</v>
+        <v>94500</v>
       </c>
       <c r="K66" s="3">
         <v>67600</v>
@@ -2621,7 +2621,7 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>141500</v>
+        <v>141600</v>
       </c>
       <c r="E72" s="3">
         <v>3500</v>
@@ -2630,16 +2630,16 @@
         <v>-113000</v>
       </c>
       <c r="G72" s="3">
-        <v>-183300</v>
+        <v>-183400</v>
       </c>
       <c r="H72" s="3">
-        <v>-233200</v>
+        <v>-233400</v>
       </c>
       <c r="I72" s="3">
-        <v>-285700</v>
+        <v>-285800</v>
       </c>
       <c r="J72" s="3">
-        <v>-321900</v>
+        <v>-322100</v>
       </c>
       <c r="K72" s="3">
         <v>-349300</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1484200</v>
+        <v>1484900</v>
       </c>
       <c r="E76" s="3">
-        <v>1349800</v>
+        <v>1350500</v>
       </c>
       <c r="F76" s="3">
-        <v>1229900</v>
+        <v>1230600</v>
       </c>
       <c r="G76" s="3">
-        <v>1109300</v>
+        <v>1109900</v>
       </c>
       <c r="H76" s="3">
-        <v>720200</v>
+        <v>720600</v>
       </c>
       <c r="I76" s="3">
-        <v>673400</v>
+        <v>673700</v>
       </c>
       <c r="J76" s="3">
-        <v>581300</v>
+        <v>581600</v>
       </c>
       <c r="K76" s="3">
         <v>535400</v>
@@ -2857,16 +2857,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>138000</v>
+        <v>138100</v>
       </c>
       <c r="E81" s="3">
         <v>116500</v>
       </c>
       <c r="F81" s="3">
-        <v>70300</v>
+        <v>70400</v>
       </c>
       <c r="G81" s="3">
-        <v>49900</v>
+        <v>50000</v>
       </c>
       <c r="H81" s="3">
         <v>42200</v>
@@ -2908,10 +2908,10 @@
         <v>88300</v>
       </c>
       <c r="E83" s="3">
-        <v>86700</v>
+        <v>86800</v>
       </c>
       <c r="F83" s="3">
-        <v>83200</v>
+        <v>83300</v>
       </c>
       <c r="G83" s="3">
         <v>83100</v>
@@ -2920,7 +2920,7 @@
         <v>60400</v>
       </c>
       <c r="I83" s="3">
-        <v>50700</v>
+        <v>50800</v>
       </c>
       <c r="J83" s="3">
         <v>45400</v>
@@ -3103,19 +3103,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>259700</v>
+        <v>259900</v>
       </c>
       <c r="E89" s="3">
-        <v>237800</v>
+        <v>237900</v>
       </c>
       <c r="F89" s="3">
-        <v>177200</v>
+        <v>177300</v>
       </c>
       <c r="G89" s="3">
-        <v>140700</v>
+        <v>140800</v>
       </c>
       <c r="H89" s="3">
-        <v>105400</v>
+        <v>105500</v>
       </c>
       <c r="I89" s="3">
         <v>97400</v>
@@ -3250,22 +3250,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-164200</v>
+        <v>-164300</v>
       </c>
       <c r="E94" s="3">
-        <v>-128400</v>
+        <v>-128500</v>
       </c>
       <c r="F94" s="3">
-        <v>-70400</v>
+        <v>-70500</v>
       </c>
       <c r="G94" s="3">
-        <v>-400900</v>
+        <v>-401100</v>
       </c>
       <c r="H94" s="3">
         <v>-98800</v>
       </c>
       <c r="I94" s="3">
-        <v>-157900</v>
+        <v>-158000</v>
       </c>
       <c r="J94" s="3">
         <v>-95000</v>
@@ -3439,7 +3439,7 @@
         <v>7500</v>
       </c>
       <c r="G100" s="3">
-        <v>283700</v>
+        <v>283900</v>
       </c>
       <c r="H100" s="3">
         <v>-15400</v>
@@ -3499,10 +3499,10 @@
         <v>85000</v>
       </c>
       <c r="E102" s="3">
-        <v>107700</v>
+        <v>107800</v>
       </c>
       <c r="F102" s="3">
-        <v>120500</v>
+        <v>120600</v>
       </c>
       <c r="G102" s="3">
         <v>23100</v>

--- a/AAII_Financials/Yearly/DSG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DSG_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>656500</v>
+        <v>668500</v>
       </c>
       <c r="E8" s="3">
-        <v>573600</v>
+        <v>584200</v>
       </c>
       <c r="F8" s="3">
-        <v>470900</v>
+        <v>479600</v>
       </c>
       <c r="G8" s="3">
-        <v>440000</v>
+        <v>448100</v>
       </c>
       <c r="H8" s="3">
-        <v>371700</v>
+        <v>378500</v>
       </c>
       <c r="I8" s="3">
-        <v>320700</v>
+        <v>326600</v>
       </c>
       <c r="J8" s="3">
-        <v>275200</v>
+        <v>280300</v>
       </c>
       <c r="K8" s="3">
         <v>246400</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>153100</v>
+        <v>155900</v>
       </c>
       <c r="E9" s="3">
-        <v>137500</v>
+        <v>140000</v>
       </c>
       <c r="F9" s="3">
-        <v>121400</v>
+        <v>123700</v>
       </c>
       <c r="G9" s="3">
-        <v>115800</v>
+        <v>117900</v>
       </c>
       <c r="H9" s="3">
-        <v>101300</v>
+        <v>103200</v>
       </c>
       <c r="I9" s="3">
-        <v>86000</v>
+        <v>87600</v>
       </c>
       <c r="J9" s="3">
-        <v>75700</v>
+        <v>77100</v>
       </c>
       <c r="K9" s="3">
         <v>71700</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>503400</v>
+        <v>512600</v>
       </c>
       <c r="E10" s="3">
-        <v>436100</v>
+        <v>444100</v>
       </c>
       <c r="F10" s="3">
-        <v>349500</v>
+        <v>355900</v>
       </c>
       <c r="G10" s="3">
-        <v>324300</v>
+        <v>330200</v>
       </c>
       <c r="H10" s="3">
-        <v>270400</v>
+        <v>275300</v>
       </c>
       <c r="I10" s="3">
-        <v>234700</v>
+        <v>239000</v>
       </c>
       <c r="J10" s="3">
-        <v>199500</v>
+        <v>203200</v>
       </c>
       <c r="K10" s="3">
         <v>174600</v>
@@ -831,25 +831,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>95000</v>
+        <v>96800</v>
       </c>
       <c r="E12" s="3">
-        <v>84500</v>
+        <v>86100</v>
       </c>
       <c r="F12" s="3">
-        <v>73000</v>
+        <v>74400</v>
       </c>
       <c r="G12" s="3">
-        <v>72300</v>
+        <v>73600</v>
       </c>
       <c r="H12" s="3">
-        <v>64700</v>
+        <v>65800</v>
       </c>
       <c r="I12" s="3">
-        <v>56500</v>
+        <v>57500</v>
       </c>
       <c r="J12" s="3">
-        <v>48000</v>
+        <v>48900</v>
       </c>
       <c r="K12" s="3">
         <v>41700</v>
@@ -903,19 +903,19 @@
         <v>2700</v>
       </c>
       <c r="F14" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="G14" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="H14" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="I14" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="J14" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="K14" s="3">
         <v>2000</v>
@@ -930,25 +930,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>82800</v>
+      </c>
+      <c r="E15" s="3">
         <v>81300</v>
       </c>
-      <c r="E15" s="3">
-        <v>79800</v>
-      </c>
       <c r="F15" s="3">
-        <v>75500</v>
+        <v>76900</v>
       </c>
       <c r="G15" s="3">
-        <v>74900</v>
+        <v>76300</v>
       </c>
       <c r="H15" s="3">
-        <v>54300</v>
+        <v>55300</v>
       </c>
       <c r="I15" s="3">
-        <v>45200</v>
+        <v>46000</v>
       </c>
       <c r="J15" s="3">
-        <v>40500</v>
+        <v>41300</v>
       </c>
       <c r="K15" s="3">
         <v>34900</v>
@@ -975,25 +975,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>480300</v>
+        <v>489100</v>
       </c>
       <c r="E17" s="3">
-        <v>433900</v>
+        <v>441900</v>
       </c>
       <c r="F17" s="3">
-        <v>374500</v>
+        <v>381400</v>
       </c>
       <c r="G17" s="3">
-        <v>369500</v>
+        <v>376200</v>
       </c>
       <c r="H17" s="3">
-        <v>315700</v>
+        <v>321500</v>
       </c>
       <c r="I17" s="3">
-        <v>272200</v>
+        <v>277200</v>
       </c>
       <c r="J17" s="3">
-        <v>233800</v>
+        <v>238100</v>
       </c>
       <c r="K17" s="3">
         <v>209000</v>
@@ -1008,25 +1008,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>176200</v>
+        <v>179400</v>
       </c>
       <c r="E18" s="3">
-        <v>139700</v>
+        <v>142300</v>
       </c>
       <c r="F18" s="3">
-        <v>96400</v>
+        <v>98200</v>
       </c>
       <c r="G18" s="3">
-        <v>70600</v>
+        <v>71900</v>
       </c>
       <c r="H18" s="3">
-        <v>56000</v>
+        <v>57000</v>
       </c>
       <c r="I18" s="3">
-        <v>48500</v>
+        <v>49400</v>
       </c>
       <c r="J18" s="3">
-        <v>41500</v>
+        <v>42200</v>
       </c>
       <c r="K18" s="3">
         <v>37400</v>
@@ -1056,7 +1056,7 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="E20" s="3">
         <v>400</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>270500</v>
+        <v>275000</v>
       </c>
       <c r="E21" s="3">
-        <v>226900</v>
+        <v>230500</v>
       </c>
       <c r="F21" s="3">
-        <v>179900</v>
+        <v>182800</v>
       </c>
       <c r="G21" s="3">
-        <v>153900</v>
+        <v>156300</v>
       </c>
       <c r="H21" s="3">
-        <v>116600</v>
+        <v>118400</v>
       </c>
       <c r="I21" s="3">
-        <v>99400</v>
+        <v>101000</v>
       </c>
       <c r="J21" s="3">
-        <v>88800</v>
+        <v>90200</v>
       </c>
       <c r="K21" s="3">
         <v>77700</v>
@@ -1131,7 +1131,7 @@
         <v>1600</v>
       </c>
       <c r="G22" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="H22" s="3">
         <v>2900</v>
@@ -1155,25 +1155,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>180600</v>
+        <v>183900</v>
       </c>
       <c r="E23" s="3">
-        <v>138600</v>
+        <v>141100</v>
       </c>
       <c r="F23" s="3">
-        <v>95000</v>
+        <v>96800</v>
       </c>
       <c r="G23" s="3">
-        <v>64900</v>
+        <v>66100</v>
       </c>
       <c r="H23" s="3">
-        <v>53400</v>
+        <v>54300</v>
       </c>
       <c r="I23" s="3">
-        <v>46900</v>
+        <v>47800</v>
       </c>
       <c r="J23" s="3">
-        <v>42500</v>
+        <v>43300</v>
       </c>
       <c r="K23" s="3">
         <v>37000</v>
@@ -1188,25 +1188,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>42500</v>
+        <v>43300</v>
       </c>
       <c r="E24" s="3">
-        <v>22100</v>
+        <v>22500</v>
       </c>
       <c r="F24" s="3">
-        <v>24700</v>
+        <v>25100</v>
       </c>
       <c r="G24" s="3">
-        <v>14900</v>
+        <v>15200</v>
       </c>
       <c r="H24" s="3">
-        <v>11100</v>
+        <v>11300</v>
       </c>
       <c r="I24" s="3">
-        <v>11600</v>
+        <v>11800</v>
       </c>
       <c r="J24" s="3">
-        <v>10300</v>
+        <v>10500</v>
       </c>
       <c r="K24" s="3">
         <v>9600</v>
@@ -1254,25 +1254,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>138100</v>
+        <v>140600</v>
       </c>
       <c r="E26" s="3">
-        <v>116500</v>
+        <v>118700</v>
       </c>
       <c r="F26" s="3">
-        <v>70400</v>
+        <v>71700</v>
       </c>
       <c r="G26" s="3">
-        <v>50000</v>
+        <v>50900</v>
       </c>
       <c r="H26" s="3">
-        <v>42200</v>
+        <v>43000</v>
       </c>
       <c r="I26" s="3">
-        <v>35400</v>
+        <v>36000</v>
       </c>
       <c r="J26" s="3">
-        <v>32200</v>
+        <v>32800</v>
       </c>
       <c r="K26" s="3">
         <v>27400</v>
@@ -1287,25 +1287,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>138100</v>
+        <v>140600</v>
       </c>
       <c r="E27" s="3">
-        <v>116500</v>
+        <v>118700</v>
       </c>
       <c r="F27" s="3">
-        <v>70400</v>
+        <v>71700</v>
       </c>
       <c r="G27" s="3">
-        <v>50000</v>
+        <v>50900</v>
       </c>
       <c r="H27" s="3">
-        <v>42200</v>
+        <v>43000</v>
       </c>
       <c r="I27" s="3">
-        <v>35400</v>
+        <v>36000</v>
       </c>
       <c r="J27" s="3">
-        <v>32200</v>
+        <v>32800</v>
       </c>
       <c r="K27" s="3">
         <v>27400</v>
@@ -1368,7 +1368,7 @@
         <v>24</v>
       </c>
       <c r="I29" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>24</v>
@@ -1452,7 +1452,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-6000</v>
+        <v>-6100</v>
       </c>
       <c r="E32" s="3">
         <v>-400</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>138100</v>
+        <v>140600</v>
       </c>
       <c r="E33" s="3">
-        <v>116500</v>
+        <v>118700</v>
       </c>
       <c r="F33" s="3">
-        <v>70400</v>
+        <v>71700</v>
       </c>
       <c r="G33" s="3">
-        <v>50000</v>
+        <v>50900</v>
       </c>
       <c r="H33" s="3">
-        <v>42200</v>
+        <v>43000</v>
       </c>
       <c r="I33" s="3">
-        <v>36300</v>
+        <v>37000</v>
       </c>
       <c r="J33" s="3">
-        <v>32200</v>
+        <v>32800</v>
       </c>
       <c r="K33" s="3">
         <v>27400</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>138100</v>
+        <v>140600</v>
       </c>
       <c r="E35" s="3">
-        <v>116500</v>
+        <v>118700</v>
       </c>
       <c r="F35" s="3">
-        <v>70400</v>
+        <v>71700</v>
       </c>
       <c r="G35" s="3">
-        <v>50000</v>
+        <v>50900</v>
       </c>
       <c r="H35" s="3">
-        <v>42200</v>
+        <v>43000</v>
       </c>
       <c r="I35" s="3">
-        <v>36300</v>
+        <v>37000</v>
       </c>
       <c r="J35" s="3">
-        <v>32200</v>
+        <v>32800</v>
       </c>
       <c r="K35" s="3">
         <v>27400</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>373300</v>
+        <v>380200</v>
       </c>
       <c r="E41" s="3">
-        <v>288300</v>
+        <v>293600</v>
       </c>
       <c r="F41" s="3">
-        <v>180500</v>
+        <v>183900</v>
       </c>
       <c r="G41" s="3">
-        <v>60000</v>
+        <v>61100</v>
       </c>
       <c r="H41" s="3">
-        <v>36900</v>
+        <v>37500</v>
       </c>
       <c r="I41" s="3">
-        <v>47500</v>
+        <v>48300</v>
       </c>
       <c r="J41" s="3">
-        <v>51500</v>
+        <v>52500</v>
       </c>
       <c r="K41" s="3">
         <v>49600</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>76800</v>
+        <v>78200</v>
       </c>
       <c r="E43" s="3">
-        <v>75300</v>
+        <v>76700</v>
       </c>
       <c r="F43" s="3">
-        <v>70300</v>
+        <v>71600</v>
       </c>
       <c r="G43" s="3">
-        <v>57300</v>
+        <v>58300</v>
       </c>
       <c r="H43" s="3">
-        <v>48400</v>
+        <v>49300</v>
       </c>
       <c r="I43" s="3">
-        <v>43200</v>
+        <v>44000</v>
       </c>
       <c r="J43" s="3">
-        <v>39300</v>
+        <v>40000</v>
       </c>
       <c r="K43" s="3">
         <v>38300</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>33300</v>
+        <v>33900</v>
       </c>
       <c r="E45" s="3">
-        <v>29700</v>
+        <v>30200</v>
       </c>
       <c r="F45" s="3">
-        <v>22900</v>
+        <v>23300</v>
       </c>
       <c r="G45" s="3">
-        <v>17500</v>
+        <v>17900</v>
       </c>
       <c r="H45" s="3">
-        <v>12200</v>
+        <v>12400</v>
       </c>
       <c r="I45" s="3">
-        <v>10300</v>
+        <v>10500</v>
       </c>
       <c r="J45" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="K45" s="3">
         <v>5600</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>484400</v>
+        <v>493300</v>
       </c>
       <c r="E46" s="3">
-        <v>394500</v>
+        <v>401700</v>
       </c>
       <c r="F46" s="3">
-        <v>274300</v>
+        <v>279300</v>
       </c>
       <c r="G46" s="3">
-        <v>135400</v>
+        <v>137800</v>
       </c>
       <c r="H46" s="3">
-        <v>97600</v>
+        <v>99400</v>
       </c>
       <c r="I46" s="3">
-        <v>101100</v>
+        <v>103000</v>
       </c>
       <c r="J46" s="3">
-        <v>98000</v>
+        <v>99800</v>
       </c>
       <c r="K46" s="3">
         <v>99800</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>24600</v>
+        <v>25000</v>
       </c>
       <c r="E48" s="3">
-        <v>28900</v>
+        <v>29400</v>
       </c>
       <c r="F48" s="3">
-        <v>32800</v>
+        <v>33400</v>
       </c>
       <c r="G48" s="3">
-        <v>35900</v>
+        <v>36600</v>
       </c>
       <c r="H48" s="3">
-        <v>17000</v>
+        <v>17300</v>
       </c>
       <c r="I48" s="3">
-        <v>17300</v>
+        <v>17600</v>
       </c>
       <c r="J48" s="3">
-        <v>14100</v>
+        <v>14400</v>
       </c>
       <c r="K48" s="3">
         <v>11500</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1223000</v>
+        <v>1245500</v>
       </c>
       <c r="E49" s="3">
-        <v>1132400</v>
+        <v>1153200</v>
       </c>
       <c r="F49" s="3">
-        <v>1087500</v>
+        <v>1107500</v>
       </c>
       <c r="G49" s="3">
-        <v>1054400</v>
+        <v>1073800</v>
       </c>
       <c r="H49" s="3">
-        <v>748800</v>
+        <v>762500</v>
       </c>
       <c r="I49" s="3">
-        <v>713400</v>
+        <v>726500</v>
       </c>
       <c r="J49" s="3">
-        <v>551800</v>
+        <v>562000</v>
       </c>
       <c r="K49" s="3">
         <v>467500</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>45600</v>
+        <v>46400</v>
       </c>
       <c r="E52" s="3">
-        <v>45400</v>
+        <v>46200</v>
       </c>
       <c r="F52" s="3">
-        <v>41600</v>
+        <v>42300</v>
       </c>
       <c r="G52" s="3">
-        <v>47400</v>
+        <v>48300</v>
       </c>
       <c r="H52" s="3">
-        <v>19100</v>
+        <v>19400</v>
       </c>
       <c r="I52" s="3">
+        <v>12500</v>
+      </c>
+      <c r="J52" s="3">
         <v>12300</v>
-      </c>
-      <c r="J52" s="3">
-        <v>12100</v>
       </c>
       <c r="K52" s="3">
         <v>24200</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1777600</v>
+        <v>1810200</v>
       </c>
       <c r="E54" s="3">
-        <v>1601200</v>
+        <v>1630600</v>
       </c>
       <c r="F54" s="3">
-        <v>1436100</v>
+        <v>1462500</v>
       </c>
       <c r="G54" s="3">
-        <v>1273200</v>
+        <v>1296500</v>
       </c>
       <c r="H54" s="3">
-        <v>882500</v>
+        <v>898700</v>
       </c>
       <c r="I54" s="3">
-        <v>844000</v>
+        <v>859500</v>
       </c>
       <c r="J54" s="3">
-        <v>676100</v>
+        <v>688500</v>
       </c>
       <c r="K54" s="3">
         <v>603000</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>14300</v>
+        <v>14500</v>
       </c>
       <c r="E57" s="3">
-        <v>14300</v>
+        <v>14500</v>
       </c>
       <c r="F57" s="3">
-        <v>10700</v>
+        <v>10900</v>
       </c>
       <c r="G57" s="3">
-        <v>10400</v>
+        <v>10500</v>
       </c>
       <c r="H57" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="I57" s="3">
-        <v>10700</v>
+        <v>10900</v>
       </c>
       <c r="J57" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="K57" s="3">
         <v>6000</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>214800</v>
+        <v>218700</v>
       </c>
       <c r="E59" s="3">
-        <v>166000</v>
+        <v>169000</v>
       </c>
       <c r="F59" s="3">
-        <v>130100</v>
+        <v>132500</v>
       </c>
       <c r="G59" s="3">
-        <v>109800</v>
+        <v>111800</v>
       </c>
       <c r="H59" s="3">
-        <v>88100</v>
+        <v>89700</v>
       </c>
       <c r="I59" s="3">
-        <v>80800</v>
+        <v>82200</v>
       </c>
       <c r="J59" s="3">
-        <v>66400</v>
+        <v>67600</v>
       </c>
       <c r="K59" s="3">
         <v>47400</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>229100</v>
+        <v>233300</v>
       </c>
       <c r="E60" s="3">
-        <v>180200</v>
+        <v>183500</v>
       </c>
       <c r="F60" s="3">
-        <v>140800</v>
+        <v>143400</v>
       </c>
       <c r="G60" s="3">
-        <v>120100</v>
+        <v>122300</v>
       </c>
       <c r="H60" s="3">
-        <v>95000</v>
+        <v>96800</v>
       </c>
       <c r="I60" s="3">
-        <v>91400</v>
+        <v>93100</v>
       </c>
       <c r="J60" s="3">
-        <v>72700</v>
+        <v>74000</v>
       </c>
       <c r="K60" s="3">
         <v>53300</v>
@@ -2288,10 +2288,10 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>34400</v>
+        <v>35000</v>
       </c>
       <c r="I61" s="3">
-        <v>50000</v>
+        <v>50900</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>63600</v>
+        <v>64700</v>
       </c>
       <c r="E62" s="3">
-        <v>70500</v>
+        <v>71800</v>
       </c>
       <c r="F62" s="3">
-        <v>64700</v>
+        <v>65900</v>
       </c>
       <c r="G62" s="3">
-        <v>43100</v>
+        <v>43900</v>
       </c>
       <c r="H62" s="3">
-        <v>32400</v>
+        <v>33000</v>
       </c>
       <c r="I62" s="3">
-        <v>28900</v>
+        <v>29400</v>
       </c>
       <c r="J62" s="3">
-        <v>21800</v>
+        <v>22200</v>
       </c>
       <c r="K62" s="3">
         <v>14300</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>292600</v>
+        <v>298000</v>
       </c>
       <c r="E66" s="3">
-        <v>250700</v>
+        <v>255300</v>
       </c>
       <c r="F66" s="3">
-        <v>205600</v>
+        <v>209300</v>
       </c>
       <c r="G66" s="3">
-        <v>163300</v>
+        <v>166300</v>
       </c>
       <c r="H66" s="3">
-        <v>161900</v>
+        <v>164800</v>
       </c>
       <c r="I66" s="3">
-        <v>170300</v>
+        <v>173400</v>
       </c>
       <c r="J66" s="3">
-        <v>94500</v>
+        <v>96200</v>
       </c>
       <c r="K66" s="3">
         <v>67600</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>141600</v>
+        <v>144200</v>
       </c>
       <c r="E72" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="F72" s="3">
-        <v>-113000</v>
+        <v>-115100</v>
       </c>
       <c r="G72" s="3">
-        <v>-183400</v>
+        <v>-186800</v>
       </c>
       <c r="H72" s="3">
-        <v>-233400</v>
+        <v>-237600</v>
       </c>
       <c r="I72" s="3">
-        <v>-285800</v>
+        <v>-291100</v>
       </c>
       <c r="J72" s="3">
-        <v>-322100</v>
+        <v>-328000</v>
       </c>
       <c r="K72" s="3">
         <v>-349300</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1484900</v>
+        <v>1512200</v>
       </c>
       <c r="E76" s="3">
-        <v>1350500</v>
+        <v>1375300</v>
       </c>
       <c r="F76" s="3">
-        <v>1230600</v>
+        <v>1253200</v>
       </c>
       <c r="G76" s="3">
-        <v>1109900</v>
+        <v>1130300</v>
       </c>
       <c r="H76" s="3">
-        <v>720600</v>
+        <v>733800</v>
       </c>
       <c r="I76" s="3">
-        <v>673700</v>
+        <v>686100</v>
       </c>
       <c r="J76" s="3">
-        <v>581600</v>
+        <v>592300</v>
       </c>
       <c r="K76" s="3">
         <v>535400</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>138100</v>
+        <v>140600</v>
       </c>
       <c r="E81" s="3">
-        <v>116500</v>
+        <v>118700</v>
       </c>
       <c r="F81" s="3">
-        <v>70400</v>
+        <v>71700</v>
       </c>
       <c r="G81" s="3">
-        <v>50000</v>
+        <v>50900</v>
       </c>
       <c r="H81" s="3">
-        <v>42200</v>
+        <v>43000</v>
       </c>
       <c r="I81" s="3">
-        <v>36300</v>
+        <v>37000</v>
       </c>
       <c r="J81" s="3">
-        <v>32200</v>
+        <v>32800</v>
       </c>
       <c r="K81" s="3">
         <v>27400</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>90000</v>
+      </c>
+      <c r="E83" s="3">
         <v>88300</v>
       </c>
-      <c r="E83" s="3">
-        <v>86800</v>
-      </c>
       <c r="F83" s="3">
-        <v>83300</v>
+        <v>84800</v>
       </c>
       <c r="G83" s="3">
-        <v>83100</v>
+        <v>84600</v>
       </c>
       <c r="H83" s="3">
-        <v>60400</v>
+        <v>61500</v>
       </c>
       <c r="I83" s="3">
-        <v>50800</v>
+        <v>51700</v>
       </c>
       <c r="J83" s="3">
-        <v>45400</v>
+        <v>46300</v>
       </c>
       <c r="K83" s="3">
         <v>39400</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>259900</v>
+        <v>264600</v>
       </c>
       <c r="E89" s="3">
-        <v>237900</v>
+        <v>242300</v>
       </c>
       <c r="F89" s="3">
-        <v>177300</v>
+        <v>180500</v>
       </c>
       <c r="G89" s="3">
-        <v>140800</v>
+        <v>143400</v>
       </c>
       <c r="H89" s="3">
-        <v>105500</v>
+        <v>107400</v>
       </c>
       <c r="I89" s="3">
-        <v>97400</v>
+        <v>99200</v>
       </c>
       <c r="J89" s="3">
-        <v>98000</v>
+        <v>99800</v>
       </c>
       <c r="K89" s="3">
         <v>72200</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-8200</v>
+        <v>-8400</v>
       </c>
       <c r="E91" s="3">
-        <v>-6500</v>
+        <v>-6600</v>
       </c>
       <c r="F91" s="3">
-        <v>-5100</v>
+        <v>-5200</v>
       </c>
       <c r="G91" s="3">
-        <v>-6600</v>
+        <v>-6700</v>
       </c>
       <c r="H91" s="3">
-        <v>-7100</v>
+        <v>-7200</v>
       </c>
       <c r="I91" s="3">
-        <v>-6900</v>
+        <v>-7000</v>
       </c>
       <c r="J91" s="3">
-        <v>-6600</v>
+        <v>-6800</v>
       </c>
       <c r="K91" s="3">
         <v>-5700</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-164300</v>
+        <v>-167300</v>
       </c>
       <c r="E94" s="3">
-        <v>-128500</v>
+        <v>-130800</v>
       </c>
       <c r="F94" s="3">
-        <v>-70500</v>
+        <v>-71700</v>
       </c>
       <c r="G94" s="3">
-        <v>-401100</v>
+        <v>-408500</v>
       </c>
       <c r="H94" s="3">
-        <v>-98800</v>
+        <v>-100700</v>
       </c>
       <c r="I94" s="3">
-        <v>-158000</v>
+        <v>-160900</v>
       </c>
       <c r="J94" s="3">
-        <v>-95000</v>
+        <v>-96800</v>
       </c>
       <c r="K94" s="3">
         <v>-172900</v>
@@ -3430,22 +3430,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-6200</v>
+        <v>-6300</v>
       </c>
       <c r="E100" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="F100" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="G100" s="3">
-        <v>283900</v>
+        <v>289100</v>
       </c>
       <c r="H100" s="3">
-        <v>-15400</v>
+        <v>-15600</v>
       </c>
       <c r="I100" s="3">
-        <v>51300</v>
+        <v>52300</v>
       </c>
       <c r="J100" s="3">
         <v>-300</v>
@@ -3463,22 +3463,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-4300</v>
+        <v>-4400</v>
       </c>
       <c r="E101" s="3">
-        <v>-3700</v>
+        <v>-3800</v>
       </c>
       <c r="F101" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="G101" s="3">
         <v>-500</v>
       </c>
       <c r="H101" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="I101" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="J101" s="3">
         <v>-1500</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>85000</v>
+        <v>86600</v>
       </c>
       <c r="E102" s="3">
-        <v>107800</v>
+        <v>109700</v>
       </c>
       <c r="F102" s="3">
-        <v>120600</v>
+        <v>122800</v>
       </c>
       <c r="G102" s="3">
-        <v>23100</v>
+        <v>23500</v>
       </c>
       <c r="H102" s="3">
-        <v>-10600</v>
+        <v>-10800</v>
       </c>
       <c r="I102" s="3">
-        <v>-4000</v>
+        <v>-4100</v>
       </c>
       <c r="J102" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="K102" s="3">
         <v>-107700</v>
